--- a/_working.xlsx
+++ b/_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE36796A-2D32-4048-8DDE-936CA5D24CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6524F0-AAFF-45CB-8A5B-502FEB29AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2923" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="1581">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4009,799 +4009,1255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>　　臣亮言：先帝創業未半而中道崩殂，今天下三分，益州疲弊，此誠危急存亡之秋也。然侍衞之臣不懈於內，忠志之士忘身於外者，蓋追先帝之殊遇，欲報之於陛下也。
-　　誠宜開張聖聽，以光先帝遺德，恢弘志士之氣，不宜妄自菲薄，引喻失義，以塞忠諫之路也。
-　　宮中府中，俱爲一體，陟罰臧否，不宜異同。若有作奸犯科及爲忠善者，宜付有司論其刑賞，以昭陛下平明之治，不宜偏私，使內外異法也。
-　　侍中、侍郎郭攸之、費禕、董允等，此皆良實，志慮忠純，是以先帝簡拔以遺陛下。愚以爲宮中之事，事無大小，悉以咨之，然後施行，必能裨補闕漏，有所廣益。
-　　將軍向寵，性行淑均，曉暢軍事，試用之於昔日，先帝稱之曰能，是以衆議舉寵爲督。愚以爲營中之事，悉以咨之，必能使行陣和穆，優劣得所也。
-　　親賢臣，遠小人，此先漢所以興隆也；親小人，遠賢臣，此後漢所以傾頹也。先帝在時，每與臣論此事，未嘗不歎息痛恨於桓、靈也。侍中、尚書、長史、參軍，此悉貞亮死節之臣也，願陛下親之信之，則漢室之隆，可計日而待也。
-　　臣本布衣，躬耕於南陽，苟全性命於亂世，不求聞達於諸侯。先帝不以臣卑鄙，猥自枉屈，三顧臣於草廬之中，諮臣以當世之事，由是感激，遂許先帝以驅馳。後值傾覆，受任於敗軍之際，奉命於危難之間，爾來二十有一年矣。先帝知臣謹慎，故臨崩寄臣以大事也。受命以來，夙夜憂歎，恐託付不效，以傷先帝之明，故五月渡瀘，深入不毛。今南方已定，兵甲已足，當獎率三軍，北定中原，庶竭駑鈍，攘除姦凶，興復漢室，還於舊都，此臣所以報先帝，而忠陛下之職分也。至於斟酌損益，進盡忠言，則攸之、禕、允之任也。
-　　願陛下託臣以討賊興復之效；不效，則治臣之罪，以告先帝之靈。若無興德之言，則責攸之、禕、允等之慢，以彰其咎。陛下亦宜自課，以諮諏善道，察納雅言。深追先帝遺詔，臣不勝受恩感激。
-　　今當遠離，臨表涕泣，不知所云。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣</t>
-  </si>
-  <si>
-    <t>亮</t>
+    <t>南昌故郡，洪都新府，星分翼軫，地接衡廬。襟三江而帶五湖，控蠻荊而引甌越。物華天寶，龍光射牛斗之墟；人傑地靈，徐孺下陳蕃之榻。雄州霧列，俊采星馳。臺隍枕夷夏之交，賓主盡東南之美。都督閻公之雅望，棨戟遙臨；宇文新州之懿範，襜帷暫駐。十旬休暇，勝友如雲；千里逢迎，高朋滿座。騰蛟起鳳，孟學士之詞宗；紫電清霜，王將軍之武庫。家君作宰，路出名區；童子何知，躬逢勝餞。
+時維九月，序屬三秋；潦水盡而寒潭清，煙光凝而暮山紫。儼驂騑於上路，訪風景於崇阿。臨帝子之長洲，得仙人之舊館。層臺聳翠，上出重霄；飛閣流丹，下臨無地。鶴汀鳧渚，窮島嶼之縈迴；桂殿蘭宮，即岡巒之體勢。披繡闥，俯雕甍。山原曠其盈視，川澤盱其駭矚。閭閻撲地，鐘鳴鼎食之家；舸艦彌津，青雀黃龍之軸。虹銷雨霽，彩徹雲衢。落霞與孤鶩齊飛，秋水共長天一色。漁舟唱晚，響窮彭蠡之濱；雁陣驚寒，聲斷衡陽之浦。
+遙襟俯暢，逸興遄飛。爽籟發而清風生，纖歌凝而白雲遏。睢園綠竹，氣凌彭澤之樽；鄴水朱華，光照臨川之筆。四美具，二難并。窮睇眄於中天，極娛遊於暇日。天高地迥，覺宇宙之無窮；興盡悲來，識盈虛之有數。望長安於日下，指吳會於雲間。地勢極而南溟深，天柱高而北辰遠。關山難越，誰悲失路之人；萍水相逢，盡是他鄉之客。懷帝閽而不見，奉宣室以何年。嗟乎！時運不齊，命途多舛；馮唐易老，李廣難封。屈賈誼於長沙，非無聖主；竄梁鴻於海曲，豈乏明時。所賴君子安貧，達人知命。老當益壯，寧移白首之心；窮且益堅，不墜青雲之志。酌貪泉而覺爽，處涸轍以相懽。北海雖賒，扶搖可接；東隅已逝，桑榆非晚。孟嘗高潔，空餘報國之情；阮籍倡狂，豈效窮途之哭。
+勃三尺微命，一介書生。無路請纓，等終軍之弱冠；有懷投筆，慕宗慤之長風。舍簪笏於百齡，奉晨昏於萬里。非謝家之寶樹，接孟氏之芳鄰。他日趨庭，叨陪鯉對；今茲捧袂，喜託龍門。楊意不逢，撫凌雲而自惜；鍾期既遇，奏流水以何慚。嗚呼！勝地不常，盛筵難再；蘭亭已矣，梓澤邱墟。臨別贈言，幸承恩於偉餞；登高作賦，是所望於群公。敢竭鄙誠，恭疏短引；一言均賦，四韻俱成。請灑潘江，各傾陸海云爾。
+滕王高閣臨江渚，
+佩玉鳴鸞罷歌舞。
+畫棟朝飛南浦雲，
+朱簾暮捲西山雨。
+閒雲潭影日悠悠，
+物換星移幾度秋。
+閣中帝子今何在，
+檻外長江空自流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌</t>
+  </si>
+  <si>
+    <t>故</t>
+  </si>
+  <si>
+    <t>洪</t>
+  </si>
+  <si>
+    <t>都</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>府</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>翼</t>
+  </si>
+  <si>
+    <t>軫</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>接</t>
+  </si>
+  <si>
+    <t>衡</t>
+  </si>
+  <si>
+    <t>廬</t>
+  </si>
+  <si>
+    <t>襟</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>帶</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>控</t>
+  </si>
+  <si>
+    <t>蠻</t>
+  </si>
+  <si>
+    <t>荊</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>甌</t>
+  </si>
+  <si>
+    <t>華</t>
+  </si>
+  <si>
+    <t>寶</t>
+  </si>
+  <si>
+    <t>龍</t>
+  </si>
+  <si>
+    <t>射</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>墟</t>
+  </si>
+  <si>
+    <t>傑</t>
+  </si>
+  <si>
+    <t>靈</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>孺</t>
+  </si>
+  <si>
+    <t>陳</t>
+  </si>
+  <si>
+    <t>蕃</t>
+  </si>
+  <si>
+    <t>榻</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>州</t>
+  </si>
+  <si>
+    <t>霧</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>俊</t>
+  </si>
+  <si>
+    <t>采</t>
+  </si>
+  <si>
+    <t>馳</t>
+  </si>
+  <si>
+    <t>臺</t>
+  </si>
+  <si>
+    <t>隍</t>
+  </si>
+  <si>
+    <t>枕</t>
+  </si>
+  <si>
+    <t>夷</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>賓</t>
+  </si>
+  <si>
+    <t>主</t>
+  </si>
+  <si>
+    <t>盡</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>美</t>
+  </si>
+  <si>
+    <t>督</t>
+  </si>
+  <si>
+    <t>閻</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>雅</t>
+  </si>
+  <si>
+    <t>望</t>
+  </si>
+  <si>
+    <t>棨</t>
+  </si>
+  <si>
+    <t>戟</t>
+  </si>
+  <si>
+    <t>遙</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>懿</t>
+  </si>
+  <si>
+    <t>範</t>
+  </si>
+  <si>
+    <t>襜</t>
+  </si>
+  <si>
+    <t>帷</t>
+  </si>
+  <si>
+    <t>暫</t>
+  </si>
+  <si>
+    <t>駐</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>旬</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>暇</t>
+  </si>
+  <si>
+    <t>友</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>逢</t>
+  </si>
+  <si>
+    <t>迎</t>
+  </si>
+  <si>
+    <t>朋</t>
+  </si>
+  <si>
+    <t>座</t>
+  </si>
+  <si>
+    <t>騰</t>
+  </si>
+  <si>
+    <t>蛟</t>
+  </si>
+  <si>
+    <t>起</t>
+  </si>
+  <si>
+    <t>鳳</t>
+  </si>
+  <si>
+    <t>孟</t>
+  </si>
+  <si>
+    <t>學</t>
+  </si>
+  <si>
+    <t>士</t>
+  </si>
+  <si>
+    <t>詞</t>
+  </si>
+  <si>
+    <t>宗</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>電</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>將</t>
+  </si>
+  <si>
+    <t>軍</t>
+  </si>
+  <si>
+    <t>武</t>
+  </si>
+  <si>
+    <t>庫</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>宰</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>出</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>區</t>
+  </si>
+  <si>
+    <t>童</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>躬</t>
+  </si>
+  <si>
+    <t>餞</t>
+  </si>
+  <si>
+    <t>維</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>序</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>潦</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>寒</t>
+  </si>
+  <si>
+    <t>潭</t>
+  </si>
+  <si>
+    <t>凝</t>
+  </si>
+  <si>
+    <t>儼</t>
+  </si>
+  <si>
+    <t>驂</t>
+  </si>
+  <si>
+    <t>騑</t>
+  </si>
+  <si>
+    <t>訪</t>
+  </si>
+  <si>
+    <t>崇</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>仙</t>
+  </si>
+  <si>
+    <t>館</t>
+  </si>
+  <si>
+    <t>層</t>
+  </si>
+  <si>
+    <t>聳</t>
+  </si>
+  <si>
+    <t>翠</t>
+  </si>
+  <si>
+    <t>霄</t>
+  </si>
+  <si>
+    <t>飛</t>
+  </si>
+  <si>
+    <t>閣</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>鶴</t>
+  </si>
+  <si>
+    <t>鳧</t>
+  </si>
+  <si>
+    <t>渚</t>
+  </si>
+  <si>
+    <t>窮</t>
+  </si>
+  <si>
+    <t>島</t>
+  </si>
+  <si>
+    <t>嶼</t>
+  </si>
+  <si>
+    <t>縈</t>
+  </si>
+  <si>
+    <t>迴</t>
+  </si>
+  <si>
+    <t>桂</t>
+  </si>
+  <si>
+    <t>殿</t>
+  </si>
+  <si>
+    <t>宮</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>岡</t>
+  </si>
+  <si>
+    <t>巒</t>
+  </si>
+  <si>
+    <t>體</t>
+  </si>
+  <si>
+    <t>勢</t>
+  </si>
+  <si>
+    <t>披</t>
+  </si>
+  <si>
+    <t>繡</t>
+  </si>
+  <si>
+    <t>闥</t>
+  </si>
+  <si>
+    <t>俯</t>
+  </si>
+  <si>
+    <t>雕</t>
+  </si>
+  <si>
+    <t>甍</t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>視</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>澤</t>
+  </si>
+  <si>
+    <t>盱</t>
+  </si>
+  <si>
+    <t>駭</t>
+  </si>
+  <si>
+    <t>矚</t>
+  </si>
+  <si>
+    <t>閭</t>
+  </si>
+  <si>
+    <t>撲</t>
+  </si>
+  <si>
+    <t>鐘</t>
+  </si>
+  <si>
+    <t>鳴</t>
+  </si>
+  <si>
+    <t>鼎</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>舸</t>
+  </si>
+  <si>
+    <t>艦</t>
+  </si>
+  <si>
+    <t>彌</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>雀</t>
+  </si>
+  <si>
+    <t>黃</t>
+  </si>
+  <si>
+    <t>軸</t>
+  </si>
+  <si>
+    <t>虹</t>
+  </si>
+  <si>
+    <t>銷</t>
+  </si>
+  <si>
+    <t>霽</t>
+  </si>
+  <si>
+    <t>彩</t>
+  </si>
+  <si>
+    <t>徹</t>
+  </si>
+  <si>
+    <t>衢</t>
+  </si>
+  <si>
+    <t>落</t>
+  </si>
+  <si>
+    <t>霞</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>鶩</t>
+  </si>
+  <si>
+    <t>齊</t>
+  </si>
+  <si>
+    <t>共</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>舟</t>
+  </si>
+  <si>
+    <t>唱</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>響</t>
+  </si>
+  <si>
+    <t>彭</t>
+  </si>
+  <si>
+    <t>蠡</t>
+  </si>
+  <si>
+    <t>濱</t>
+  </si>
+  <si>
+    <t>雁</t>
+  </si>
+  <si>
+    <t>陣</t>
+  </si>
+  <si>
+    <t>聲</t>
+  </si>
+  <si>
+    <t>斷</t>
+  </si>
+  <si>
+    <t>浦</t>
+  </si>
+  <si>
+    <t>暢</t>
+  </si>
+  <si>
+    <t>逸</t>
+  </si>
+  <si>
+    <t>遄</t>
+  </si>
+  <si>
+    <t>爽</t>
+  </si>
+  <si>
+    <t>籟</t>
+  </si>
+  <si>
+    <t>發</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>纖</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>遏</t>
+  </si>
+  <si>
+    <t>睢</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>綠</t>
+  </si>
+  <si>
+    <t>竹</t>
+  </si>
+  <si>
+    <t>凌</t>
+  </si>
+  <si>
+    <t>樽</t>
+  </si>
+  <si>
+    <t>鄴</t>
+  </si>
+  <si>
+    <t>朱</t>
+  </si>
+  <si>
+    <t>照</t>
+  </si>
+  <si>
+    <t>筆</t>
+  </si>
+  <si>
+    <t>難</t>
+  </si>
+  <si>
+    <t>并</t>
+  </si>
+  <si>
+    <t>睇</t>
+  </si>
+  <si>
+    <t>眄</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>娛</t>
+  </si>
+  <si>
+    <t>遊</t>
+  </si>
+  <si>
+    <t>迥</t>
+  </si>
+  <si>
+    <t>覺</t>
+  </si>
+  <si>
+    <t>宙</t>
+  </si>
+  <si>
+    <t>來</t>
+  </si>
+  <si>
+    <t>識</t>
+  </si>
+  <si>
+    <t>虛</t>
+  </si>
+  <si>
+    <t>數</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>指</t>
+  </si>
+  <si>
+    <t>吳</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>溟</t>
+  </si>
+  <si>
+    <t>深</t>
+  </si>
+  <si>
+    <t>柱</t>
+  </si>
+  <si>
+    <t>辰</t>
+  </si>
+  <si>
+    <t>關</t>
+  </si>
+  <si>
+    <t>失</t>
+  </si>
+  <si>
+    <t>萍</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>他</t>
+  </si>
+  <si>
+    <t>閽</t>
+  </si>
+  <si>
+    <t>見</t>
+  </si>
+  <si>
+    <t>奉</t>
+  </si>
+  <si>
+    <t>宣</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>運</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>途</t>
+  </si>
+  <si>
+    <t>舛</t>
+  </si>
+  <si>
+    <t>馮</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>廣</t>
+  </si>
+  <si>
+    <t>封</t>
+  </si>
+  <si>
+    <t>屈</t>
+  </si>
+  <si>
+    <t>賈</t>
+  </si>
+  <si>
+    <t>誼</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>聖</t>
+  </si>
+  <si>
+    <t>竄</t>
+  </si>
+  <si>
+    <t>梁</t>
+  </si>
+  <si>
+    <t>鴻</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>曲</t>
+  </si>
+  <si>
+    <t>豈</t>
+  </si>
+  <si>
+    <t>乏</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>賴</t>
+  </si>
+  <si>
+    <t>貧</t>
+  </si>
+  <si>
+    <t>達</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>益</t>
+  </si>
+  <si>
+    <t>壯</t>
+  </si>
+  <si>
+    <t>寧</t>
+  </si>
+  <si>
+    <t>移</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>且</t>
+  </si>
+  <si>
+    <t>堅</t>
+  </si>
+  <si>
+    <t>墜</t>
+  </si>
+  <si>
+    <t>志</t>
+  </si>
+  <si>
+    <t>酌</t>
+  </si>
+  <si>
+    <t>貪</t>
+  </si>
+  <si>
+    <t>泉</t>
+  </si>
+  <si>
+    <t>涸</t>
+  </si>
+  <si>
+    <t>轍</t>
+  </si>
+  <si>
+    <t>懽</t>
+  </si>
+  <si>
+    <t>雖</t>
+  </si>
+  <si>
+    <t>賒</t>
+  </si>
+  <si>
+    <t>扶</t>
+  </si>
+  <si>
+    <t>搖</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>隅</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>逝</t>
+  </si>
+  <si>
+    <t>桑</t>
+  </si>
+  <si>
+    <t>榆</t>
+  </si>
+  <si>
+    <t>潔</t>
+  </si>
+  <si>
+    <t>餘</t>
+  </si>
+  <si>
+    <t>報</t>
+  </si>
+  <si>
+    <t>阮</t>
+  </si>
+  <si>
+    <t>籍</t>
+  </si>
+  <si>
+    <t>倡</t>
+  </si>
+  <si>
+    <t>狂</t>
+  </si>
+  <si>
+    <t>效</t>
+  </si>
+  <si>
+    <t>哭</t>
+  </si>
+  <si>
+    <t>勃</t>
+  </si>
+  <si>
+    <t>尺</t>
+  </si>
+  <si>
+    <t>介</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>請</t>
+  </si>
+  <si>
+    <t>纓</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>冠</t>
+  </si>
+  <si>
+    <t>投</t>
+  </si>
+  <si>
+    <t>慕</t>
+  </si>
+  <si>
+    <t>慤</t>
+  </si>
+  <si>
+    <t>舍</t>
+  </si>
+  <si>
+    <t>簪</t>
+  </si>
+  <si>
+    <t>笏</t>
+  </si>
+  <si>
+    <t>齡</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>昏</t>
+  </si>
+  <si>
+    <t>謝</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>氏</t>
+  </si>
+  <si>
+    <t>芳</t>
+  </si>
+  <si>
+    <t>鄰</t>
+  </si>
+  <si>
+    <t>趨</t>
+  </si>
+  <si>
+    <t>叨</t>
+  </si>
+  <si>
+    <t>陪</t>
+  </si>
+  <si>
+    <t>鯉</t>
+  </si>
+  <si>
+    <t>對</t>
+  </si>
+  <si>
+    <t>茲</t>
+  </si>
+  <si>
+    <t>捧</t>
+  </si>
+  <si>
+    <t>袂</t>
+  </si>
+  <si>
+    <t>託</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>楊</t>
+  </si>
+  <si>
+    <t>意</t>
+  </si>
+  <si>
+    <t>撫</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>惜</t>
+  </si>
+  <si>
+    <t>鍾</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>遇</t>
+  </si>
+  <si>
+    <t>奏</t>
+  </si>
+  <si>
+    <t>慚</t>
+  </si>
+  <si>
+    <t>嗚</t>
+  </si>
+  <si>
+    <t>呼</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>盛</t>
+  </si>
+  <si>
+    <t>筵</t>
+  </si>
+  <si>
+    <t>再</t>
+  </si>
+  <si>
+    <t>亭</t>
+  </si>
+  <si>
+    <t>梓</t>
+  </si>
+  <si>
+    <t>邱</t>
+  </si>
+  <si>
+    <t>別</t>
+  </si>
+  <si>
+    <t>贈</t>
   </si>
   <si>
     <t>言</t>
   </si>
   <si>
-    <t>帝</t>
-  </si>
-  <si>
-    <t>創</t>
-  </si>
-  <si>
-    <t>業</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>半</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>崩</t>
-  </si>
-  <si>
-    <t>殂</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>益</t>
-  </si>
-  <si>
-    <t>州</t>
-  </si>
-  <si>
-    <t>疲</t>
-  </si>
-  <si>
-    <t>弊</t>
+    <t>幸</t>
+  </si>
+  <si>
+    <t>承</t>
+  </si>
+  <si>
+    <t>恩</t>
+  </si>
+  <si>
+    <t>偉</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>敢</t>
+  </si>
+  <si>
+    <t>竭</t>
+  </si>
+  <si>
+    <t>鄙</t>
   </si>
   <si>
     <t>誠</t>
   </si>
   <si>
-    <t>危</t>
-  </si>
-  <si>
-    <t>急</t>
-  </si>
-  <si>
-    <t>存</t>
-  </si>
-  <si>
-    <t>亡</t>
-  </si>
-  <si>
-    <t>秋</t>
-  </si>
-  <si>
-    <t>侍</t>
-  </si>
-  <si>
-    <t>衞</t>
-  </si>
-  <si>
-    <t>懈</t>
-  </si>
-  <si>
-    <t>內</t>
-  </si>
-  <si>
-    <t>忠</t>
-  </si>
-  <si>
-    <t>志</t>
-  </si>
-  <si>
-    <t>士</t>
-  </si>
-  <si>
-    <t>身</t>
+    <t>恭</t>
+  </si>
+  <si>
+    <t>疏</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>均</t>
+  </si>
+  <si>
+    <t>韻</t>
+  </si>
+  <si>
+    <t>俱</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>灑</t>
+  </si>
+  <si>
+    <t>潘</t>
+  </si>
+  <si>
+    <t>各</t>
+  </si>
+  <si>
+    <t>陸</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>爾</t>
+  </si>
+  <si>
+    <t>佩</t>
+  </si>
+  <si>
+    <t>玉</t>
+  </si>
+  <si>
+    <t>鸞</t>
+  </si>
+  <si>
+    <t>罷</t>
+  </si>
+  <si>
+    <t>舞</t>
+  </si>
+  <si>
+    <t>畫</t>
+  </si>
+  <si>
+    <t>棟</t>
+  </si>
+  <si>
+    <t>簾</t>
+  </si>
+  <si>
+    <t>捲</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>閒</t>
+  </si>
+  <si>
+    <t>悠</t>
+  </si>
+  <si>
+    <t>換</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>檻</t>
   </si>
   <si>
     <t>外</t>
-  </si>
-  <si>
-    <t>蓋</t>
-  </si>
-  <si>
-    <t>追</t>
-  </si>
-  <si>
-    <t>殊</t>
-  </si>
-  <si>
-    <t>遇</t>
-  </si>
-  <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>報</t>
-  </si>
-  <si>
-    <t>陛</t>
-  </si>
-  <si>
-    <t>宜</t>
-  </si>
-  <si>
-    <t>張</t>
-  </si>
-  <si>
-    <t>聖</t>
-  </si>
-  <si>
-    <t>聽</t>
-  </si>
-  <si>
-    <t>遺</t>
-  </si>
-  <si>
-    <t>德</t>
-  </si>
-  <si>
-    <t>恢</t>
-  </si>
-  <si>
-    <t>弘</t>
-  </si>
-  <si>
-    <t>妄</t>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>菲</t>
-  </si>
-  <si>
-    <t>引</t>
-  </si>
-  <si>
-    <t>喻</t>
-  </si>
-  <si>
-    <t>失</t>
-  </si>
-  <si>
-    <t>義</t>
-  </si>
-  <si>
-    <t>塞</t>
-  </si>
-  <si>
-    <t>諫</t>
-  </si>
-  <si>
-    <t>路</t>
-  </si>
-  <si>
-    <t>宮</t>
-  </si>
-  <si>
-    <t>府</t>
-  </si>
-  <si>
-    <t>俱</t>
-  </si>
-  <si>
-    <t>爲</t>
-  </si>
-  <si>
-    <t>體</t>
-  </si>
-  <si>
-    <t>陟</t>
-  </si>
-  <si>
-    <t>罰</t>
-  </si>
-  <si>
-    <t>臧</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>同</t>
-  </si>
-  <si>
-    <t>奸</t>
-  </si>
-  <si>
-    <t>犯</t>
-  </si>
-  <si>
-    <t>科</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>善</t>
-  </si>
-  <si>
-    <t>付</t>
-  </si>
-  <si>
-    <t>司</t>
-  </si>
-  <si>
-    <t>論</t>
-  </si>
-  <si>
-    <t>刑</t>
-  </si>
-  <si>
-    <t>賞</t>
-  </si>
-  <si>
-    <t>昭</t>
-  </si>
-  <si>
-    <t>平</t>
-  </si>
-  <si>
-    <t>治</t>
-  </si>
-  <si>
-    <t>偏</t>
-  </si>
-  <si>
-    <t>私</t>
-  </si>
-  <si>
-    <t>使</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>、</t>
-  </si>
-  <si>
-    <t>郎</t>
-  </si>
-  <si>
-    <t>郭</t>
-  </si>
-  <si>
-    <t>攸</t>
-  </si>
-  <si>
-    <t>費</t>
-  </si>
-  <si>
-    <t>禕</t>
-  </si>
-  <si>
-    <t>董</t>
-  </si>
-  <si>
-    <t>允</t>
-  </si>
-  <si>
-    <t>等</t>
-  </si>
-  <si>
-    <t>良</t>
-  </si>
-  <si>
-    <t>實</t>
-  </si>
-  <si>
-    <t>慮</t>
-  </si>
-  <si>
-    <t>純</t>
-  </si>
-  <si>
-    <t>簡</t>
-  </si>
-  <si>
-    <t>拔</t>
-  </si>
-  <si>
-    <t>愚</t>
-  </si>
-  <si>
-    <t>事</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>悉</t>
-  </si>
-  <si>
-    <t>咨</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>能</t>
-  </si>
-  <si>
-    <t>裨</t>
-  </si>
-  <si>
-    <t>補</t>
-  </si>
-  <si>
-    <t>闕</t>
-  </si>
-  <si>
-    <t>漏</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>廣</t>
-  </si>
-  <si>
-    <t>將</t>
-  </si>
-  <si>
-    <t>軍</t>
-  </si>
-  <si>
-    <t>向</t>
-  </si>
-  <si>
-    <t>性</t>
-  </si>
-  <si>
-    <t>淑</t>
-  </si>
-  <si>
-    <t>均</t>
-  </si>
-  <si>
-    <t>曉</t>
-  </si>
-  <si>
-    <t>暢</t>
-  </si>
-  <si>
-    <t>試</t>
-  </si>
-  <si>
-    <t>用</t>
-  </si>
-  <si>
-    <t>昔</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>衆</t>
-  </si>
-  <si>
-    <t>議</t>
-  </si>
-  <si>
-    <t>舉</t>
-  </si>
-  <si>
-    <t>督</t>
-  </si>
-  <si>
-    <t>營</t>
-  </si>
-  <si>
-    <t>陣</t>
-  </si>
-  <si>
-    <t>穆</t>
-  </si>
-  <si>
-    <t>優</t>
-  </si>
-  <si>
-    <t>劣</t>
-  </si>
-  <si>
-    <t>親</t>
-  </si>
-  <si>
-    <t>漢</t>
-  </si>
-  <si>
-    <t>隆</t>
-  </si>
-  <si>
-    <t>頹</t>
-  </si>
-  <si>
-    <t>每</t>
-  </si>
-  <si>
-    <t>歎</t>
-  </si>
-  <si>
-    <t>息</t>
-  </si>
-  <si>
-    <t>痛</t>
-  </si>
-  <si>
-    <t>恨</t>
-  </si>
-  <si>
-    <t>桓</t>
-  </si>
-  <si>
-    <t>靈</t>
-  </si>
-  <si>
-    <t>尚</t>
-  </si>
-  <si>
-    <t>書</t>
-  </si>
-  <si>
-    <t>史</t>
-  </si>
-  <si>
-    <t>參</t>
-  </si>
-  <si>
-    <t>貞</t>
-  </si>
-  <si>
-    <t>死</t>
-  </si>
-  <si>
-    <t>節</t>
-  </si>
-  <si>
-    <t>願</t>
-  </si>
-  <si>
-    <t>信</t>
-  </si>
-  <si>
-    <t>室</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>計</t>
-  </si>
-  <si>
-    <t>待</t>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>布</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>躬</t>
-  </si>
-  <si>
-    <t>耕</t>
-  </si>
-  <si>
-    <t>苟</t>
-  </si>
-  <si>
-    <t>全</t>
-  </si>
-  <si>
-    <t>命</t>
-  </si>
-  <si>
-    <t>亂</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>達</t>
-  </si>
-  <si>
-    <t>諸</t>
-  </si>
-  <si>
-    <t>侯</t>
-  </si>
-  <si>
-    <t>卑</t>
-  </si>
-  <si>
-    <t>鄙</t>
-  </si>
-  <si>
-    <t>猥</t>
-  </si>
-  <si>
-    <t>枉</t>
-  </si>
-  <si>
-    <t>屈</t>
-  </si>
-  <si>
-    <t>顧</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>廬</t>
-  </si>
-  <si>
-    <t>諮</t>
-  </si>
-  <si>
-    <t>當</t>
-  </si>
-  <si>
-    <t>由</t>
-  </si>
-  <si>
-    <t>激</t>
-  </si>
-  <si>
-    <t>遂</t>
-  </si>
-  <si>
-    <t>許</t>
-  </si>
-  <si>
-    <t>驅</t>
-  </si>
-  <si>
-    <t>馳</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>覆</t>
-  </si>
-  <si>
-    <t>受</t>
-  </si>
-  <si>
-    <t>任</t>
-  </si>
-  <si>
-    <t>敗</t>
-  </si>
-  <si>
-    <t>奉</t>
-  </si>
-  <si>
-    <t>難</t>
-  </si>
-  <si>
-    <t>間</t>
-  </si>
-  <si>
-    <t>爾</t>
-  </si>
-  <si>
-    <t>來</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>謹</t>
-  </si>
-  <si>
-    <t>慎</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>寄</t>
-  </si>
-  <si>
-    <t>夙</t>
-  </si>
-  <si>
-    <t>夜</t>
-  </si>
-  <si>
-    <t>恐</t>
-  </si>
-  <si>
-    <t>託</t>
-  </si>
-  <si>
-    <t>效</t>
-  </si>
-  <si>
-    <t>傷</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>渡</t>
-  </si>
-  <si>
-    <t>瀘</t>
-  </si>
-  <si>
-    <t>深</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>毛</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>定</t>
-  </si>
-  <si>
-    <t>兵</t>
-  </si>
-  <si>
-    <t>甲</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>獎</t>
-  </si>
-  <si>
-    <t>率</t>
-  </si>
-  <si>
-    <t>原</t>
-  </si>
-  <si>
-    <t>庶</t>
-  </si>
-  <si>
-    <t>竭</t>
-  </si>
-  <si>
-    <t>駑</t>
-  </si>
-  <si>
-    <t>鈍</t>
-  </si>
-  <si>
-    <t>攘</t>
-  </si>
-  <si>
-    <t>除</t>
-  </si>
-  <si>
-    <t>姦</t>
-  </si>
-  <si>
-    <t>凶</t>
-  </si>
-  <si>
-    <t>復</t>
-  </si>
-  <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>都</t>
-  </si>
-  <si>
-    <t>職</t>
-  </si>
-  <si>
-    <t>斟</t>
-  </si>
-  <si>
-    <t>酌</t>
-  </si>
-  <si>
-    <t>損</t>
-  </si>
-  <si>
-    <t>盡</t>
-  </si>
-  <si>
-    <t>討</t>
-  </si>
-  <si>
-    <t>賊</t>
-  </si>
-  <si>
-    <t>罪</t>
-  </si>
-  <si>
-    <t>告</t>
-  </si>
-  <si>
-    <t>責</t>
-  </si>
-  <si>
-    <t>慢</t>
-  </si>
-  <si>
-    <t>彰</t>
-  </si>
-  <si>
-    <t>咎</t>
-  </si>
-  <si>
-    <t>課</t>
-  </si>
-  <si>
-    <t>諏</t>
-  </si>
-  <si>
-    <t>察</t>
-  </si>
-  <si>
-    <t>納</t>
-  </si>
-  <si>
-    <t>雅</t>
-  </si>
-  <si>
-    <t>詔</t>
-  </si>
-  <si>
-    <t>恩</t>
-  </si>
-  <si>
-    <t>離</t>
-  </si>
-  <si>
-    <t>表</t>
-  </si>
-  <si>
-    <t>涕</t>
-  </si>
-  <si>
-    <t>泣</t>
-  </si>
-  <si>
-    <t>云</t>
   </si>
 </sst>
 </file>
@@ -8022,8 +8478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A233" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A273" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8133,7 +8589,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>783</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -8184,49 +8640,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="61" t="s">
         <v>1169</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="F5" s="61" t="s">
         <v>1170</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="G5" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="61" t="s">
         <v>1171</v>
       </c>
-      <c r="G5" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="61" t="s">
+      <c r="J5" s="61" t="s">
         <v>1172</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="K5" s="61" t="s">
         <v>1173</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="L5" s="61" t="s">
         <v>1174</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="M5" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="O5" s="61" t="s">
         <v>1175</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="P5" s="61" t="s">
         <v>1176</v>
       </c>
-      <c r="N5" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="O5" s="61" t="s">
+      <c r="Q5" s="61" t="s">
         <v>1177</v>
       </c>
-      <c r="P5" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>1179</v>
-      </c>
       <c r="R5" s="61" t="s">
-        <v>1180</v>
+        <v>23</v>
       </c>
       <c r="S5" s="20"/>
       <c r="V5" s="56"/>
@@ -8299,49 +8755,49 @@
         <v>2</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>23</v>
+        <v>1178</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>99</v>
+        <v>1179</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>218</v>
+        <v>1180</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>217</v>
+        <v>1181</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>1181</v>
+        <v>30</v>
       </c>
       <c r="I9" s="61" t="s">
         <v>1182</v>
       </c>
       <c r="J9" s="61" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="61" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>1185</v>
-      </c>
-      <c r="N9" s="61" t="s">
+      <c r="Q9" s="61" t="s">
         <v>1186</v>
       </c>
-      <c r="O9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q9" s="61" t="s">
+      <c r="R9" s="61" t="s">
         <v>1187</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>1188</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
@@ -8413,49 +8869,49 @@
         <v>3</v>
       </c>
       <c r="D13" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="61" t="s">
         <v>1189</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="G13" s="61" t="s">
         <v>1190</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="H13" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="61" t="s">
         <v>1191</v>
       </c>
-      <c r="G13" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="61" t="s">
+      <c r="L13" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="61" t="s">
         <v>1192</v>
       </c>
-      <c r="I13" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="61" t="s">
+      <c r="N13" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="61" t="s">
         <v>1193</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="P13" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="61" t="s">
         <v>1194</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q13" s="61" t="s">
+      <c r="R13" s="61" t="s">
         <v>1195</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>102</v>
       </c>
       <c r="S13" s="20"/>
       <c r="V13" s="56"/>
@@ -8529,37 +8985,37 @@
         <v>1196</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="F17" s="61" t="s">
         <v>1197</v>
       </c>
       <c r="G17" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="61" t="s">
         <v>1198</v>
       </c>
-      <c r="H17" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="61" t="s">
+      <c r="J17" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K17" s="61" t="s">
         <v>1199</v>
       </c>
-      <c r="J17" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="K17" s="61" t="s">
+      <c r="L17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="61" t="s">
         <v>1200</v>
       </c>
-      <c r="L17" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="61" t="s">
+      <c r="N17" s="61" t="s">
         <v>1201</v>
       </c>
-      <c r="N17" s="61" t="s">
-        <v>212</v>
-      </c>
       <c r="O17" s="61" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="P17" s="61" t="s">
         <v>1202</v>
@@ -8568,7 +9024,7 @@
         <v>1203</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="S17" s="20"/>
       <c r="V17" s="56"/>
@@ -8610,7 +9066,7 @@
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="64"/>
-      <c r="R19" s="54"/>
+      <c r="R19" s="64"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -8629,7 +9085,7 @@
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="65"/>
-      <c r="R20" s="60"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
     </row>
@@ -8639,50 +9095,50 @@
         <v>5</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1172</v>
+        <v>1204</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H21" s="61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J21" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="61" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>1207</v>
-      </c>
       <c r="K21" s="61" t="s">
-        <v>108</v>
+        <v>1209</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>102</v>
+        <v>1210</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1208</v>
+        <v>177</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>217</v>
+        <v>1211</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="R21" s="61"/>
+        <v>1212</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>1214</v>
+      </c>
       <c r="S21" s="20"/>
       <c r="V21" s="56"/>
     </row>
@@ -8710,39 +9166,39 @@
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
       <c r="D23" s="64"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
     </row>
@@ -8751,25 +9207,51 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
+      <c r="D25" s="61" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="61" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>1223</v>
+      </c>
       <c r="S25" s="20"/>
       <c r="V25" s="56"/>
     </row>
@@ -8847,49 +9329,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1187</v>
+        <v>1224</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>1212</v>
+        <v>23</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>23</v>
+        <v>1228</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>106</v>
+        <v>1229</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>219</v>
+        <v>1230</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>1172</v>
+        <v>103</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>23</v>
+        <v>1173</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="S29" s="20"/>
       <c r="U29" s="33" t="str">
@@ -8976,49 +9458,49 @@
         <v>8</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1216</v>
+        <v>108</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1198</v>
+        <v>1232</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>1199</v>
+        <v>1233</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>132</v>
+        <v>1234</v>
       </c>
       <c r="I33" s="61" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="61" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N33" s="61" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O33" s="61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="P33" s="61" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q33" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M33" s="61" t="s">
-        <v>1218</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>1219</v>
-      </c>
-      <c r="O33" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="P33" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="61" t="s">
-        <v>1220</v>
-      </c>
       <c r="R33" s="61" t="s">
-        <v>1221</v>
+        <v>111</v>
       </c>
       <c r="S33" s="20"/>
       <c r="V33" s="56"/>
@@ -9058,9 +9540,9 @@
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
       <c r="V35" s="56"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9077,9 +9559,9 @@
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
       <c r="O36" s="65"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
       <c r="S36" s="18"/>
       <c r="V36" s="56"/>
     </row>
@@ -9089,46 +9571,50 @@
         <v>9</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="F37" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G37" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L37" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J37" s="61" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K37" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" s="61" t="s">
-        <v>1226</v>
-      </c>
       <c r="M37" s="61" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="N37" s="61" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O37" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="P37" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q37" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="O37" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
+      <c r="R37" s="61" t="s">
+        <v>1249</v>
+      </c>
       <c r="S37" s="20"/>
       <c r="V37" s="56"/>
     </row>
@@ -9156,39 +9642,39 @@
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
       <c r="D39" s="64"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
       <c r="V39" s="56"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="65"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
       <c r="S40" s="18"/>
       <c r="V40" s="56"/>
     </row>
@@ -9197,25 +9683,51 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
+      <c r="D41" s="61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K41" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" s="61" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P41" s="61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q41" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="R41" s="61" t="s">
+        <v>1261</v>
+      </c>
       <c r="S41" s="20"/>
       <c r="V41" s="56"/>
     </row>
@@ -9285,49 +9797,49 @@
         <v>11</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1227</v>
+        <v>23</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1177</v>
+        <v>1262</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>1228</v>
+        <v>1263</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>1177</v>
+        <v>1264</v>
       </c>
       <c r="H45" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K45" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P45" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="61" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J45" s="61" t="s">
-        <v>1230</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>1231</v>
-      </c>
-      <c r="M45" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>1233</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>1234</v>
-      </c>
       <c r="Q45" s="61" t="s">
-        <v>1235</v>
+        <v>1269</v>
       </c>
       <c r="R45" s="61" t="s">
-        <v>23</v>
+        <v>1270</v>
       </c>
       <c r="S45" s="20"/>
       <c r="V45" s="56"/>
@@ -9369,7 +9881,7 @@
       <c r="O47" s="64"/>
       <c r="P47" s="64"/>
       <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
+      <c r="R47" s="54"/>
       <c r="V47" s="56"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9388,7 +9900,7 @@
       <c r="O48" s="65"/>
       <c r="P48" s="65"/>
       <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
+      <c r="R48" s="60"/>
       <c r="S48" s="18"/>
       <c r="V48" s="56"/>
     </row>
@@ -9398,50 +9910,50 @@
         <v>12</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>168</v>
+        <v>1271</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>1209</v>
+        <v>1272</v>
       </c>
       <c r="F49" s="61" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>1236</v>
+        <v>1273</v>
       </c>
       <c r="H49" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P49" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="J49" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>1237</v>
-      </c>
-      <c r="M49" s="61" t="s">
-        <v>1238</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>1239</v>
-      </c>
-      <c r="O49" s="61" t="s">
-        <v>1240</v>
-      </c>
-      <c r="P49" s="61" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Q49" s="61" t="s">
-        <v>1197</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>1241</v>
-      </c>
+      <c r="Q49" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="R49" s="61"/>
       <c r="S49" s="20"/>
       <c r="V49" s="56"/>
     </row>
@@ -9469,39 +9981,39 @@
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
       <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
       <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
     </row>
@@ -9510,51 +10022,25 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J53" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K53" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="L53" s="61" t="s">
-        <v>1245</v>
-      </c>
-      <c r="M53" s="61" t="s">
-        <v>1246</v>
-      </c>
-      <c r="N53" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="O53" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="P53" s="61" t="s">
-        <v>1247</v>
-      </c>
-      <c r="Q53" s="61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="R53" s="61" t="s">
-        <v>217</v>
-      </c>
+      <c r="D53" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
       <c r="S53" s="20"/>
       <c r="V53" s="56"/>
     </row>
@@ -9624,49 +10110,49 @@
         <v>14</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>1248</v>
+        <v>285</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>35</v>
+        <v>1277</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>108</v>
+        <v>1278</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>1249</v>
+        <v>167</v>
       </c>
       <c r="H57" s="61" t="s">
         <v>23</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>168</v>
+        <v>1279</v>
       </c>
       <c r="J57" s="61" t="s">
-        <v>1209</v>
+        <v>104</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>1250</v>
+        <v>1183</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>1251</v>
+        <v>1280</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N57" s="61" t="s">
-        <v>1252</v>
+        <v>1281</v>
       </c>
       <c r="O57" s="61" t="s">
-        <v>1196</v>
+        <v>1282</v>
       </c>
       <c r="P57" s="61" t="s">
-        <v>1201</v>
+        <v>1220</v>
       </c>
       <c r="Q57" s="61" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="R57" s="61" t="s">
-        <v>1253</v>
+        <v>1283</v>
       </c>
       <c r="S57" s="20"/>
       <c r="V57" s="56"/>
@@ -9697,18 +10183,18 @@
       <c r="D59" s="64"/>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
+      <c r="R59" s="64"/>
       <c r="V59" s="56"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -9716,18 +10202,18 @@
       <c r="D60" s="65"/>
       <c r="E60" s="65"/>
       <c r="F60" s="65"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
       <c r="S60" s="18"/>
       <c r="V60" s="56"/>
     </row>
@@ -9737,28 +10223,50 @@
         <v>15</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>138</v>
+        <v>1284</v>
       </c>
       <c r="E61" s="61" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="61" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="L61" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="M61" s="61" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N61" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
+      <c r="O61" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="P61" s="61" t="s">
+        <v>1287</v>
+      </c>
+      <c r="Q61" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="R61" s="61" t="s">
+        <v>102</v>
+      </c>
       <c r="S61" s="20"/>
       <c r="V61" s="56"/>
     </row>
@@ -9786,39 +10294,39 @@
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
       <c r="D63" s="64"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
       <c r="V63" s="56"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="65"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="60"/>
-      <c r="O64" s="60"/>
-      <c r="P64" s="60"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="65"/>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65"/>
+      <c r="R64" s="65"/>
       <c r="S64" s="18"/>
       <c r="V64" s="56"/>
     </row>
@@ -9827,25 +10335,51 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
+      <c r="D65" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="61" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H65" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J65" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65" s="61" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L65" s="61" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M65" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="O65" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P65" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="R65" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="S65" s="20"/>
       <c r="V65" s="56"/>
     </row>
@@ -9915,49 +10449,49 @@
         <v>17</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>1193</v>
+        <v>1293</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>1177</v>
+        <v>23</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>1254</v>
+        <v>158</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>1193</v>
+        <v>1294</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>1255</v>
+        <v>37</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>1256</v>
+        <v>108</v>
       </c>
       <c r="J69" s="61" t="s">
-        <v>1257</v>
+        <v>94</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>108</v>
+        <v>1295</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>1254</v>
+        <v>30</v>
       </c>
       <c r="M69" s="61" t="s">
-        <v>1258</v>
+        <v>1296</v>
       </c>
       <c r="N69" s="61" t="s">
-        <v>1259</v>
+        <v>1212</v>
       </c>
       <c r="O69" s="61" t="s">
-        <v>1254</v>
+        <v>1297</v>
       </c>
       <c r="P69" s="61" t="s">
-        <v>1260</v>
+        <v>1298</v>
       </c>
       <c r="Q69" s="61" t="s">
-        <v>1261</v>
+        <v>23</v>
       </c>
       <c r="R69" s="61" t="s">
-        <v>1262</v>
+        <v>18</v>
       </c>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
@@ -10028,49 +10562,49 @@
         <v>18</v>
       </c>
       <c r="D73" s="61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I73" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J73" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K73" s="61" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L73" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="G73" s="61" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="61" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K73" s="61" t="s">
-        <v>1265</v>
-      </c>
-      <c r="L73" s="61" t="s">
-        <v>1197</v>
-      </c>
       <c r="M73" s="61" t="s">
-        <v>1266</v>
+        <v>217</v>
       </c>
       <c r="N73" s="61" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="O73" s="61" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P73" s="61" t="s">
-        <v>106</v>
+        <v>1178</v>
       </c>
       <c r="Q73" s="61" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="R73" s="61" t="s">
-        <v>1172</v>
+        <v>1304</v>
       </c>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
@@ -10141,49 +10675,49 @@
         <v>19</v>
       </c>
       <c r="D77" s="61" t="s">
-        <v>1267</v>
+        <v>232</v>
       </c>
       <c r="E77" s="61" t="s">
-        <v>1268</v>
+        <v>1305</v>
       </c>
       <c r="F77" s="61" t="s">
-        <v>106</v>
+        <v>1306</v>
       </c>
       <c r="G77" s="61" t="s">
-        <v>1213</v>
+        <v>23</v>
       </c>
       <c r="H77" s="61" t="s">
-        <v>1208</v>
+        <v>1307</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>217</v>
+        <v>1308</v>
       </c>
       <c r="J77" s="61" t="s">
-        <v>30</v>
+        <v>1309</v>
       </c>
       <c r="K77" s="61" t="s">
-        <v>1269</v>
+        <v>108</v>
       </c>
       <c r="L77" s="61" t="s">
-        <v>106</v>
+        <v>1310</v>
       </c>
       <c r="M77" s="61" t="s">
-        <v>1230</v>
+        <v>1311</v>
       </c>
       <c r="N77" s="61" t="s">
-        <v>1227</v>
+        <v>103</v>
       </c>
       <c r="O77" s="61" t="s">
-        <v>1177</v>
+        <v>1312</v>
       </c>
       <c r="P77" s="61" t="s">
-        <v>108</v>
+        <v>1313</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>1270</v>
+        <v>233</v>
       </c>
       <c r="R77" s="61" t="s">
-        <v>23</v>
+        <v>1314</v>
       </c>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
@@ -10254,49 +10788,49 @@
         <v>20</v>
       </c>
       <c r="D81" s="61" t="s">
-        <v>1270</v>
+        <v>23</v>
       </c>
       <c r="E81" s="61" t="s">
-        <v>26</v>
+        <v>1315</v>
       </c>
       <c r="F81" s="61" t="s">
-        <v>27</v>
+        <v>1316</v>
       </c>
       <c r="G81" s="61" t="s">
-        <v>1271</v>
+        <v>1317</v>
       </c>
       <c r="H81" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="61" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J81" s="61" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L81" s="61" t="s">
+        <v>1320</v>
+      </c>
+      <c r="M81" s="61" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N81" s="61" t="s">
+        <v>1322</v>
+      </c>
+      <c r="O81" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I81" s="61" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J81" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K81" s="61" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L81" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="M81" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="O81" s="61" t="s">
-        <v>292</v>
-      </c>
       <c r="P81" s="61" t="s">
-        <v>1274</v>
+        <v>1323</v>
       </c>
       <c r="Q81" s="61" t="s">
-        <v>185</v>
+        <v>1324</v>
       </c>
       <c r="R81" s="61" t="s">
-        <v>23</v>
+        <v>1325</v>
       </c>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
@@ -10337,8 +10871,8 @@
       <c r="N83" s="64"/>
       <c r="O83" s="64"/>
       <c r="P83" s="64"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
+      <c r="Q83" s="64"/>
+      <c r="R83" s="64"/>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -10356,8 +10890,8 @@
       <c r="N84" s="65"/>
       <c r="O84" s="65"/>
       <c r="P84" s="65"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="60"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="65"/>
       <c r="S84" s="18"/>
       <c r="V84" s="7"/>
     </row>
@@ -10367,48 +10901,50 @@
         <v>21</v>
       </c>
       <c r="D85" s="61" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="E85" s="61" t="s">
-        <v>1275</v>
+        <v>119</v>
       </c>
       <c r="F85" s="61" t="s">
-        <v>1276</v>
+        <v>1326</v>
       </c>
       <c r="G85" s="61" t="s">
-        <v>1277</v>
+        <v>254</v>
       </c>
       <c r="H85" s="61" t="s">
-        <v>1278</v>
+        <v>93</v>
       </c>
       <c r="I85" s="61" t="s">
-        <v>1279</v>
+        <v>1327</v>
       </c>
       <c r="J85" s="61" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K85" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K85" s="61" t="s">
-        <v>19</v>
-      </c>
       <c r="L85" s="61" t="s">
-        <v>1280</v>
+        <v>1329</v>
       </c>
       <c r="M85" s="61" t="s">
-        <v>1281</v>
+        <v>1330</v>
       </c>
       <c r="N85" s="61" t="s">
-        <v>1183</v>
+        <v>1331</v>
       </c>
       <c r="O85" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="P85" s="61" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q85" s="61" t="s">
+        <v>1333</v>
+      </c>
+      <c r="R85" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="P85" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
     </row>
@@ -10436,39 +10972,39 @@
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
       <c r="D87" s="64"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="64"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="64"/>
+      <c r="R87" s="64"/>
       <c r="V87" s="34"/>
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="65"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
-      <c r="R88" s="60"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
+      <c r="Q88" s="65"/>
+      <c r="R88" s="65"/>
       <c r="S88" s="18"/>
       <c r="V88" s="7"/>
     </row>
@@ -10477,25 +11013,51 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-      <c r="L89" s="61"/>
-      <c r="M89" s="61"/>
-      <c r="N89" s="61"/>
-      <c r="O89" s="61"/>
-      <c r="P89" s="61"/>
-      <c r="Q89" s="61"/>
-      <c r="R89" s="61"/>
+      <c r="D89" s="61" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E89" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F89" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G89" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H89" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="61" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J89" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K89" s="61" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L89" s="61" t="s">
+        <v>1339</v>
+      </c>
+      <c r="M89" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="N89" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="O89" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="P89" s="61" t="s">
+        <v>1340</v>
+      </c>
+      <c r="Q89" s="61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="R89" s="61" t="s">
+        <v>1342</v>
+      </c>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
     </row>
@@ -10565,49 +11127,49 @@
         <v>23</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>1282</v>
+        <v>1343</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>1283</v>
+        <v>23</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>1284</v>
+        <v>235</v>
       </c>
       <c r="G93" s="61" t="s">
-        <v>257</v>
+        <v>1344</v>
       </c>
       <c r="H93" s="61" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I93" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J93" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="K93" s="61" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L93" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M93" s="61" t="s">
+        <v>1347</v>
+      </c>
+      <c r="N93" s="61" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O93" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="P93" s="61" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q93" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I93" s="61" t="s">
-        <v>1285</v>
-      </c>
-      <c r="J93" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="K93" s="61" t="s">
-        <v>1286</v>
-      </c>
-      <c r="L93" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M93" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N93" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="O93" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="P93" s="61" t="s">
-        <v>1283</v>
-      </c>
-      <c r="Q93" s="61" t="s">
-        <v>1270</v>
-      </c>
       <c r="R93" s="61" t="s">
-        <v>23</v>
+        <v>1350</v>
       </c>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
@@ -10678,49 +11240,49 @@
         <v>24</v>
       </c>
       <c r="D97" s="61" t="s">
-        <v>1290</v>
+        <v>1351</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>1291</v>
+        <v>1244</v>
       </c>
       <c r="F97" s="61" t="s">
-        <v>108</v>
+        <v>1352</v>
       </c>
       <c r="G97" s="61" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="H97" s="61" t="s">
-        <v>1292</v>
+        <v>1353</v>
       </c>
       <c r="I97" s="61" t="s">
-        <v>20</v>
+        <v>1354</v>
       </c>
       <c r="J97" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="61" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L97" s="61" t="s">
+        <v>1356</v>
+      </c>
+      <c r="M97" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N97" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="O97" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K97" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="L97" s="61" t="s">
-        <v>1172</v>
-      </c>
-      <c r="M97" s="61" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N97" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="O97" s="61" t="s">
-        <v>288</v>
-      </c>
       <c r="P97" s="61" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="Q97" s="61" t="s">
-        <v>23</v>
+        <v>1282</v>
       </c>
       <c r="R97" s="61" t="s">
-        <v>33</v>
+        <v>1358</v>
       </c>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
@@ -10791,49 +11353,49 @@
         <v>25</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E101" s="61" t="s">
-        <v>1294</v>
+        <v>218</v>
       </c>
       <c r="F101" s="61" t="s">
-        <v>1295</v>
+        <v>31</v>
       </c>
       <c r="G101" s="61" t="s">
-        <v>1296</v>
+        <v>1359</v>
       </c>
       <c r="H101" s="61" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="I101" s="61" t="s">
-        <v>1230</v>
+        <v>247</v>
       </c>
       <c r="J101" s="61" t="s">
-        <v>1297</v>
+        <v>1360</v>
       </c>
       <c r="K101" s="61" t="s">
-        <v>30</v>
+        <v>1361</v>
       </c>
       <c r="L101" s="61" t="s">
-        <v>1269</v>
+        <v>1362</v>
       </c>
       <c r="M101" s="61" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="N101" s="61" t="s">
-        <v>1230</v>
+        <v>1363</v>
       </c>
       <c r="O101" s="61" t="s">
-        <v>1298</v>
+        <v>1307</v>
       </c>
       <c r="P101" s="61" t="s">
-        <v>1177</v>
+        <v>1364</v>
       </c>
       <c r="Q101" s="61" t="s">
+        <v>1365</v>
+      </c>
+      <c r="R101" s="61" t="s">
         <v>108</v>
-      </c>
-      <c r="R101" s="61" t="s">
-        <v>1270</v>
       </c>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
@@ -10904,49 +11466,51 @@
         <v>26</v>
       </c>
       <c r="D105" s="61" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E105" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" s="61" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G105" s="61" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H105" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="I105" s="61" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J105" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="61" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F105" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" s="61" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H105" s="61" t="s">
+      <c r="K105" s="61" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L105" s="61" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M105" s="61" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N105" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="O105" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I105" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J105" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="K105" s="61" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L105" s="61" t="s">
-        <v>1252</v>
-      </c>
-      <c r="M105" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="N105" s="61" t="s">
-        <v>1299</v>
-      </c>
-      <c r="O105" s="61" t="s">
-        <v>29</v>
-      </c>
       <c r="P105" s="61" t="s">
-        <v>1300</v>
+        <v>1371</v>
       </c>
       <c r="Q105" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="R105" s="61" t="s">
-        <v>1301</v>
+        <v>30</v>
+      </c>
+      <c r="R105" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="S105" s="20"/>
       <c r="V105" s="7"/>
@@ -10975,11 +11539,11 @@
       <c r="B107" s="12"/>
       <c r="C107" s="32"/>
       <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
       <c r="J107" s="54"/>
       <c r="K107" s="54"/>
       <c r="L107" s="54"/>
@@ -10994,11 +11558,11 @@
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
       <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
       <c r="J108" s="60"/>
       <c r="K108" s="60"/>
       <c r="L108" s="60"/>
@@ -11016,26 +11580,16 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E109" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="F109" s="61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G109" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="H109" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I109" s="61" t="str">
+      <c r="D109" s="61" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
       <c r="J109" s="61"/>
       <c r="K109" s="61"/>
       <c r="L109" s="61"/>
@@ -11072,39 +11626,39 @@
       <c r="B111" s="12"/>
       <c r="C111" s="32"/>
       <c r="D111" s="64"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="64"/>
+      <c r="L111" s="64"/>
+      <c r="M111" s="64"/>
+      <c r="N111" s="64"/>
+      <c r="O111" s="64"/>
+      <c r="P111" s="64"/>
+      <c r="Q111" s="64"/>
+      <c r="R111" s="64"/>
       <c r="V111" s="34"/>
     </row>
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="65"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="60"/>
-      <c r="L112" s="60"/>
-      <c r="M112" s="60"/>
-      <c r="N112" s="60"/>
-      <c r="O112" s="60"/>
-      <c r="P112" s="60"/>
-      <c r="Q112" s="60"/>
-      <c r="R112" s="60"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
+      <c r="L112" s="65"/>
+      <c r="M112" s="65"/>
+      <c r="N112" s="65"/>
+      <c r="O112" s="65"/>
+      <c r="P112" s="65"/>
+      <c r="Q112" s="65"/>
+      <c r="R112" s="65"/>
       <c r="S112" s="18"/>
       <c r="V112" s="7"/>
     </row>
@@ -11113,25 +11667,51 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="63" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="63"/>
-      <c r="K113" s="63"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="63"/>
-      <c r="N113" s="63"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="63"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="63"/>
+      <c r="D113" s="63" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E113" s="63" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F113" s="63" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G113" s="63" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H113" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" s="63" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J113" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="K113" s="63" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L113" s="63" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M113" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="N113" s="63" t="s">
+        <v>1375</v>
+      </c>
+      <c r="O113" s="63" t="s">
+        <v>1376</v>
+      </c>
+      <c r="P113" s="63" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q113" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="R113" s="63" t="s">
+        <v>1260</v>
+      </c>
       <c r="S113" s="20"/>
       <c r="V113" s="7"/>
     </row>
@@ -11201,49 +11781,49 @@
         <v>29</v>
       </c>
       <c r="D117" s="61" t="s">
-        <v>1303</v>
+        <v>170</v>
       </c>
       <c r="E117" s="61" t="s">
-        <v>98</v>
+        <v>1378</v>
       </c>
       <c r="F117" s="61" t="s">
-        <v>1169</v>
+        <v>23</v>
       </c>
       <c r="G117" s="61" t="s">
-        <v>23</v>
+        <v>1379</v>
       </c>
       <c r="H117" s="61" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="I117" s="61" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="J117" s="61" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="K117" s="61" t="s">
-        <v>23</v>
+        <v>1380</v>
       </c>
       <c r="L117" s="61" t="s">
-        <v>136</v>
+        <v>1244</v>
       </c>
       <c r="M117" s="61" t="s">
-        <v>291</v>
+        <v>1381</v>
       </c>
       <c r="N117" s="61" t="s">
-        <v>1304</v>
+        <v>30</v>
       </c>
       <c r="O117" s="61" t="s">
-        <v>1280</v>
+        <v>1382</v>
       </c>
       <c r="P117" s="61" t="s">
-        <v>106</v>
+        <v>1383</v>
       </c>
       <c r="Q117" s="61" t="s">
-        <v>85</v>
+        <v>1384</v>
       </c>
       <c r="R117" s="61" t="s">
-        <v>1305</v>
+        <v>1385</v>
       </c>
       <c r="S117" s="20"/>
       <c r="V117" s="7"/>
@@ -11314,49 +11894,49 @@
         <v>30</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="E121" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F121" s="61" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G121" s="61" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H121" s="61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I121" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J121" s="61" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K121" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="F121" s="61" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G121" s="61" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H121" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I121" s="61" t="s">
+      <c r="L121" s="61" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M121" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N121" s="61" t="s">
+        <v>1389</v>
+      </c>
+      <c r="O121" s="61" t="s">
+        <v>1191</v>
+      </c>
+      <c r="P121" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J121" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="K121" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="L121" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M121" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N121" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="O121" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="P121" s="61" t="s">
-        <v>1304</v>
-      </c>
       <c r="Q121" s="61" t="s">
-        <v>1280</v>
+        <v>219</v>
       </c>
       <c r="R121" s="61" t="s">
-        <v>106</v>
+        <v>1390</v>
       </c>
       <c r="S121" s="20"/>
       <c r="V121" s="7"/>
@@ -11427,49 +12007,49 @@
         <v>31</v>
       </c>
       <c r="D125" s="61" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="E125" s="61" t="s">
-        <v>1306</v>
+        <v>1329</v>
       </c>
       <c r="F125" s="61" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G125" s="61" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H125" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H125" s="61" t="s">
-        <v>291</v>
-      </c>
       <c r="I125" s="61" t="s">
-        <v>1172</v>
+        <v>69</v>
       </c>
       <c r="J125" s="61" t="s">
-        <v>113</v>
+        <v>1222</v>
       </c>
       <c r="K125" s="61" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="L125" s="61" t="s">
         <v>23</v>
       </c>
       <c r="M125" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="N125" s="61" t="s">
+        <v>1392</v>
+      </c>
+      <c r="O125" s="61" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P125" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q125" s="61" t="s">
         <v>1307</v>
       </c>
-      <c r="N125" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="O125" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="P125" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Q125" s="61" t="s">
-        <v>136</v>
-      </c>
       <c r="R125" s="61" t="s">
-        <v>1270</v>
+        <v>1394</v>
       </c>
       <c r="S125" s="20"/>
       <c r="V125" s="7"/>
@@ -11540,49 +12120,49 @@
         <v>32</v>
       </c>
       <c r="D129" s="61" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E129" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" s="61" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G129" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="H129" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E129" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F129" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="G129" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="H129" s="61" t="s">
-        <v>1308</v>
-      </c>
       <c r="I129" s="61" t="s">
-        <v>1309</v>
+        <v>34</v>
       </c>
       <c r="J129" s="61" t="s">
-        <v>1310</v>
+        <v>1397</v>
       </c>
       <c r="K129" s="61" t="s">
-        <v>1311</v>
+        <v>1398</v>
       </c>
       <c r="L129" s="61" t="s">
         <v>102</v>
       </c>
       <c r="M129" s="61" t="s">
-        <v>1312</v>
+        <v>1241</v>
       </c>
       <c r="N129" s="61" t="s">
-        <v>1254</v>
+        <v>20</v>
       </c>
       <c r="O129" s="61" t="s">
-        <v>1313</v>
+        <v>30</v>
       </c>
       <c r="P129" s="61" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="Q129" s="61" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R129" s="61" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="S129" s="20"/>
       <c r="V129" s="7"/>
@@ -11653,49 +12233,49 @@
         <v>33</v>
       </c>
       <c r="D133" s="61" t="s">
-        <v>1177</v>
+        <v>1399</v>
       </c>
       <c r="E133" s="61" t="s">
-        <v>1254</v>
+        <v>23</v>
       </c>
       <c r="F133" s="61" t="s">
-        <v>1314</v>
+        <v>1400</v>
       </c>
       <c r="G133" s="61" t="s">
-        <v>1315</v>
+        <v>1231</v>
       </c>
       <c r="H133" s="61" t="s">
-        <v>1254</v>
+        <v>1401</v>
       </c>
       <c r="I133" s="61" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J133" s="61" t="s">
-        <v>1316</v>
+        <v>26</v>
       </c>
       <c r="K133" s="61" t="s">
-        <v>1254</v>
+        <v>1307</v>
       </c>
       <c r="L133" s="61" t="s">
-        <v>1317</v>
+        <v>103</v>
       </c>
       <c r="M133" s="61" t="s">
-        <v>1283</v>
+        <v>85</v>
       </c>
       <c r="N133" s="61" t="s">
+        <v>1220</v>
+      </c>
+      <c r="O133" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="P133" s="61" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q133" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="O133" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="P133" s="61" t="s">
-        <v>1272</v>
-      </c>
-      <c r="Q133" s="61" t="s">
-        <v>1318</v>
-      </c>
       <c r="R133" s="61" t="s">
-        <v>1170</v>
+        <v>1403</v>
       </c>
       <c r="S133" s="20"/>
       <c r="V133" s="7"/>
@@ -11766,49 +12346,49 @@
         <v>34</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="E137" s="61" t="s">
-        <v>1320</v>
+        <v>1404</v>
       </c>
       <c r="F137" s="61" t="s">
         <v>108</v>
       </c>
       <c r="G137" s="61" t="s">
-        <v>1169</v>
+        <v>19</v>
       </c>
       <c r="H137" s="61" t="s">
-        <v>138</v>
+        <v>1405</v>
       </c>
       <c r="I137" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J137" s="61" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K137" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="L137" s="61" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M137" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N137" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="O137" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="P137" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J137" s="61" t="s">
-        <v>1321</v>
-      </c>
-      <c r="K137" s="61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L137" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="M137" s="61" t="s">
-        <v>1303</v>
-      </c>
-      <c r="N137" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="O137" s="61" t="s">
-        <v>1322</v>
-      </c>
-      <c r="P137" s="61" t="s">
-        <v>108</v>
-      </c>
       <c r="Q137" s="61" t="s">
-        <v>23</v>
+        <v>1407</v>
       </c>
       <c r="R137" s="61" t="s">
-        <v>137</v>
+        <v>1408</v>
       </c>
       <c r="S137" s="20"/>
       <c r="V137" s="7"/>
@@ -11849,8 +12429,8 @@
       <c r="N139" s="64"/>
       <c r="O139" s="64"/>
       <c r="P139" s="64"/>
-      <c r="Q139" s="54"/>
-      <c r="R139" s="54"/>
+      <c r="Q139" s="64"/>
+      <c r="R139" s="64"/>
       <c r="V139" s="34"/>
     </row>
     <row r="140" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -11868,8 +12448,8 @@
       <c r="N140" s="65"/>
       <c r="O140" s="65"/>
       <c r="P140" s="65"/>
-      <c r="Q140" s="60"/>
-      <c r="R140" s="60"/>
+      <c r="Q140" s="65"/>
+      <c r="R140" s="65"/>
       <c r="S140" s="18"/>
       <c r="V140" s="7"/>
     </row>
@@ -11879,48 +12459,50 @@
         <v>35</v>
       </c>
       <c r="D141" s="61" t="s">
-        <v>1304</v>
+        <v>154</v>
       </c>
       <c r="E141" s="61" t="s">
-        <v>1323</v>
+        <v>102</v>
       </c>
       <c r="F141" s="61" t="s">
-        <v>108</v>
+        <v>1244</v>
       </c>
       <c r="G141" s="61" t="s">
-        <v>1305</v>
+        <v>1409</v>
       </c>
       <c r="H141" s="61" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I141" s="61" t="s">
-        <v>1324</v>
+        <v>1178</v>
       </c>
       <c r="J141" s="61" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="K141" s="61" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L141" s="61" t="s">
         <v>210</v>
       </c>
       <c r="M141" s="61" t="s">
-        <v>1326</v>
+        <v>147</v>
       </c>
       <c r="N141" s="61" t="s">
-        <v>138</v>
+        <v>1410</v>
       </c>
       <c r="O141" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="P141" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="Q141" s="61"/>
-      <c r="R141" s="61"/>
+        <v>1411</v>
+      </c>
+      <c r="P141" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q141" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="R141" s="61" t="s">
+        <v>1412</v>
+      </c>
       <c r="S141" s="20"/>
       <c r="V141" s="7"/>
     </row>
@@ -11948,39 +12530,39 @@
       <c r="B143" s="12"/>
       <c r="C143" s="32"/>
       <c r="D143" s="64"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="54"/>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-      <c r="O143" s="54"/>
-      <c r="P143" s="54"/>
-      <c r="Q143" s="54"/>
-      <c r="R143" s="54"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="64"/>
+      <c r="J143" s="64"/>
+      <c r="K143" s="64"/>
+      <c r="L143" s="64"/>
+      <c r="M143" s="64"/>
+      <c r="N143" s="64"/>
+      <c r="O143" s="64"/>
+      <c r="P143" s="64"/>
+      <c r="Q143" s="64"/>
+      <c r="R143" s="64"/>
       <c r="V143" s="34"/>
     </row>
     <row r="144" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="17"/>
       <c r="D144" s="65"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
-      <c r="M144" s="60"/>
-      <c r="N144" s="60"/>
-      <c r="O144" s="60"/>
-      <c r="P144" s="60"/>
-      <c r="Q144" s="60"/>
-      <c r="R144" s="60"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="65"/>
+      <c r="L144" s="65"/>
+      <c r="M144" s="65"/>
+      <c r="N144" s="65"/>
+      <c r="O144" s="65"/>
+      <c r="P144" s="65"/>
+      <c r="Q144" s="65"/>
+      <c r="R144" s="65"/>
       <c r="S144" s="18"/>
       <c r="V144" s="7"/>
     </row>
@@ -11989,25 +12571,51 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E145" s="61"/>
-      <c r="F145" s="61"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61"/>
-      <c r="I145" s="61"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="61"/>
-      <c r="L145" s="61"/>
-      <c r="M145" s="61"/>
-      <c r="N145" s="61"/>
-      <c r="O145" s="61"/>
-      <c r="P145" s="61"/>
-      <c r="Q145" s="61"/>
-      <c r="R145" s="61"/>
+      <c r="D145" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G145" s="61" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H145" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="I145" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J145" s="61" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K145" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="L145" s="61" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M145" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="N145" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O145" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="P145" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q145" s="61" t="s">
+        <v>1415</v>
+      </c>
+      <c r="R145" s="61" t="s">
+        <v>1269</v>
+      </c>
       <c r="S145" s="20"/>
       <c r="V145" s="7"/>
     </row>
@@ -12077,49 +12685,49 @@
         <v>37</v>
       </c>
       <c r="D149" s="61" t="s">
-        <v>1169</v>
+        <v>108</v>
       </c>
       <c r="E149" s="61" t="s">
-        <v>1327</v>
+        <v>37</v>
       </c>
       <c r="F149" s="61" t="s">
-        <v>1328</v>
+        <v>103</v>
       </c>
       <c r="G149" s="61" t="s">
-        <v>1329</v>
+        <v>1416</v>
       </c>
       <c r="H149" s="61" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I149" s="61" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J149" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K149" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I149" s="61" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J149" s="61" t="s">
-        <v>1331</v>
-      </c>
-      <c r="K149" s="61" t="s">
-        <v>102</v>
-      </c>
       <c r="L149" s="61" t="s">
-        <v>147</v>
+        <v>1220</v>
       </c>
       <c r="M149" s="61" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N149" s="61" t="s">
-        <v>23</v>
+        <v>1418</v>
       </c>
       <c r="O149" s="61" t="s">
-        <v>1332</v>
+        <v>202</v>
       </c>
       <c r="P149" s="61" t="s">
-        <v>1333</v>
+        <v>108</v>
       </c>
       <c r="Q149" s="61" t="s">
-        <v>1285</v>
+        <v>151</v>
       </c>
       <c r="R149" s="61" t="s">
-        <v>1334</v>
+        <v>30</v>
       </c>
       <c r="S149" s="20"/>
       <c r="V149" s="7"/>
@@ -12190,49 +12798,49 @@
         <v>38</v>
       </c>
       <c r="D153" s="61" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="E153" s="61" t="s">
-        <v>1335</v>
+        <v>1292</v>
       </c>
       <c r="F153" s="61" t="s">
-        <v>1336</v>
+        <v>1419</v>
       </c>
       <c r="G153" s="61" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="H153" s="61" t="s">
         <v>168</v>
       </c>
       <c r="I153" s="61" t="s">
-        <v>269</v>
+        <v>1420</v>
       </c>
       <c r="J153" s="61" t="s">
-        <v>1337</v>
+        <v>23</v>
       </c>
       <c r="K153" s="61" t="s">
-        <v>1338</v>
+        <v>1421</v>
       </c>
       <c r="L153" s="61" t="s">
-        <v>102</v>
+        <v>1422</v>
       </c>
       <c r="M153" s="61" t="s">
-        <v>1339</v>
+        <v>1423</v>
       </c>
       <c r="N153" s="61" t="s">
-        <v>1340</v>
+        <v>106</v>
       </c>
       <c r="O153" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="P153" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q153" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="P153" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q153" s="61" t="s">
-        <v>1172</v>
-      </c>
       <c r="R153" s="61" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="S153" s="20"/>
       <c r="V153" s="7"/>
@@ -12303,49 +12911,49 @@
         <v>39</v>
       </c>
       <c r="D157" s="61" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E157" s="61" t="s">
-        <v>1169</v>
+        <v>267</v>
       </c>
       <c r="F157" s="61" t="s">
-        <v>1341</v>
+        <v>285</v>
       </c>
       <c r="G157" s="61" t="s">
-        <v>1342</v>
+        <v>1424</v>
       </c>
       <c r="H157" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="I157" s="61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J157" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I157" s="61" t="s">
-        <v>1343</v>
-      </c>
-      <c r="J157" s="61" t="s">
-        <v>1218</v>
-      </c>
       <c r="K157" s="61" t="s">
-        <v>1344</v>
+        <v>1425</v>
       </c>
       <c r="L157" s="61" t="s">
-        <v>1345</v>
+        <v>1426</v>
       </c>
       <c r="M157" s="61" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="N157" s="61" t="s">
-        <v>1181</v>
+        <v>1427</v>
       </c>
       <c r="O157" s="61" t="s">
-        <v>1346</v>
+        <v>103</v>
       </c>
       <c r="P157" s="61" t="s">
-        <v>1169</v>
+        <v>1428</v>
       </c>
       <c r="Q157" s="61" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R157" s="61" t="s">
-        <v>1347</v>
+        <v>1429</v>
       </c>
       <c r="S157" s="20"/>
       <c r="V157" s="7"/>
@@ -12416,49 +13024,49 @@
         <v>40</v>
       </c>
       <c r="D161" s="61" t="s">
-        <v>1348</v>
+        <v>1430</v>
       </c>
       <c r="E161" s="61" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F161" s="61" t="s">
-        <v>1177</v>
+        <v>1431</v>
       </c>
       <c r="G161" s="61" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H161" s="61" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I161" s="61" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J161" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K161" s="61" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L161" s="61" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M161" s="61" t="s">
+        <v>1436</v>
+      </c>
+      <c r="N161" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="O161" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="P161" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q161" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H161" s="61" t="s">
-        <v>1349</v>
-      </c>
-      <c r="I161" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J161" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K161" s="61" t="s">
-        <v>1350</v>
-      </c>
-      <c r="L161" s="61" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M161" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="N161" s="61" t="s">
-        <v>1270</v>
-      </c>
-      <c r="O161" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P161" s="61" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Q161" s="61" t="s">
-        <v>33</v>
-      </c>
       <c r="R161" s="61" t="s">
-        <v>22</v>
+        <v>1437</v>
       </c>
       <c r="S161" s="20"/>
       <c r="V161" s="7"/>
@@ -12529,49 +13137,49 @@
         <v>41</v>
       </c>
       <c r="D165" s="61" t="s">
-        <v>1352</v>
+        <v>26</v>
       </c>
       <c r="E165" s="61" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F165" s="61" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G165" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H165" s="61" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I165" s="61" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J165" s="61" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K165" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="L165" s="61" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M165" s="61" t="s">
+        <v>1443</v>
+      </c>
+      <c r="N165" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F165" s="61" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G165" s="61" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H165" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I165" s="61" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J165" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K165" s="61" t="s">
-        <v>1355</v>
-      </c>
-      <c r="L165" s="61" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M165" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N165" s="61" t="s">
-        <v>292</v>
-      </c>
       <c r="O165" s="61" t="s">
-        <v>1357</v>
+        <v>1444</v>
       </c>
       <c r="P165" s="61" t="s">
-        <v>187</v>
+        <v>1445</v>
       </c>
       <c r="Q165" s="61" t="s">
-        <v>1358</v>
+        <v>35</v>
       </c>
       <c r="R165" s="61" t="s">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="S165" s="20"/>
       <c r="V165" s="7"/>
@@ -12641,49 +13249,49 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="61" t="s">
-        <v>1359</v>
+        <v>30</v>
       </c>
       <c r="E169" s="61" t="s">
-        <v>1360</v>
+        <v>1446</v>
       </c>
       <c r="F169" s="61" t="s">
-        <v>102</v>
+        <v>1447</v>
       </c>
       <c r="G169" s="61" t="s">
-        <v>1361</v>
+        <v>281</v>
       </c>
       <c r="H169" s="61" t="s">
-        <v>1283</v>
+        <v>32</v>
       </c>
       <c r="I169" s="61" t="s">
-        <v>108</v>
+        <v>1406</v>
       </c>
       <c r="J169" s="61" t="s">
-        <v>126</v>
+        <v>1448</v>
       </c>
       <c r="K169" s="61" t="s">
         <v>23</v>
       </c>
       <c r="L169" s="61" t="s">
-        <v>1362</v>
+        <v>1449</v>
       </c>
       <c r="M169" s="61" t="s">
-        <v>1334</v>
+        <v>37</v>
       </c>
       <c r="N169" s="61" t="s">
-        <v>102</v>
+        <v>1274</v>
       </c>
       <c r="O169" s="61" t="s">
-        <v>1188</v>
+        <v>1425</v>
       </c>
       <c r="P169" s="61" t="s">
-        <v>1363</v>
+        <v>30</v>
       </c>
       <c r="Q169" s="61" t="s">
-        <v>108</v>
+        <v>1430</v>
       </c>
       <c r="R169" s="61" t="s">
-        <v>1364</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="170" spans="2:22">
@@ -12750,49 +13358,49 @@
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="61" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E173" s="61" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F173" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E173" s="61" t="s">
-        <v>1365</v>
-      </c>
-      <c r="F173" s="61" t="s">
-        <v>1366</v>
-      </c>
       <c r="G173" s="61" t="s">
-        <v>272</v>
+        <v>1453</v>
       </c>
       <c r="H173" s="61" t="s">
-        <v>1367</v>
+        <v>1454</v>
       </c>
       <c r="I173" s="61" t="s">
-        <v>19</v>
+        <v>1380</v>
       </c>
       <c r="J173" s="61" t="s">
-        <v>31</v>
+        <v>1455</v>
       </c>
       <c r="K173" s="61" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="L173" s="61" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="M173" s="61" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="N173" s="61" t="s">
-        <v>291</v>
+        <v>1307</v>
       </c>
       <c r="O173" s="61" t="s">
-        <v>1172</v>
+        <v>1456</v>
       </c>
       <c r="P173" s="61" t="s">
-        <v>1368</v>
+        <v>1451</v>
       </c>
       <c r="Q173" s="61" t="s">
-        <v>1169</v>
+        <v>1457</v>
       </c>
       <c r="R173" s="61" t="s">
-        <v>1369</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="2:22">
@@ -12859,49 +13467,49 @@
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="61" t="s">
-        <v>1370</v>
+        <v>168</v>
       </c>
       <c r="E177" s="61" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F177" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="G177" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H177" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I177" s="61" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J177" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K177" s="61" t="s">
+        <v>1460</v>
+      </c>
+      <c r="L177" s="61" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M177" s="61" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N177" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O177" s="61" t="s">
+        <v>1400</v>
+      </c>
+      <c r="P177" s="61" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q177" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F177" s="61" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G177" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="H177" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I177" s="61" t="s">
-        <v>1372</v>
-      </c>
-      <c r="J177" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="K177" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="L177" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="M177" s="61" t="s">
-        <v>1270</v>
-      </c>
-      <c r="N177" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="O177" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="P177" s="61" t="s">
-        <v>1359</v>
-      </c>
-      <c r="Q177" s="61" t="s">
-        <v>1334</v>
-      </c>
       <c r="R177" s="61" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
     </row>
     <row r="178" spans="2:18">
@@ -12968,49 +13576,49 @@
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="61" t="s">
-        <v>1366</v>
+        <v>1463</v>
       </c>
       <c r="E181" s="61" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F181" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G181" s="61" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H181" s="61" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I181" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J181" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="K181" s="61" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L181" s="61" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M181" s="61" t="s">
+        <v>1467</v>
+      </c>
+      <c r="N181" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F181" s="61" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G181" s="61" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H181" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I181" s="61" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J181" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K181" s="61" t="s">
-        <v>1375</v>
-      </c>
-      <c r="L181" s="61" t="s">
-        <v>1376</v>
-      </c>
-      <c r="M181" s="61" t="s">
-        <v>1242</v>
-      </c>
-      <c r="N181" s="61" t="s">
-        <v>168</v>
-      </c>
       <c r="O181" s="61" t="s">
-        <v>1377</v>
+        <v>1468</v>
       </c>
       <c r="P181" s="61" t="s">
-        <v>23</v>
+        <v>1469</v>
       </c>
       <c r="Q181" s="61" t="s">
-        <v>106</v>
+        <v>1470</v>
       </c>
       <c r="R181" s="61" t="s">
-        <v>1378</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="182" spans="2:18">
@@ -13077,49 +13685,49 @@
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="61" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="E185" s="61" t="s">
-        <v>1172</v>
+        <v>1221</v>
       </c>
       <c r="F185" s="61" t="s">
-        <v>108</v>
+        <v>1471</v>
       </c>
       <c r="G185" s="61" t="s">
-        <v>35</v>
+        <v>1472</v>
       </c>
       <c r="H185" s="61" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I185" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I185" s="61" t="s">
-        <v>1371</v>
-      </c>
       <c r="J185" s="61" t="s">
-        <v>1379</v>
+        <v>1474</v>
       </c>
       <c r="K185" s="61" t="s">
-        <v>167</v>
+        <v>1475</v>
       </c>
       <c r="L185" s="61" t="s">
-        <v>1380</v>
+        <v>1437</v>
       </c>
       <c r="M185" s="61" t="s">
-        <v>1381</v>
+        <v>1362</v>
       </c>
       <c r="N185" s="61" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O185" s="61" t="s">
-        <v>1382</v>
+        <v>1253</v>
       </c>
       <c r="P185" s="61" t="s">
-        <v>1383</v>
+        <v>268</v>
       </c>
       <c r="Q185" s="61" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="R185" s="61" t="s">
-        <v>1384</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="186" spans="2:18">
@@ -13186,49 +13794,49 @@
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E189" s="61" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="F189" s="61" t="s">
-        <v>147</v>
+        <v>1477</v>
       </c>
       <c r="G189" s="61" t="s">
-        <v>1385</v>
+        <v>1478</v>
       </c>
       <c r="H189" s="61" t="s">
-        <v>1386</v>
+        <v>200</v>
       </c>
       <c r="I189" s="61" t="s">
-        <v>1387</v>
+        <v>108</v>
       </c>
       <c r="J189" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="K189" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L189" s="61" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M189" s="61" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N189" s="61" t="s">
+        <v>1481</v>
+      </c>
+      <c r="O189" s="61" t="s">
+        <v>1482</v>
+      </c>
+      <c r="P189" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K189" s="61" t="s">
-        <v>1388</v>
-      </c>
-      <c r="L189" s="61" t="s">
-        <v>1389</v>
-      </c>
-      <c r="M189" s="61" t="s">
-        <v>1386</v>
-      </c>
-      <c r="N189" s="61" t="s">
-        <v>1390</v>
-      </c>
-      <c r="O189" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P189" s="61" t="s">
-        <v>1350</v>
-      </c>
       <c r="Q189" s="61" t="s">
-        <v>1391</v>
+        <v>1444</v>
       </c>
       <c r="R189" s="61" t="s">
-        <v>1392</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="190" spans="2:18">
@@ -13259,15 +13867,15 @@
       <c r="G191" s="64"/>
       <c r="H191" s="64"/>
       <c r="I191" s="64"/>
-      <c r="J191" s="64"/>
-      <c r="K191" s="64"/>
-      <c r="L191" s="64"/>
-      <c r="M191" s="64"/>
-      <c r="N191" s="64"/>
-      <c r="O191" s="64"/>
-      <c r="P191" s="64"/>
-      <c r="Q191" s="64"/>
-      <c r="R191" s="64"/>
+      <c r="J191" s="54"/>
+      <c r="K191" s="54"/>
+      <c r="L191" s="54"/>
+      <c r="M191" s="54"/>
+      <c r="N191" s="54"/>
+      <c r="O191" s="54"/>
+      <c r="P191" s="54"/>
+      <c r="Q191" s="54"/>
+      <c r="R191" s="54"/>
     </row>
     <row r="192" spans="2:18" ht="39.75">
       <c r="B192" s="17"/>
@@ -13278,15 +13886,15 @@
       <c r="G192" s="65"/>
       <c r="H192" s="65"/>
       <c r="I192" s="65"/>
-      <c r="J192" s="65"/>
-      <c r="K192" s="65"/>
-      <c r="L192" s="65"/>
-      <c r="M192" s="65"/>
-      <c r="N192" s="65"/>
-      <c r="O192" s="65"/>
-      <c r="P192" s="65"/>
-      <c r="Q192" s="65"/>
-      <c r="R192" s="65"/>
+      <c r="J192" s="60"/>
+      <c r="K192" s="60"/>
+      <c r="L192" s="60"/>
+      <c r="M192" s="60"/>
+      <c r="N192" s="60"/>
+      <c r="O192" s="60"/>
+      <c r="P192" s="60"/>
+      <c r="Q192" s="60"/>
+      <c r="R192" s="60"/>
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
@@ -13295,50 +13903,34 @@
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="61" t="s">
-        <v>1181</v>
+        <v>1307</v>
       </c>
       <c r="E193" s="61" t="s">
-        <v>1283</v>
+        <v>1426</v>
       </c>
       <c r="F193" s="61" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="G193" s="61" t="s">
-        <v>144</v>
+        <v>1484</v>
       </c>
       <c r="H193" s="61" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I193" s="61" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J193" s="61" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K193" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L193" s="61" t="s">
-        <v>1394</v>
-      </c>
-      <c r="M193" s="61" t="s">
-        <v>1395</v>
-      </c>
-      <c r="N193" s="61" t="s">
-        <v>1396</v>
-      </c>
-      <c r="O193" s="61" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P193" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q193" s="61" t="s">
-        <v>1398</v>
-      </c>
-      <c r="R193" s="61" t="s">
-        <v>1399</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I193" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="J193" s="61"/>
+      <c r="K193" s="61"/>
+      <c r="L193" s="61"/>
+      <c r="M193" s="61"/>
+      <c r="N193" s="61"/>
+      <c r="O193" s="61"/>
+      <c r="P193" s="61"/>
+      <c r="Q193" s="61"/>
+      <c r="R193" s="61"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="21"/>
@@ -13363,39 +13955,39 @@
       <c r="B195" s="12"/>
       <c r="C195" s="32"/>
       <c r="D195" s="64"/>
-      <c r="E195" s="64"/>
-      <c r="F195" s="64"/>
-      <c r="G195" s="64"/>
-      <c r="H195" s="64"/>
-      <c r="I195" s="64"/>
-      <c r="J195" s="64"/>
-      <c r="K195" s="64"/>
-      <c r="L195" s="64"/>
-      <c r="M195" s="64"/>
-      <c r="N195" s="64"/>
-      <c r="O195" s="64"/>
-      <c r="P195" s="64"/>
-      <c r="Q195" s="64"/>
-      <c r="R195" s="64"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="54"/>
+      <c r="K195" s="54"/>
+      <c r="L195" s="54"/>
+      <c r="M195" s="54"/>
+      <c r="N195" s="54"/>
+      <c r="O195" s="54"/>
+      <c r="P195" s="54"/>
+      <c r="Q195" s="54"/>
+      <c r="R195" s="54"/>
     </row>
     <row r="196" spans="2:18" ht="39.75">
       <c r="B196" s="17"/>
       <c r="C196" s="6"/>
       <c r="D196" s="65"/>
-      <c r="E196" s="65"/>
-      <c r="F196" s="65"/>
-      <c r="G196" s="65"/>
-      <c r="H196" s="65"/>
-      <c r="I196" s="65"/>
-      <c r="J196" s="65"/>
-      <c r="K196" s="65"/>
-      <c r="L196" s="65"/>
-      <c r="M196" s="65"/>
-      <c r="N196" s="65"/>
-      <c r="O196" s="65"/>
-      <c r="P196" s="65"/>
-      <c r="Q196" s="65"/>
-      <c r="R196" s="65"/>
+      <c r="E196" s="60"/>
+      <c r="F196" s="60"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="60"/>
+      <c r="I196" s="60"/>
+      <c r="J196" s="60"/>
+      <c r="K196" s="60"/>
+      <c r="L196" s="60"/>
+      <c r="M196" s="60"/>
+      <c r="N196" s="60"/>
+      <c r="O196" s="60"/>
+      <c r="P196" s="60"/>
+      <c r="Q196" s="60"/>
+      <c r="R196" s="60"/>
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
@@ -13403,51 +13995,25 @@
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="61" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E197" s="61" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F197" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="H197" s="61" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I197" s="61" t="s">
-        <v>1304</v>
-      </c>
-      <c r="J197" s="61" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K197" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L197" s="61" t="s">
-        <v>1403</v>
-      </c>
-      <c r="M197" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="N197" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="O197" s="61" t="s">
-        <v>1404</v>
-      </c>
-      <c r="P197" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q197" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="R197" s="61" t="s">
-        <v>1169</v>
-      </c>
+      <c r="D197" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E197" s="61"/>
+      <c r="F197" s="61"/>
+      <c r="G197" s="61"/>
+      <c r="H197" s="61"/>
+      <c r="I197" s="61"/>
+      <c r="J197" s="61"/>
+      <c r="K197" s="61"/>
+      <c r="L197" s="61"/>
+      <c r="M197" s="61"/>
+      <c r="N197" s="61"/>
+      <c r="O197" s="61"/>
+      <c r="P197" s="61"/>
+      <c r="Q197" s="61"/>
+      <c r="R197" s="61"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="21"/>
@@ -13513,49 +14079,49 @@
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="61" t="s">
-        <v>1280</v>
+        <v>1485</v>
       </c>
       <c r="E201" s="61" t="s">
-        <v>106</v>
+        <v>1183</v>
       </c>
       <c r="F201" s="61" t="s">
-        <v>1207</v>
+        <v>1486</v>
       </c>
       <c r="G201" s="61" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H201" s="61" t="s">
-        <v>1172</v>
+        <v>1425</v>
       </c>
       <c r="I201" s="61" t="s">
         <v>23</v>
       </c>
       <c r="J201" s="61" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="K201" s="61" t="s">
-        <v>1197</v>
+        <v>1487</v>
       </c>
       <c r="L201" s="61" t="s">
-        <v>1208</v>
+        <v>1488</v>
       </c>
       <c r="M201" s="61" t="s">
-        <v>217</v>
+        <v>1378</v>
       </c>
       <c r="N201" s="61" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="O201" s="61" t="s">
-        <v>1405</v>
+        <v>26</v>
       </c>
       <c r="P201" s="61" t="s">
-        <v>1182</v>
+        <v>1269</v>
       </c>
       <c r="Q201" s="61" t="s">
-        <v>138</v>
+        <v>1489</v>
       </c>
       <c r="R201" s="61" t="s">
-        <v>30</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="202" spans="2:18">
@@ -13622,49 +14188,49 @@
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E205" s="61" t="s">
-        <v>102</v>
+        <v>1491</v>
       </c>
       <c r="F205" s="61" t="s">
-        <v>1406</v>
+        <v>1492</v>
       </c>
       <c r="G205" s="61" t="s">
-        <v>1407</v>
+        <v>1264</v>
       </c>
       <c r="H205" s="61" t="s">
-        <v>1408</v>
+        <v>108</v>
       </c>
       <c r="I205" s="61" t="s">
-        <v>1183</v>
+        <v>1493</v>
       </c>
       <c r="J205" s="61" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K205" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L205" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="M205" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="N205" s="61" t="s">
+        <v>1495</v>
+      </c>
+      <c r="O205" s="61" t="s">
+        <v>1391</v>
+      </c>
+      <c r="P205" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K205" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="L205" s="61" t="s">
-        <v>1409</v>
-      </c>
-      <c r="M205" s="61" t="s">
-        <v>1197</v>
-      </c>
-      <c r="N205" s="61" t="s">
-        <v>1171</v>
-      </c>
-      <c r="O205" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P205" s="61" t="s">
-        <v>137</v>
-      </c>
       <c r="Q205" s="61" t="s">
+        <v>1496</v>
+      </c>
+      <c r="R205" s="61" t="s">
         <v>1257</v>
-      </c>
-      <c r="R205" s="61" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="206" spans="2:18">
@@ -13698,12 +14264,12 @@
       <c r="J207" s="64"/>
       <c r="K207" s="64"/>
       <c r="L207" s="64"/>
-      <c r="M207" s="54"/>
-      <c r="N207" s="54"/>
-      <c r="O207" s="54"/>
-      <c r="P207" s="54"/>
-      <c r="Q207" s="54"/>
-      <c r="R207" s="54"/>
+      <c r="M207" s="64"/>
+      <c r="N207" s="64"/>
+      <c r="O207" s="64"/>
+      <c r="P207" s="64"/>
+      <c r="Q207" s="64"/>
+      <c r="R207" s="64"/>
     </row>
     <row r="208" spans="2:18" ht="39.75">
       <c r="B208" s="17"/>
@@ -13717,12 +14283,12 @@
       <c r="J208" s="65"/>
       <c r="K208" s="65"/>
       <c r="L208" s="65"/>
-      <c r="M208" s="60"/>
-      <c r="N208" s="60"/>
-      <c r="O208" s="60"/>
-      <c r="P208" s="60"/>
-      <c r="Q208" s="60"/>
-      <c r="R208" s="60"/>
+      <c r="M208" s="65"/>
+      <c r="N208" s="65"/>
+      <c r="O208" s="65"/>
+      <c r="P208" s="65"/>
+      <c r="Q208" s="65"/>
+      <c r="R208" s="65"/>
     </row>
     <row r="209" spans="2:18" ht="58.5">
       <c r="B209" s="19">
@@ -13731,40 +14297,50 @@
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="61" t="s">
-        <v>1254</v>
+        <v>1497</v>
       </c>
       <c r="E209" s="61" t="s">
-        <v>1259</v>
+        <v>108</v>
       </c>
       <c r="F209" s="61" t="s">
-        <v>1254</v>
+        <v>121</v>
       </c>
       <c r="G209" s="61" t="s">
-        <v>1261</v>
+        <v>170</v>
       </c>
       <c r="H209" s="61" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="I209" s="61" t="s">
-        <v>1360</v>
+        <v>1498</v>
       </c>
       <c r="J209" s="61" t="s">
-        <v>138</v>
+        <v>1499</v>
       </c>
       <c r="K209" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L209" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="M209" s="61"/>
-      <c r="N209" s="61"/>
-      <c r="O209" s="61"/>
-      <c r="P209" s="61"/>
-      <c r="Q209" s="61"/>
-      <c r="R209" s="61"/>
+        <v>1500</v>
+      </c>
+      <c r="L209" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="M209" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="N209" s="61" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O209" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P209" s="61" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q209" s="61" t="s">
+        <v>1502</v>
+      </c>
+      <c r="R209" s="61" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="21"/>
@@ -13789,39 +14365,39 @@
       <c r="B211" s="12"/>
       <c r="C211" s="32"/>
       <c r="D211" s="64"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
-      <c r="J211" s="54"/>
-      <c r="K211" s="54"/>
-      <c r="L211" s="54"/>
-      <c r="M211" s="54"/>
-      <c r="N211" s="54"/>
-      <c r="O211" s="54"/>
-      <c r="P211" s="54"/>
-      <c r="Q211" s="54"/>
-      <c r="R211" s="54"/>
+      <c r="E211" s="64"/>
+      <c r="F211" s="64"/>
+      <c r="G211" s="64"/>
+      <c r="H211" s="64"/>
+      <c r="I211" s="64"/>
+      <c r="J211" s="64"/>
+      <c r="K211" s="64"/>
+      <c r="L211" s="64"/>
+      <c r="M211" s="64"/>
+      <c r="N211" s="64"/>
+      <c r="O211" s="64"/>
+      <c r="P211" s="64"/>
+      <c r="Q211" s="64"/>
+      <c r="R211" s="64"/>
     </row>
     <row r="212" spans="2:18" ht="39.75">
       <c r="B212" s="17"/>
       <c r="C212" s="6"/>
       <c r="D212" s="65"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="60"/>
-      <c r="H212" s="60"/>
-      <c r="I212" s="60"/>
-      <c r="J212" s="60"/>
-      <c r="K212" s="60"/>
-      <c r="L212" s="60"/>
-      <c r="M212" s="60"/>
-      <c r="N212" s="60"/>
-      <c r="O212" s="60"/>
-      <c r="P212" s="60"/>
-      <c r="Q212" s="60"/>
-      <c r="R212" s="60"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="65"/>
+      <c r="G212" s="65"/>
+      <c r="H212" s="65"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="65"/>
+      <c r="K212" s="65"/>
+      <c r="L212" s="65"/>
+      <c r="M212" s="65"/>
+      <c r="N212" s="65"/>
+      <c r="O212" s="65"/>
+      <c r="P212" s="65"/>
+      <c r="Q212" s="65"/>
+      <c r="R212" s="65"/>
     </row>
     <row r="213" spans="2:18" ht="58.5">
       <c r="B213" s="19">
@@ -13829,25 +14405,51 @@
         <v>53</v>
       </c>
       <c r="C213" s="6"/>
-      <c r="D213" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E213" s="61"/>
-      <c r="F213" s="61"/>
-      <c r="G213" s="61"/>
-      <c r="H213" s="61"/>
-      <c r="I213" s="61"/>
-      <c r="J213" s="61"/>
-      <c r="K213" s="61"/>
-      <c r="L213" s="61"/>
-      <c r="M213" s="61"/>
-      <c r="N213" s="61"/>
-      <c r="O213" s="61"/>
-      <c r="P213" s="61"/>
-      <c r="Q213" s="61"/>
-      <c r="R213" s="61"/>
+      <c r="D213" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E213" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F213" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="G213" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" s="61" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I213" s="61" t="s">
+        <v>1504</v>
+      </c>
+      <c r="J213" s="61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K213" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="L213" s="61" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M213" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N213" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O213" s="61" t="s">
+        <v>1179</v>
+      </c>
+      <c r="P213" s="61" t="s">
+        <v>1253</v>
+      </c>
+      <c r="Q213" s="61" t="s">
+        <v>1506</v>
+      </c>
+      <c r="R213" s="61" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="21"/>
@@ -13913,49 +14515,49 @@
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="61" t="s">
-        <v>1321</v>
+        <v>1507</v>
       </c>
       <c r="E217" s="61" t="s">
-        <v>1208</v>
+        <v>1508</v>
       </c>
       <c r="F217" s="61" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="G217" s="61" t="s">
-        <v>1376</v>
+        <v>1418</v>
       </c>
       <c r="H217" s="61" t="s">
-        <v>1169</v>
+        <v>20</v>
       </c>
       <c r="I217" s="61" t="s">
-        <v>106</v>
+        <v>1509</v>
       </c>
       <c r="J217" s="61" t="s">
-        <v>1410</v>
+        <v>115</v>
       </c>
       <c r="K217" s="61" t="s">
-        <v>1411</v>
+        <v>23</v>
       </c>
       <c r="L217" s="61" t="s">
-        <v>85</v>
+        <v>1510</v>
       </c>
       <c r="M217" s="61" t="s">
-        <v>1402</v>
+        <v>1511</v>
       </c>
       <c r="N217" s="61" t="s">
-        <v>108</v>
+        <v>1512</v>
       </c>
       <c r="O217" s="61" t="s">
-        <v>1377</v>
+        <v>1513</v>
       </c>
       <c r="P217" s="61" t="s">
         <v>103</v>
       </c>
       <c r="Q217" s="61" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="R217" s="61" t="s">
-        <v>1377</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="218" spans="2:18">
@@ -14022,49 +14624,49 @@
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="61" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E221" s="61" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F221" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E221" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="F221" s="61" t="s">
-        <v>1249</v>
-      </c>
       <c r="G221" s="61" t="s">
-        <v>1169</v>
+        <v>264</v>
       </c>
       <c r="H221" s="61" t="s">
-        <v>108</v>
+        <v>1517</v>
       </c>
       <c r="I221" s="61" t="s">
-        <v>1412</v>
+        <v>1193</v>
       </c>
       <c r="J221" s="61" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K221" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L221" s="61" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M221" s="61" t="s">
+        <v>1520</v>
+      </c>
+      <c r="N221" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="O221" s="61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P221" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K221" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="L221" s="61" t="s">
-        <v>1413</v>
-      </c>
-      <c r="M221" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="N221" s="61" t="s">
-        <v>1172</v>
-      </c>
-      <c r="O221" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="P221" s="61" t="s">
-        <v>1313</v>
-      </c>
       <c r="Q221" s="61" t="s">
-        <v>30</v>
+        <v>1521</v>
       </c>
       <c r="R221" s="61" t="s">
-        <v>162</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="222" spans="2:18">
@@ -14131,49 +14733,49 @@
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="61" t="s">
-        <v>26</v>
+        <v>1244</v>
       </c>
       <c r="E225" s="61" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="F225" s="61" t="s">
-        <v>1214</v>
+        <v>1522</v>
       </c>
       <c r="G225" s="61" t="s">
-        <v>108</v>
+        <v>1523</v>
       </c>
       <c r="H225" s="61" t="s">
-        <v>1171</v>
+        <v>103</v>
       </c>
       <c r="I225" s="61" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J225" s="61" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K225" s="61" t="s">
+        <v>1526</v>
+      </c>
+      <c r="L225" s="61" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M225" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J225" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="K225" s="61" t="s">
-        <v>1414</v>
-      </c>
-      <c r="L225" s="61" t="s">
-        <v>1257</v>
-      </c>
-      <c r="M225" s="61" t="s">
-        <v>108</v>
-      </c>
       <c r="N225" s="61" t="s">
-        <v>1254</v>
+        <v>1528</v>
       </c>
       <c r="O225" s="61" t="s">
-        <v>1259</v>
+        <v>1302</v>
       </c>
       <c r="P225" s="61" t="s">
-        <v>1254</v>
+        <v>1282</v>
       </c>
       <c r="Q225" s="61" t="s">
-        <v>1261</v>
+        <v>106</v>
       </c>
       <c r="R225" s="61" t="s">
-        <v>1262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" spans="2:18">
@@ -14240,49 +14842,49 @@
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="61" t="s">
-        <v>108</v>
+        <v>1529</v>
       </c>
       <c r="E229" s="61" t="s">
-        <v>1415</v>
+        <v>30</v>
       </c>
       <c r="F229" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G229" s="61" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H229" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I229" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J229" s="61" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K229" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="L229" s="61" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M229" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G229" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="H229" s="61" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I229" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="J229" s="61" t="s">
-        <v>1417</v>
-      </c>
-      <c r="K229" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L229" s="61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="M229" s="61" t="s">
-        <v>217</v>
-      </c>
       <c r="N229" s="61" t="s">
-        <v>283</v>
+        <v>1533</v>
       </c>
       <c r="O229" s="61" t="s">
-        <v>1209</v>
+        <v>1534</v>
       </c>
       <c r="P229" s="61" t="s">
-        <v>1218</v>
+        <v>1392</v>
       </c>
       <c r="Q229" s="61" t="s">
-        <v>1418</v>
+        <v>1535</v>
       </c>
       <c r="R229" s="61" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="2:18">
@@ -14349,49 +14951,49 @@
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="61" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="E233" s="61" t="s">
-        <v>1349</v>
+        <v>1536</v>
       </c>
       <c r="F233" s="61" t="s">
-        <v>1419</v>
+        <v>1472</v>
       </c>
       <c r="G233" s="61" t="s">
-        <v>1241</v>
+        <v>142</v>
       </c>
       <c r="H233" s="61" t="s">
-        <v>1178</v>
+        <v>23</v>
       </c>
       <c r="I233" s="61" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J233" s="61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K233" s="61" t="s">
+        <v>1538</v>
+      </c>
+      <c r="L233" s="61" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M233" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="N233" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="O233" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P233" s="61" t="s">
+        <v>1540</v>
+      </c>
+      <c r="Q233" s="61" t="s">
+        <v>1541</v>
+      </c>
+      <c r="R233" s="61" t="s">
         <v>23</v>
-      </c>
-      <c r="J233" s="61" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K233" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="L233" s="61" t="s">
-        <v>1422</v>
-      </c>
-      <c r="M233" s="61" t="s">
-        <v>1171</v>
-      </c>
-      <c r="N233" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="O233" s="61" t="s">
-        <v>1382</v>
-      </c>
-      <c r="P233" s="61" t="s">
-        <v>1203</v>
-      </c>
-      <c r="Q233" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="R233" s="61" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="234" spans="2:18">
@@ -14428,9 +15030,9 @@
       <c r="M235" s="64"/>
       <c r="N235" s="64"/>
       <c r="O235" s="64"/>
-      <c r="P235" s="54"/>
-      <c r="Q235" s="54"/>
-      <c r="R235" s="54"/>
+      <c r="P235" s="64"/>
+      <c r="Q235" s="64"/>
+      <c r="R235" s="64"/>
     </row>
     <row r="236" spans="2:18" ht="39.75">
       <c r="B236" s="17"/>
@@ -14447,9 +15049,9 @@
       <c r="M236" s="65"/>
       <c r="N236" s="65"/>
       <c r="O236" s="65"/>
-      <c r="P236" s="60"/>
-      <c r="Q236" s="60"/>
-      <c r="R236" s="60"/>
+      <c r="P236" s="65"/>
+      <c r="Q236" s="65"/>
+      <c r="R236" s="65"/>
     </row>
     <row r="237" spans="2:18" ht="58.5">
       <c r="B237" s="19">
@@ -14458,46 +15060,50 @@
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="61" t="s">
-        <v>1213</v>
+        <v>1542</v>
       </c>
       <c r="E237" s="61" t="s">
-        <v>1423</v>
+        <v>1543</v>
       </c>
       <c r="F237" s="61" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G237" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H237" s="61" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I237" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J237" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K237" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="L237" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="M237" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="N237" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O237" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G237" s="61" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H237" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="I237" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="J237" s="61" t="s">
-        <v>1359</v>
-      </c>
-      <c r="K237" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="L237" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="M237" s="61" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N237" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="O237" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="P237" s="61"/>
-      <c r="Q237" s="61"/>
-      <c r="R237" s="61"/>
+      <c r="P237" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q237" s="61" t="s">
+        <v>1446</v>
+      </c>
+      <c r="R237" s="61" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="21"/>
@@ -14522,39 +15128,39 @@
       <c r="B239" s="12"/>
       <c r="C239" s="32"/>
       <c r="D239" s="64"/>
-      <c r="E239" s="54"/>
-      <c r="F239" s="54"/>
-      <c r="G239" s="54"/>
-      <c r="H239" s="54"/>
-      <c r="I239" s="54"/>
-      <c r="J239" s="54"/>
-      <c r="K239" s="54"/>
-      <c r="L239" s="54"/>
-      <c r="M239" s="54"/>
-      <c r="N239" s="54"/>
-      <c r="O239" s="54"/>
-      <c r="P239" s="54"/>
-      <c r="Q239" s="54"/>
-      <c r="R239" s="54"/>
+      <c r="E239" s="64"/>
+      <c r="F239" s="64"/>
+      <c r="G239" s="64"/>
+      <c r="H239" s="64"/>
+      <c r="I239" s="64"/>
+      <c r="J239" s="64"/>
+      <c r="K239" s="64"/>
+      <c r="L239" s="64"/>
+      <c r="M239" s="64"/>
+      <c r="N239" s="64"/>
+      <c r="O239" s="64"/>
+      <c r="P239" s="64"/>
+      <c r="Q239" s="64"/>
+      <c r="R239" s="64"/>
     </row>
     <row r="240" spans="2:18" ht="39.75">
       <c r="B240" s="17"/>
       <c r="C240" s="6"/>
       <c r="D240" s="65"/>
-      <c r="E240" s="60"/>
-      <c r="F240" s="60"/>
-      <c r="G240" s="60"/>
-      <c r="H240" s="60"/>
-      <c r="I240" s="60"/>
-      <c r="J240" s="60"/>
-      <c r="K240" s="60"/>
-      <c r="L240" s="60"/>
-      <c r="M240" s="60"/>
-      <c r="N240" s="60"/>
-      <c r="O240" s="60"/>
-      <c r="P240" s="60"/>
-      <c r="Q240" s="60"/>
-      <c r="R240" s="60"/>
+      <c r="E240" s="65"/>
+      <c r="F240" s="65"/>
+      <c r="G240" s="65"/>
+      <c r="H240" s="65"/>
+      <c r="I240" s="65"/>
+      <c r="J240" s="65"/>
+      <c r="K240" s="65"/>
+      <c r="L240" s="65"/>
+      <c r="M240" s="65"/>
+      <c r="N240" s="65"/>
+      <c r="O240" s="65"/>
+      <c r="P240" s="65"/>
+      <c r="Q240" s="65"/>
+      <c r="R240" s="65"/>
     </row>
     <row r="241" spans="2:18" ht="58.5">
       <c r="B241" s="19">
@@ -14562,25 +15168,51 @@
         <v>60</v>
       </c>
       <c r="C241" s="6"/>
-      <c r="D241" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E241" s="61"/>
-      <c r="F241" s="61"/>
-      <c r="G241" s="61"/>
-      <c r="H241" s="61"/>
-      <c r="I241" s="61"/>
-      <c r="J241" s="61"/>
-      <c r="K241" s="61"/>
-      <c r="L241" s="61"/>
-      <c r="M241" s="61"/>
-      <c r="N241" s="61"/>
-      <c r="O241" s="61"/>
-      <c r="P241" s="61"/>
-      <c r="Q241" s="61"/>
-      <c r="R241" s="61"/>
+      <c r="D241" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E241" s="61" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F241" s="61" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G241" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H241" s="61" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I241" s="61" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J241" s="61" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K241" s="61" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L241" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M241" s="61" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N241" s="61" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O241" s="61" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P241" s="61" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q241" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="R241" s="61" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="21"/>
@@ -14646,49 +15278,49 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="61" t="s">
-        <v>99</v>
+        <v>1541</v>
       </c>
       <c r="E245" s="61" t="s">
-        <v>1350</v>
+        <v>1554</v>
       </c>
       <c r="F245" s="61" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G245" s="61" t="s">
-        <v>1425</v>
+        <v>23</v>
       </c>
       <c r="H245" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I245" s="61" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J245" s="61" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K245" s="61" t="s">
+        <v>1557</v>
+      </c>
+      <c r="L245" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="M245" s="61" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N245" s="61" t="s">
+        <v>1558</v>
+      </c>
+      <c r="O245" s="61" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P245" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q245" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I245" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="J245" s="61" t="s">
-        <v>1426</v>
-      </c>
-      <c r="K245" s="61" t="s">
-        <v>1427</v>
-      </c>
-      <c r="L245" s="61" t="s">
-        <v>1428</v>
-      </c>
-      <c r="M245" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N245" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="O245" s="61" t="s">
-        <v>1368</v>
-      </c>
-      <c r="P245" s="61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Q245" s="61" t="s">
-        <v>1429</v>
-      </c>
       <c r="R245" s="61" t="s">
-        <v>30</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="246" spans="2:18">
@@ -14713,13 +15345,13 @@
     <row r="247" spans="2:18">
       <c r="B247" s="12"/>
       <c r="C247" s="32"/>
-      <c r="D247" s="54"/>
-      <c r="E247" s="54"/>
-      <c r="F247" s="54"/>
-      <c r="G247" s="54"/>
-      <c r="H247" s="54"/>
-      <c r="I247" s="54"/>
-      <c r="J247" s="54"/>
+      <c r="D247" s="64"/>
+      <c r="E247" s="64"/>
+      <c r="F247" s="64"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="64"/>
+      <c r="I247" s="64"/>
+      <c r="J247" s="64"/>
       <c r="K247" s="54"/>
       <c r="L247" s="54"/>
       <c r="M247" s="54"/>
@@ -14732,13 +15364,13 @@
     <row r="248" spans="2:18" ht="39.75">
       <c r="B248" s="17"/>
       <c r="C248" s="6"/>
-      <c r="D248" s="60"/>
-      <c r="E248" s="60"/>
-      <c r="F248" s="60"/>
-      <c r="G248" s="60"/>
-      <c r="H248" s="60"/>
-      <c r="I248" s="60"/>
-      <c r="J248" s="60"/>
+      <c r="D248" s="65"/>
+      <c r="E248" s="65"/>
+      <c r="F248" s="65"/>
+      <c r="G248" s="65"/>
+      <c r="H248" s="65"/>
+      <c r="I248" s="65"/>
+      <c r="J248" s="65"/>
       <c r="K248" s="60"/>
       <c r="L248" s="60"/>
       <c r="M248" s="60"/>
@@ -14755,14 +15387,28 @@
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E249" s="61"/>
-      <c r="F249" s="61"/>
-      <c r="G249" s="61"/>
-      <c r="H249" s="61"/>
-      <c r="I249" s="61"/>
-      <c r="J249" s="61"/>
+        <v>187</v>
+      </c>
+      <c r="E249" s="61" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F249" s="61" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G249" s="61" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H249" s="61" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I249" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J249" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="K249" s="61"/>
       <c r="L249" s="61"/>
       <c r="M249" s="61"/>
@@ -14794,7 +15440,7 @@
     <row r="251" spans="2:18">
       <c r="B251" s="12"/>
       <c r="C251" s="32"/>
-      <c r="D251" s="54"/>
+      <c r="D251" s="64"/>
       <c r="E251" s="54"/>
       <c r="F251" s="54"/>
       <c r="G251" s="54"/>
@@ -14813,7 +15459,7 @@
     <row r="252" spans="2:18" ht="39.75">
       <c r="B252" s="17"/>
       <c r="C252" s="6"/>
-      <c r="D252" s="60"/>
+      <c r="D252" s="65"/>
       <c r="E252" s="60"/>
       <c r="F252" s="60"/>
       <c r="G252" s="60"/>
@@ -14835,7 +15481,11 @@
         <v>63</v>
       </c>
       <c r="C253" s="6"/>
-      <c r="D253" s="61"/>
+      <c r="D253" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="E253" s="61"/>
       <c r="F253" s="61"/>
       <c r="G253" s="61"/>
@@ -14873,15 +15523,15 @@
     <row r="255" spans="2:18">
       <c r="B255" s="12"/>
       <c r="C255" s="32"/>
-      <c r="D255" s="54"/>
-      <c r="E255" s="54"/>
-      <c r="F255" s="54"/>
-      <c r="G255" s="54"/>
-      <c r="H255" s="54"/>
-      <c r="I255" s="54"/>
-      <c r="J255" s="54"/>
-      <c r="K255" s="54"/>
-      <c r="L255" s="54"/>
+      <c r="D255" s="64"/>
+      <c r="E255" s="64"/>
+      <c r="F255" s="64"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="64"/>
+      <c r="I255" s="64"/>
+      <c r="J255" s="64"/>
+      <c r="K255" s="64"/>
+      <c r="L255" s="64"/>
       <c r="M255" s="54"/>
       <c r="N255" s="54"/>
       <c r="O255" s="54"/>
@@ -14892,15 +15542,15 @@
     <row r="256" spans="2:18" ht="39.75">
       <c r="B256" s="17"/>
       <c r="C256" s="6"/>
-      <c r="D256" s="60"/>
-      <c r="E256" s="60"/>
-      <c r="F256" s="60"/>
-      <c r="G256" s="60"/>
-      <c r="H256" s="60"/>
-      <c r="I256" s="60"/>
-      <c r="J256" s="60"/>
-      <c r="K256" s="60"/>
-      <c r="L256" s="60"/>
+      <c r="D256" s="65"/>
+      <c r="E256" s="65"/>
+      <c r="F256" s="65"/>
+      <c r="G256" s="65"/>
+      <c r="H256" s="65"/>
+      <c r="I256" s="65"/>
+      <c r="J256" s="65"/>
+      <c r="K256" s="65"/>
+      <c r="L256" s="65"/>
       <c r="M256" s="60"/>
       <c r="N256" s="60"/>
       <c r="O256" s="60"/>
@@ -14914,15 +15564,35 @@
         <v>64</v>
       </c>
       <c r="C257" s="6"/>
-      <c r="D257" s="61"/>
-      <c r="E257" s="61"/>
-      <c r="F257" s="61"/>
-      <c r="G257" s="61"/>
-      <c r="H257" s="61"/>
-      <c r="I257" s="61"/>
-      <c r="J257" s="61"/>
-      <c r="K257" s="61"/>
-      <c r="L257" s="61"/>
+      <c r="D257" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E257" s="61" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F257" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G257" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H257" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="I257" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="J257" s="61" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K257" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L257" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M257" s="61"/>
       <c r="N257" s="61"/>
       <c r="O257" s="61"/>
@@ -14952,15 +15622,15 @@
     <row r="259" spans="2:18">
       <c r="B259" s="12"/>
       <c r="C259" s="32"/>
-      <c r="D259" s="54"/>
-      <c r="E259" s="54"/>
-      <c r="F259" s="54"/>
-      <c r="G259" s="54"/>
-      <c r="H259" s="54"/>
-      <c r="I259" s="54"/>
-      <c r="J259" s="54"/>
-      <c r="K259" s="54"/>
-      <c r="L259" s="54"/>
+      <c r="D259" s="64"/>
+      <c r="E259" s="64"/>
+      <c r="F259" s="64"/>
+      <c r="G259" s="64"/>
+      <c r="H259" s="64"/>
+      <c r="I259" s="64"/>
+      <c r="J259" s="64"/>
+      <c r="K259" s="64"/>
+      <c r="L259" s="64"/>
       <c r="M259" s="54"/>
       <c r="N259" s="54"/>
       <c r="O259" s="54"/>
@@ -14971,15 +15641,15 @@
     <row r="260" spans="2:18" ht="39.75">
       <c r="B260" s="17"/>
       <c r="C260" s="6"/>
-      <c r="D260" s="60"/>
-      <c r="E260" s="60"/>
-      <c r="F260" s="60"/>
-      <c r="G260" s="60"/>
-      <c r="H260" s="60"/>
-      <c r="I260" s="60"/>
-      <c r="J260" s="60"/>
-      <c r="K260" s="60"/>
-      <c r="L260" s="60"/>
+      <c r="D260" s="65"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="65"/>
+      <c r="G260" s="65"/>
+      <c r="H260" s="65"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="65"/>
+      <c r="K260" s="65"/>
+      <c r="L260" s="65"/>
       <c r="M260" s="60"/>
       <c r="N260" s="60"/>
       <c r="O260" s="60"/>
@@ -14993,15 +15663,35 @@
         <v>65</v>
       </c>
       <c r="C261" s="6"/>
-      <c r="D261" s="61"/>
-      <c r="E261" s="61"/>
-      <c r="F261" s="61"/>
-      <c r="G261" s="61"/>
-      <c r="H261" s="61"/>
-      <c r="I261" s="61"/>
-      <c r="J261" s="61"/>
-      <c r="K261" s="61"/>
-      <c r="L261" s="61"/>
+      <c r="D261" s="61" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E261" s="61" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F261" s="61" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G261" s="61" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H261" s="61" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I261" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="J261" s="61" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K261" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L261" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M261" s="61"/>
       <c r="N261" s="61"/>
       <c r="O261" s="61"/>
@@ -15031,15 +15721,15 @@
     <row r="263" spans="2:18">
       <c r="B263" s="12"/>
       <c r="C263" s="32"/>
-      <c r="D263" s="54"/>
-      <c r="E263" s="54"/>
-      <c r="F263" s="54"/>
-      <c r="G263" s="54"/>
-      <c r="H263" s="54"/>
-      <c r="I263" s="54"/>
-      <c r="J263" s="54"/>
-      <c r="K263" s="54"/>
-      <c r="L263" s="54"/>
+      <c r="D263" s="64"/>
+      <c r="E263" s="64"/>
+      <c r="F263" s="64"/>
+      <c r="G263" s="64"/>
+      <c r="H263" s="64"/>
+      <c r="I263" s="64"/>
+      <c r="J263" s="64"/>
+      <c r="K263" s="64"/>
+      <c r="L263" s="64"/>
       <c r="M263" s="54"/>
       <c r="N263" s="54"/>
       <c r="O263" s="54"/>
@@ -15050,15 +15740,15 @@
     <row r="264" spans="2:18" ht="39.75">
       <c r="B264" s="17"/>
       <c r="C264" s="6"/>
-      <c r="D264" s="60"/>
-      <c r="E264" s="60"/>
-      <c r="F264" s="60"/>
-      <c r="G264" s="60"/>
-      <c r="H264" s="60"/>
-      <c r="I264" s="60"/>
-      <c r="J264" s="60"/>
-      <c r="K264" s="60"/>
-      <c r="L264" s="60"/>
+      <c r="D264" s="65"/>
+      <c r="E264" s="65"/>
+      <c r="F264" s="65"/>
+      <c r="G264" s="65"/>
+      <c r="H264" s="65"/>
+      <c r="I264" s="65"/>
+      <c r="J264" s="65"/>
+      <c r="K264" s="65"/>
+      <c r="L264" s="65"/>
       <c r="M264" s="60"/>
       <c r="N264" s="60"/>
       <c r="O264" s="60"/>
@@ -15072,15 +15762,35 @@
         <v>66</v>
       </c>
       <c r="C265" s="6"/>
-      <c r="D265" s="61"/>
-      <c r="E265" s="61"/>
-      <c r="F265" s="61"/>
-      <c r="G265" s="61"/>
-      <c r="H265" s="61"/>
-      <c r="I265" s="61"/>
-      <c r="J265" s="61"/>
-      <c r="K265" s="61"/>
-      <c r="L265" s="61"/>
+      <c r="D265" s="61" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E265" s="61" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F265" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G265" s="61" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H265" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="I265" s="61" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J265" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K265" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L265" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M265" s="61"/>
       <c r="N265" s="61"/>
       <c r="O265" s="61"/>
@@ -15110,15 +15820,15 @@
     <row r="267" spans="2:18">
       <c r="B267" s="12"/>
       <c r="C267" s="32"/>
-      <c r="D267" s="54"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="54"/>
-      <c r="G267" s="54"/>
-      <c r="H267" s="54"/>
-      <c r="I267" s="54"/>
-      <c r="J267" s="54"/>
-      <c r="K267" s="54"/>
-      <c r="L267" s="54"/>
+      <c r="D267" s="64"/>
+      <c r="E267" s="64"/>
+      <c r="F267" s="64"/>
+      <c r="G267" s="64"/>
+      <c r="H267" s="64"/>
+      <c r="I267" s="64"/>
+      <c r="J267" s="64"/>
+      <c r="K267" s="64"/>
+      <c r="L267" s="64"/>
       <c r="M267" s="54"/>
       <c r="N267" s="54"/>
       <c r="O267" s="54"/>
@@ -15129,15 +15839,15 @@
     <row r="268" spans="2:18" ht="39.75">
       <c r="B268" s="17"/>
       <c r="C268" s="6"/>
-      <c r="D268" s="60"/>
-      <c r="E268" s="60"/>
-      <c r="F268" s="60"/>
-      <c r="G268" s="60"/>
-      <c r="H268" s="60"/>
-      <c r="I268" s="60"/>
-      <c r="J268" s="60"/>
-      <c r="K268" s="60"/>
-      <c r="L268" s="60"/>
+      <c r="D268" s="65"/>
+      <c r="E268" s="65"/>
+      <c r="F268" s="65"/>
+      <c r="G268" s="65"/>
+      <c r="H268" s="65"/>
+      <c r="I268" s="65"/>
+      <c r="J268" s="65"/>
+      <c r="K268" s="65"/>
+      <c r="L268" s="65"/>
       <c r="M268" s="60"/>
       <c r="N268" s="60"/>
       <c r="O268" s="60"/>
@@ -15151,15 +15861,35 @@
         <v>67</v>
       </c>
       <c r="C269" s="6"/>
-      <c r="D269" s="61"/>
-      <c r="E269" s="61"/>
-      <c r="F269" s="61"/>
-      <c r="G269" s="61"/>
-      <c r="H269" s="61"/>
-      <c r="I269" s="61"/>
-      <c r="J269" s="61"/>
-      <c r="K269" s="61"/>
-      <c r="L269" s="61"/>
+      <c r="D269" s="61" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E269" s="61" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F269" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G269" s="61" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H269" s="61" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I269" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="J269" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="K269" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L269" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M269" s="61"/>
       <c r="N269" s="61"/>
       <c r="O269" s="61"/>
@@ -15189,15 +15919,15 @@
     <row r="271" spans="2:18">
       <c r="B271" s="12"/>
       <c r="C271" s="32"/>
-      <c r="D271" s="54"/>
-      <c r="E271" s="54"/>
-      <c r="F271" s="54"/>
-      <c r="G271" s="54"/>
-      <c r="H271" s="54"/>
-      <c r="I271" s="54"/>
-      <c r="J271" s="54"/>
-      <c r="K271" s="54"/>
-      <c r="L271" s="54"/>
+      <c r="D271" s="64"/>
+      <c r="E271" s="64"/>
+      <c r="F271" s="64"/>
+      <c r="G271" s="64"/>
+      <c r="H271" s="64"/>
+      <c r="I271" s="64"/>
+      <c r="J271" s="64"/>
+      <c r="K271" s="64"/>
+      <c r="L271" s="64"/>
       <c r="M271" s="54"/>
       <c r="N271" s="54"/>
       <c r="O271" s="54"/>
@@ -15208,15 +15938,15 @@
     <row r="272" spans="2:18" ht="39.75">
       <c r="B272" s="17"/>
       <c r="C272" s="6"/>
-      <c r="D272" s="60"/>
-      <c r="E272" s="60"/>
-      <c r="F272" s="60"/>
-      <c r="G272" s="60"/>
-      <c r="H272" s="60"/>
-      <c r="I272" s="60"/>
-      <c r="J272" s="60"/>
-      <c r="K272" s="60"/>
-      <c r="L272" s="60"/>
+      <c r="D272" s="65"/>
+      <c r="E272" s="65"/>
+      <c r="F272" s="65"/>
+      <c r="G272" s="65"/>
+      <c r="H272" s="65"/>
+      <c r="I272" s="65"/>
+      <c r="J272" s="65"/>
+      <c r="K272" s="65"/>
+      <c r="L272" s="65"/>
       <c r="M272" s="60"/>
       <c r="N272" s="60"/>
       <c r="O272" s="60"/>
@@ -15230,15 +15960,35 @@
         <v>68</v>
       </c>
       <c r="C273" s="6"/>
-      <c r="D273" s="61"/>
-      <c r="E273" s="61"/>
-      <c r="F273" s="61"/>
-      <c r="G273" s="61"/>
-      <c r="H273" s="61"/>
-      <c r="I273" s="61"/>
-      <c r="J273" s="61"/>
-      <c r="K273" s="61"/>
-      <c r="L273" s="61"/>
+      <c r="D273" s="61" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E273" s="61" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F273" s="61" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G273" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="H273" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" s="61" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J273" s="61" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K273" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L273" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M273" s="61"/>
       <c r="N273" s="61"/>
       <c r="O273" s="61"/>
@@ -15268,15 +16018,15 @@
     <row r="275" spans="2:18">
       <c r="B275" s="12"/>
       <c r="C275" s="32"/>
-      <c r="D275" s="54"/>
-      <c r="E275" s="54"/>
-      <c r="F275" s="54"/>
-      <c r="G275" s="54"/>
-      <c r="H275" s="54"/>
-      <c r="I275" s="54"/>
-      <c r="J275" s="54"/>
-      <c r="K275" s="54"/>
-      <c r="L275" s="54"/>
+      <c r="D275" s="64"/>
+      <c r="E275" s="64"/>
+      <c r="F275" s="64"/>
+      <c r="G275" s="64"/>
+      <c r="H275" s="64"/>
+      <c r="I275" s="64"/>
+      <c r="J275" s="64"/>
+      <c r="K275" s="64"/>
+      <c r="L275" s="64"/>
       <c r="M275" s="54"/>
       <c r="N275" s="54"/>
       <c r="O275" s="54"/>
@@ -15287,15 +16037,15 @@
     <row r="276" spans="2:18" ht="39.75">
       <c r="B276" s="17"/>
       <c r="C276" s="6"/>
-      <c r="D276" s="60"/>
-      <c r="E276" s="60"/>
-      <c r="F276" s="60"/>
-      <c r="G276" s="60"/>
-      <c r="H276" s="60"/>
-      <c r="I276" s="60"/>
-      <c r="J276" s="60"/>
-      <c r="K276" s="60"/>
-      <c r="L276" s="60"/>
+      <c r="D276" s="65"/>
+      <c r="E276" s="65"/>
+      <c r="F276" s="65"/>
+      <c r="G276" s="65"/>
+      <c r="H276" s="65"/>
+      <c r="I276" s="65"/>
+      <c r="J276" s="65"/>
+      <c r="K276" s="65"/>
+      <c r="L276" s="65"/>
       <c r="M276" s="60"/>
       <c r="N276" s="60"/>
       <c r="O276" s="60"/>
@@ -15309,15 +16059,35 @@
         <v>69</v>
       </c>
       <c r="C277" s="6"/>
-      <c r="D277" s="61"/>
-      <c r="E277" s="61"/>
-      <c r="F277" s="61"/>
-      <c r="G277" s="61"/>
-      <c r="H277" s="61"/>
-      <c r="I277" s="61"/>
-      <c r="J277" s="61"/>
-      <c r="K277" s="61"/>
-      <c r="L277" s="61"/>
+      <c r="D277" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E277" s="61" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F277" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="G277" s="61" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H277" s="61" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I277" s="61" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J277" s="61" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K277" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L277" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M277" s="61"/>
       <c r="N277" s="61"/>
       <c r="O277" s="61"/>
@@ -15347,15 +16117,15 @@
     <row r="279" spans="2:18">
       <c r="B279" s="12"/>
       <c r="C279" s="32"/>
-      <c r="D279" s="54"/>
-      <c r="E279" s="54"/>
-      <c r="F279" s="54"/>
-      <c r="G279" s="54"/>
-      <c r="H279" s="54"/>
-      <c r="I279" s="54"/>
-      <c r="J279" s="54"/>
-      <c r="K279" s="54"/>
-      <c r="L279" s="54"/>
+      <c r="D279" s="64"/>
+      <c r="E279" s="64"/>
+      <c r="F279" s="64"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="64"/>
+      <c r="I279" s="64"/>
+      <c r="J279" s="64"/>
+      <c r="K279" s="64"/>
+      <c r="L279" s="64"/>
       <c r="M279" s="54"/>
       <c r="N279" s="54"/>
       <c r="O279" s="54"/>
@@ -15366,15 +16136,15 @@
     <row r="280" spans="2:18" ht="39.75">
       <c r="B280" s="17"/>
       <c r="C280" s="6"/>
-      <c r="D280" s="60"/>
-      <c r="E280" s="60"/>
-      <c r="F280" s="60"/>
-      <c r="G280" s="60"/>
-      <c r="H280" s="60"/>
-      <c r="I280" s="60"/>
-      <c r="J280" s="60"/>
-      <c r="K280" s="60"/>
-      <c r="L280" s="60"/>
+      <c r="D280" s="65"/>
+      <c r="E280" s="65"/>
+      <c r="F280" s="65"/>
+      <c r="G280" s="65"/>
+      <c r="H280" s="65"/>
+      <c r="I280" s="65"/>
+      <c r="J280" s="65"/>
+      <c r="K280" s="65"/>
+      <c r="L280" s="65"/>
       <c r="M280" s="60"/>
       <c r="N280" s="60"/>
       <c r="O280" s="60"/>
@@ -15388,15 +16158,35 @@
         <v>70</v>
       </c>
       <c r="C281" s="6"/>
-      <c r="D281" s="61"/>
-      <c r="E281" s="61"/>
-      <c r="F281" s="61"/>
-      <c r="G281" s="61"/>
-      <c r="H281" s="61"/>
-      <c r="I281" s="61"/>
-      <c r="J281" s="61"/>
-      <c r="K281" s="61"/>
-      <c r="L281" s="61"/>
+      <c r="D281" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E281" s="61" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F281" s="61" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G281" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H281" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I281" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="J281" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="K281" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="L281" s="61" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="M281" s="61"/>
       <c r="N281" s="61"/>
       <c r="O281" s="61"/>
@@ -15426,14 +16216,14 @@
     <row r="283" spans="2:18">
       <c r="B283" s="12"/>
       <c r="C283" s="32"/>
-      <c r="D283" s="54"/>
-      <c r="E283" s="54"/>
-      <c r="F283" s="54"/>
-      <c r="G283" s="54"/>
-      <c r="H283" s="54"/>
-      <c r="I283" s="54"/>
-      <c r="J283" s="54"/>
-      <c r="K283" s="54"/>
+      <c r="D283" s="64"/>
+      <c r="E283" s="64"/>
+      <c r="F283" s="64"/>
+      <c r="G283" s="64"/>
+      <c r="H283" s="64"/>
+      <c r="I283" s="64"/>
+      <c r="J283" s="64"/>
+      <c r="K283" s="64"/>
       <c r="L283" s="54"/>
       <c r="M283" s="54"/>
       <c r="N283" s="54"/>
@@ -15445,14 +16235,14 @@
     <row r="284" spans="2:18" ht="39.75">
       <c r="B284" s="17"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="60"/>
-      <c r="E284" s="60"/>
-      <c r="F284" s="60"/>
-      <c r="G284" s="60"/>
-      <c r="H284" s="60"/>
-      <c r="I284" s="60"/>
-      <c r="J284" s="60"/>
-      <c r="K284" s="60"/>
+      <c r="D284" s="65"/>
+      <c r="E284" s="65"/>
+      <c r="F284" s="65"/>
+      <c r="G284" s="65"/>
+      <c r="H284" s="65"/>
+      <c r="I284" s="65"/>
+      <c r="J284" s="65"/>
+      <c r="K284" s="65"/>
       <c r="L284" s="60"/>
       <c r="M284" s="60"/>
       <c r="N284" s="60"/>
@@ -15467,15 +16257,33 @@
         <v>71</v>
       </c>
       <c r="C285" s="6"/>
-      <c r="D285" s="61"/>
-      <c r="E285" s="61"/>
-      <c r="F285" s="61"/>
-      <c r="G285" s="61"/>
-      <c r="H285" s="61"/>
-      <c r="I285" s="61"/>
-      <c r="J285" s="61"/>
-      <c r="K285" s="61"/>
-      <c r="L285" s="61"/>
+      <c r="D285" s="61" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E285" s="61" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F285" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G285" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="H285" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="I285" s="61" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J285" s="61" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K285" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L285" s="61" t="s">
+        <v>38</v>
+      </c>
       <c r="M285" s="61"/>
       <c r="N285" s="61"/>
       <c r="O285" s="61"/>

--- a/_working.xlsx
+++ b/_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FAE079-75C7-4EF0-B6DE-804D773824D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{534D189E-BDA6-4039-826C-341667CBDF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1168">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4008,399 +4008,12 @@
     <t>output7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>自余為僇人，居是州，恆惴慄。其隟也，則施施而行，漫漫而游。日與其徒上高山，入深林，窮迴谿，幽泉怪石，無遠不到。到則披草而坐，傾壺而醉，醉則更相枕以臥。臥而夢，意有所極，夢亦同趣。覺而起，起而歸，以為凡是州之山水有異態者，皆我有也，而未始知西山之怪特。
-今年九月二十八日，因坐法華西亭，望西山，始指異之。遂命僕人過湘江，緣染溪，斫榛莽，焚茅茷，窮山之高而止。攀援而登，箕踞而遨，則凡數州之土壤，皆在袵席之下。其高下之勢，岈然窪然，若垤若穴，尺寸千里。攢蹙累積，莫得遯隱。縈青繚白，外與天際，四望如一。然後知是山之特立，不與培塿為類。悠悠乎與顥氣俱，而莫得其涯，洋洋乎與造物者遊，而不知其所窮。引觴滿酌，頹然就醉，不知日之入。蒼然暮色，自遠而至，至無所見，而猶不欲歸。心凝形釋，與萬化冥合。然後知吾嚮之未始游，游於是乎始。故為之文以志。是歲，元和四年也。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>始得西山宴遊記</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自</t>
-  </si>
-  <si>
-    <t>余</t>
-  </si>
-  <si>
-    <t>僇</t>
-  </si>
-  <si>
-    <t>州</t>
-  </si>
-  <si>
-    <t>恆</t>
-  </si>
-  <si>
-    <t>惴</t>
-  </si>
-  <si>
-    <t>慄</t>
-  </si>
-  <si>
-    <t>隟</t>
-  </si>
-  <si>
-    <t>施</t>
-  </si>
-  <si>
-    <t>漫</t>
-  </si>
-  <si>
-    <t>徒</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>深</t>
-  </si>
-  <si>
-    <t>林</t>
-  </si>
-  <si>
-    <t>窮</t>
-  </si>
-  <si>
-    <t>迴</t>
-  </si>
-  <si>
-    <t>谿</t>
-  </si>
-  <si>
-    <t>幽</t>
-  </si>
-  <si>
-    <t>泉</t>
-  </si>
-  <si>
-    <t>怪</t>
-  </si>
-  <si>
-    <t>石</t>
-  </si>
-  <si>
-    <t>到</t>
-  </si>
-  <si>
-    <t>披</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>壺</t>
-  </si>
-  <si>
-    <t>醉</t>
-  </si>
-  <si>
-    <t>更</t>
-  </si>
-  <si>
-    <t>相</t>
-  </si>
-  <si>
-    <t>枕</t>
-  </si>
-  <si>
-    <t>臥</t>
-  </si>
-  <si>
-    <t>夢</t>
-  </si>
-  <si>
-    <t>意</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>同</t>
-  </si>
-  <si>
-    <t>趣</t>
-  </si>
-  <si>
-    <t>覺</t>
-  </si>
-  <si>
-    <t>起</t>
-  </si>
-  <si>
-    <t>凡</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>態</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>始</t>
-  </si>
-  <si>
-    <t>知</t>
-  </si>
-  <si>
-    <t>西</t>
-  </si>
-  <si>
-    <t>特</t>
-  </si>
-  <si>
-    <t>九</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>八</t>
-  </si>
-  <si>
-    <t>因</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>華</t>
-  </si>
-  <si>
-    <t>亭</t>
-  </si>
-  <si>
-    <t>望</t>
-  </si>
-  <si>
-    <t>指</t>
-  </si>
-  <si>
-    <t>遂</t>
-  </si>
-  <si>
-    <t>命</t>
-  </si>
-  <si>
-    <t>僕</t>
-  </si>
-  <si>
-    <t>過</t>
-  </si>
-  <si>
-    <t>緣</t>
-  </si>
-  <si>
-    <t>染</t>
-  </si>
-  <si>
-    <t>溪</t>
-  </si>
-  <si>
-    <t>斫</t>
-  </si>
-  <si>
-    <t>榛</t>
-  </si>
-  <si>
-    <t>莽</t>
-  </si>
-  <si>
-    <t>焚</t>
-  </si>
-  <si>
-    <t>茅</t>
-  </si>
-  <si>
-    <t>茷</t>
-  </si>
-  <si>
-    <t>止</t>
-  </si>
-  <si>
-    <t>攀</t>
-  </si>
-  <si>
-    <t>援</t>
-  </si>
-  <si>
-    <t>箕</t>
-  </si>
-  <si>
-    <t>踞</t>
-  </si>
-  <si>
-    <t>遨</t>
-  </si>
-  <si>
-    <t>數</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>壤</t>
-  </si>
-  <si>
-    <t>袵</t>
-  </si>
-  <si>
-    <t>席</t>
-  </si>
-  <si>
-    <t>勢</t>
-  </si>
-  <si>
-    <t>岈</t>
-  </si>
-  <si>
-    <t>窪</t>
-  </si>
-  <si>
-    <t>垤</t>
-  </si>
-  <si>
-    <t>穴</t>
-  </si>
-  <si>
-    <t>尺</t>
-  </si>
-  <si>
-    <t>寸</t>
-  </si>
-  <si>
-    <t>攢</t>
-  </si>
-  <si>
-    <t>蹙</t>
-  </si>
-  <si>
-    <t>累</t>
-  </si>
-  <si>
-    <t>積</t>
-  </si>
-  <si>
-    <t>莫</t>
-  </si>
-  <si>
-    <t>遯</t>
-  </si>
-  <si>
-    <t>縈</t>
-  </si>
-  <si>
-    <t>繚</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>外</t>
-  </si>
-  <si>
-    <t>如</t>
-  </si>
-  <si>
-    <t>立</t>
-  </si>
-  <si>
-    <t>培</t>
-  </si>
-  <si>
-    <t>塿</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>悠</t>
-  </si>
-  <si>
-    <t>顥</t>
-  </si>
-  <si>
-    <t>俱</t>
-  </si>
-  <si>
-    <t>造</t>
-  </si>
-  <si>
-    <t>遊</t>
-  </si>
-  <si>
-    <t>引</t>
-  </si>
-  <si>
-    <t>觴</t>
-  </si>
-  <si>
-    <t>酌</t>
-  </si>
-  <si>
-    <t>頹</t>
-  </si>
-  <si>
-    <t>就</t>
-  </si>
-  <si>
-    <t>蒼</t>
-  </si>
-  <si>
-    <t>色</t>
-  </si>
-  <si>
-    <t>見</t>
-  </si>
-  <si>
-    <t>猶</t>
-  </si>
-  <si>
-    <t>欲</t>
-  </si>
-  <si>
-    <t>凝</t>
-  </si>
-  <si>
-    <t>釋</t>
-  </si>
-  <si>
-    <t>化</t>
-  </si>
-  <si>
-    <t>合</t>
-  </si>
-  <si>
-    <t>嚮</t>
-  </si>
-  <si>
-    <t>故</t>
-  </si>
-  <si>
-    <t>志</t>
-  </si>
-  <si>
-    <t>歲</t>
-  </si>
-  <si>
-    <t>元</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4691,17 +4304,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FFFF9933"/>
-      <name val="Sitka Text Semibold"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4806,7 +4408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4997,13 +4599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7415,7 +7010,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -7466,9 +7061,7 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1169</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
@@ -7583,7 +7176,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="47">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7616,9 +7209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -7727,49 +7318,47 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="55" t="s">
-        <v>1168</v>
-      </c>
+      <c r="V3" s="55"/>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
       <c r="S4" s="18"/>
       <c r="V4" s="56"/>
     </row>
@@ -7777,51 +7366,21 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>1176</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>93</v>
-      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
       <c r="S5" s="20"/>
       <c r="V5" s="56"/>
     </row>
@@ -7849,41 +7408,41 @@
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
       <c r="S7" s="27"/>
       <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
       <c r="S8" s="18"/>
       <c r="V8" s="56"/>
     </row>
@@ -7892,51 +7451,21 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="N9" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="O9" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="P9" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q9" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
       <c r="V9" s="56"/>
@@ -7964,40 +7493,40 @@
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
       <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="18"/>
       <c r="V12" s="56"/>
     </row>
@@ -8006,51 +7535,21 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M13" s="61" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N13" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>1184</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>1185</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>1186</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
       <c r="S13" s="20"/>
       <c r="V13" s="56"/>
     </row>
@@ -8077,40 +7576,40 @@
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
       <c r="S16" s="18"/>
       <c r="V16" s="56"/>
     </row>
@@ -8119,51 +7618,21 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M17" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>1191</v>
-      </c>
-      <c r="O17" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="P17" s="61" t="s">
-        <v>1192</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>1193</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>210</v>
-      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="20"/>
       <c r="V17" s="56"/>
     </row>
@@ -8190,40 +7659,40 @@
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
       <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
       <c r="S20" s="18"/>
       <c r="V20" s="56"/>
     </row>
@@ -8232,51 +7701,21 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="61" t="s">
-        <v>1197</v>
-      </c>
-      <c r="N21" s="61" t="s">
-        <v>1198</v>
-      </c>
-      <c r="O21" s="61" t="s">
-        <v>1199</v>
-      </c>
-      <c r="P21" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="61" t="s">
-        <v>1200</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>30</v>
-      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
       <c r="S21" s="20"/>
       <c r="V21" s="56"/>
     </row>
@@ -8303,40 +7742,40 @@
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
       <c r="S24" s="18"/>
       <c r="V24" s="56"/>
     </row>
@@ -8345,51 +7784,21 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="61" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="61" t="s">
-        <v>1201</v>
-      </c>
-      <c r="N25" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="O25" s="61" t="s">
-        <v>1204</v>
-      </c>
-      <c r="P25" s="61" t="s">
-        <v>1205</v>
-      </c>
-      <c r="Q25" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>1206</v>
-      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
       <c r="S25" s="20"/>
       <c r="V25" s="56"/>
     </row>
@@ -8416,21 +7825,21 @@
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
       <c r="U27" s="33" t="str">
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
@@ -8439,21 +7848,21 @@
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
       <c r="S28" s="18"/>
       <c r="U28" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8466,51 +7875,21 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="J29" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>1173</v>
-      </c>
-      <c r="P29" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q29" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>1209</v>
-      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
       <c r="S29" s="20"/>
       <c r="U29" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8545,21 +7924,21 @@
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -8568,21 +7947,21 @@
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8595,51 +7974,21 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="O33" s="61" t="s">
-        <v>1212</v>
-      </c>
-      <c r="P33" s="61" t="s">
-        <v>1213</v>
-      </c>
-      <c r="Q33" s="61" t="s">
-        <v>1214</v>
-      </c>
-      <c r="R33" s="61" t="s">
-        <v>1215</v>
-      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
       <c r="S33" s="20"/>
       <c r="V33" s="56"/>
     </row>
@@ -8666,12 +8015,12 @@
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="54"/>
       <c r="K35" s="54"/>
       <c r="L35" s="54"/>
@@ -8685,12 +8034,12 @@
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="60"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
@@ -8708,26 +8057,12 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
@@ -8763,7 +8098,7 @@
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="64"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -8782,7 +8117,7 @@
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="65"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
@@ -8805,11 +8140,7 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="61" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D41" s="61"/>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
       <c r="G41" s="61"/>
@@ -8850,40 +8181,40 @@
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
       <c r="V43" s="56"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
       <c r="S44" s="18"/>
       <c r="V44" s="56"/>
     </row>
@@ -8892,51 +8223,21 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J45" s="61" t="s">
-        <v>1219</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="61" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N45" s="61" t="s">
-        <v>1194</v>
-      </c>
-      <c r="O45" s="61" t="s">
-        <v>1221</v>
-      </c>
-      <c r="P45" s="61" t="s">
-        <v>1222</v>
-      </c>
-      <c r="Q45" s="61" t="s">
-        <v>1215</v>
-      </c>
-      <c r="R45" s="61" t="s">
-        <v>1223</v>
-      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
       <c r="S45" s="20"/>
       <c r="V45" s="56"/>
     </row>
@@ -8963,40 +8264,40 @@
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
       <c r="V47" s="56"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
       <c r="S48" s="18"/>
       <c r="V48" s="56"/>
     </row>
@@ -9005,51 +8306,21 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J49" s="61" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="M49" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>1226</v>
-      </c>
-      <c r="O49" s="61" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P49" s="61" t="s">
-        <v>1228</v>
-      </c>
-      <c r="Q49" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>1229</v>
-      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
       <c r="S49" s="20"/>
       <c r="V49" s="56"/>
     </row>
@@ -9076,40 +8347,40 @@
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
       <c r="V51" s="56"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
       <c r="S52" s="18"/>
       <c r="V52" s="56"/>
     </row>
@@ -9118,51 +8389,21 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J53" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="61" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L53" s="61" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M53" s="61" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N53" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="O53" s="61" t="s">
-        <v>1236</v>
-      </c>
-      <c r="P53" s="61" t="s">
-        <v>1237</v>
-      </c>
-      <c r="Q53" s="61" t="s">
-        <v>1238</v>
-      </c>
-      <c r="R53" s="61" t="s">
-        <v>23</v>
-      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
       <c r="S53" s="20"/>
       <c r="V53" s="56"/>
     </row>
@@ -9189,40 +8430,40 @@
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
       <c r="V55" s="56"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="65"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
       <c r="S56" s="18"/>
       <c r="V56" s="56"/>
     </row>
@@ -9231,51 +8472,21 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="61" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>1239</v>
-      </c>
-      <c r="J57" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>1240</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>1241</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="N57" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="O57" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P57" s="61" t="s">
-        <v>1242</v>
-      </c>
-      <c r="Q57" s="61" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R57" s="61" t="s">
-        <v>210</v>
-      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
       <c r="S57" s="20"/>
       <c r="V57" s="56"/>
     </row>
@@ -9302,40 +8513,40 @@
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
       <c r="V59" s="56"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
       <c r="S60" s="18"/>
       <c r="V60" s="56"/>
     </row>
@@ -9344,51 +8555,21 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="61" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" s="61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>1173</v>
-      </c>
-      <c r="J61" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="K61" s="61" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L61" s="61" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M61" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N61" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="O61" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="P61" s="61" t="s">
-        <v>1248</v>
-      </c>
-      <c r="Q61" s="61" t="s">
-        <v>1249</v>
-      </c>
-      <c r="R61" s="61" t="s">
-        <v>108</v>
-      </c>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
       <c r="S61" s="20"/>
       <c r="V61" s="56"/>
     </row>
@@ -9415,40 +8596,40 @@
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="64"/>
-      <c r="R63" s="64"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
       <c r="V63" s="56"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
       <c r="S64" s="18"/>
       <c r="V64" s="56"/>
     </row>
@@ -9457,51 +8638,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="J65" s="61" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L65" s="61" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M65" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="N65" s="61" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O65" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="P65" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q65" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="R65" s="61" t="s">
-        <v>1253</v>
-      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
       <c r="S65" s="20"/>
       <c r="V65" s="56"/>
     </row>
@@ -9528,40 +8679,40 @@
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="64"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
       <c r="V67" s="56"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="60"/>
+      <c r="O68" s="60"/>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="60"/>
       <c r="S68" s="18"/>
       <c r="V68" s="56"/>
     </row>
@@ -9570,51 +8721,21 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F69" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="61" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H69" s="61" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J69" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="K69" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" s="61" t="s">
-        <v>1257</v>
-      </c>
-      <c r="M69" s="61" t="s">
-        <v>1258</v>
-      </c>
-      <c r="N69" s="61" t="s">
-        <v>1259</v>
-      </c>
-      <c r="O69" s="61" t="s">
-        <v>1260</v>
-      </c>
-      <c r="P69" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q69" s="61" t="s">
-        <v>1261</v>
-      </c>
-      <c r="R69" s="61" t="s">
-        <v>158</v>
-      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
       <c r="S69" s="20"/>
       <c r="V69" s="56"/>
     </row>
@@ -9641,40 +8762,40 @@
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="64"/>
-      <c r="R71" s="64"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="54"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="54"/>
       <c r="V71" s="56"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="65"/>
-      <c r="O72" s="65"/>
-      <c r="P72" s="65"/>
-      <c r="Q72" s="65"/>
-      <c r="R72" s="65"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
       <c r="S72" s="18"/>
       <c r="V72" s="56"/>
     </row>
@@ -9683,51 +8804,21 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="61" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" s="61" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J73" s="61" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K73" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="L73" s="61" t="s">
-        <v>1266</v>
-      </c>
-      <c r="M73" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="N73" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="O73" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="P73" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q73" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="R73" s="61" t="s">
-        <v>1224</v>
-      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
       <c r="S73" s="20"/>
       <c r="V73" s="56"/>
     </row>
@@ -9754,40 +8845,40 @@
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="64"/>
-      <c r="R75" s="64"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
       <c r="V75" s="56"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="65"/>
-      <c r="O76" s="65"/>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
-      <c r="R76" s="65"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="60"/>
+      <c r="R76" s="60"/>
       <c r="S76" s="18"/>
       <c r="V76" s="56"/>
     </row>
@@ -9796,51 +8887,21 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="61" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E77" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H77" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="I77" s="61" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J77" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="K77" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="L77" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="M77" s="61" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N77" s="61" t="s">
-        <v>1268</v>
-      </c>
-      <c r="O77" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P77" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q77" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="R77" s="61" t="s">
-        <v>1269</v>
-      </c>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
       <c r="S77" s="20"/>
       <c r="V77" s="56"/>
     </row>
@@ -9867,40 +8928,40 @@
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
       <c r="C79" s="32"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="64"/>
-      <c r="L79" s="64"/>
-      <c r="M79" s="64"/>
-      <c r="N79" s="64"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
-      <c r="R79" s="64"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
       <c r="V79" s="56"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="65"/>
-      <c r="O80" s="65"/>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="65"/>
-      <c r="R80" s="65"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
       <c r="S80" s="18"/>
       <c r="V80" s="56"/>
     </row>
@@ -9909,51 +8970,21 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="61" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="F81" s="61" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G81" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I81" s="61" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J81" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="K81" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" s="61" t="s">
-        <v>1273</v>
-      </c>
-      <c r="M81" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="N81" s="61" t="s">
-        <v>1274</v>
-      </c>
-      <c r="O81" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P81" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q81" s="61" t="s">
-        <v>1261</v>
-      </c>
-      <c r="R81" s="61" t="s">
-        <v>158</v>
-      </c>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
       <c r="S81" s="20"/>
       <c r="V81" s="56"/>
     </row>
@@ -9980,40 +9011,40 @@
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
       <c r="C83" s="32"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
-      <c r="R83" s="64"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="54"/>
       <c r="V83" s="34"/>
     </row>
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
-      <c r="O84" s="65"/>
-      <c r="P84" s="65"/>
-      <c r="Q84" s="65"/>
-      <c r="R84" s="65"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
       <c r="S84" s="18"/>
       <c r="V84" s="7"/>
     </row>
@@ -10022,51 +9053,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="F85" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="H85" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="J85" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="K85" s="61" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L85" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="M85" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="N85" s="61" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O85" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="P85" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q85" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="R85" s="61" t="s">
-        <v>1214</v>
-      </c>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
       <c r="S85" s="20"/>
       <c r="V85" s="7"/>
     </row>
@@ -10093,40 +9094,40 @@
     <row r="87" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="12"/>
       <c r="C87" s="32"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
-      <c r="N87" s="64"/>
-      <c r="O87" s="64"/>
-      <c r="P87" s="64"/>
-      <c r="Q87" s="64"/>
-      <c r="R87" s="64"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+      <c r="R87" s="54"/>
       <c r="V87" s="34"/>
     </row>
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="65"/>
-      <c r="P88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="R88" s="65"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
       <c r="S88" s="18"/>
       <c r="V88" s="7"/>
     </row>
@@ -10135,51 +9136,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="61" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G89" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" s="61" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I89" s="61" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J89" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="K89" s="61" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L89" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M89" s="61" t="s">
-        <v>1280</v>
-      </c>
-      <c r="N89" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="O89" s="61" t="s">
-        <v>1281</v>
-      </c>
-      <c r="P89" s="61" t="s">
-        <v>1196</v>
-      </c>
-      <c r="Q89" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="R89" s="61" t="s">
-        <v>168</v>
-      </c>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
       <c r="S89" s="20"/>
       <c r="V89" s="7"/>
     </row>
@@ -10206,40 +9177,40 @@
     <row r="91" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="12"/>
       <c r="C91" s="32"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
-      <c r="O91" s="64"/>
-      <c r="P91" s="64"/>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="64"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
+      <c r="Q91" s="54"/>
+      <c r="R91" s="54"/>
       <c r="V91" s="34"/>
     </row>
     <row r="92" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="17"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="65"/>
-      <c r="M92" s="65"/>
-      <c r="N92" s="65"/>
-      <c r="O92" s="65"/>
-      <c r="P92" s="65"/>
-      <c r="Q92" s="65"/>
-      <c r="R92" s="65"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
       <c r="S92" s="18"/>
       <c r="V92" s="7"/>
     </row>
@@ -10248,51 +9219,21 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="61" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H93" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I93" s="61" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J93" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="K93" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="L93" s="61" t="s">
-        <v>1283</v>
-      </c>
-      <c r="M93" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N93" s="61" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O93" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="P93" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q93" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="R93" s="61" t="s">
-        <v>23</v>
-      </c>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="61"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
+      <c r="N93" s="61"/>
+      <c r="O93" s="61"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="61"/>
+      <c r="R93" s="61"/>
       <c r="S93" s="20"/>
       <c r="V93" s="7"/>
     </row>
@@ -10319,40 +9260,40 @@
     <row r="95" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="32"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="64"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54"/>
       <c r="V95" s="34"/>
     </row>
     <row r="96" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="17"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="60"/>
+      <c r="N96" s="60"/>
+      <c r="O96" s="60"/>
+      <c r="P96" s="60"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="60"/>
       <c r="S96" s="18"/>
       <c r="V96" s="7"/>
     </row>
@@ -10361,51 +9302,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F97" s="61" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G97" s="61" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H97" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I97" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="J97" s="61" t="s">
-        <v>1285</v>
-      </c>
-      <c r="K97" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="L97" s="61" t="s">
-        <v>1286</v>
-      </c>
-      <c r="M97" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="N97" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="O97" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="P97" s="61" t="s">
-        <v>1287</v>
-      </c>
-      <c r="Q97" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="R97" s="61" t="s">
-        <v>1288</v>
-      </c>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="61"/>
+      <c r="Q97" s="61"/>
+      <c r="R97" s="61"/>
       <c r="S97" s="20"/>
       <c r="V97" s="7"/>
     </row>
@@ -10432,40 +9343,40 @@
     <row r="99" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="12"/>
       <c r="C99" s="32"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="64"/>
-      <c r="Q99" s="64"/>
-      <c r="R99" s="64"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54"/>
       <c r="V99" s="34"/>
     </row>
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
-      <c r="P100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="R100" s="65"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="60"/>
+      <c r="Q100" s="60"/>
+      <c r="R100" s="60"/>
       <c r="S100" s="18"/>
       <c r="V100" s="7"/>
     </row>
@@ -10474,51 +9385,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" s="61" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H101" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="I101" s="61" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J101" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="K101" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="L101" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="M101" s="61" t="s">
-        <v>1214</v>
-      </c>
-      <c r="N101" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="O101" s="61" t="s">
-        <v>1291</v>
-      </c>
-      <c r="P101" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q101" s="61" t="s">
-        <v>1212</v>
-      </c>
-      <c r="R101" s="61" t="s">
-        <v>1213</v>
-      </c>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="61"/>
       <c r="S101" s="20"/>
       <c r="V101" s="7"/>
     </row>
@@ -10545,40 +9426,40 @@
     <row r="103" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="12"/>
       <c r="C103" s="32"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="64"/>
-      <c r="P103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="64"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="54"/>
       <c r="V103" s="34"/>
     </row>
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="65"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="65"/>
-      <c r="O104" s="65"/>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="65"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
+      <c r="P104" s="60"/>
+      <c r="Q104" s="60"/>
+      <c r="R104" s="60"/>
       <c r="S104" s="18"/>
       <c r="V104" s="7"/>
     </row>
@@ -10587,51 +9468,21 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="G105" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H105" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I105" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="J105" s="61" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K105" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L105" s="61" t="s">
-        <v>1292</v>
-      </c>
-      <c r="M105" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="N105" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="O105" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="P105" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q105" s="61" t="s">
-        <v>1293</v>
-      </c>
-      <c r="R105" s="61" t="s">
-        <v>30</v>
-      </c>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="61"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
+      <c r="N105" s="61"/>
+      <c r="O105" s="61"/>
+      <c r="P105" s="61"/>
+      <c r="Q105" s="61"/>
+      <c r="R105" s="61"/>
       <c r="S105" s="20"/>
       <c r="V105" s="7"/>
     </row>
@@ -10658,15 +9509,15 @@
     <row r="107" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="12"/>
       <c r="C107" s="32"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
       <c r="M107" s="54"/>
       <c r="N107" s="54"/>
       <c r="O107" s="54"/>
@@ -10677,15 +9528,15 @@
     </row>
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
-      <c r="L108" s="65"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="60"/>
       <c r="M108" s="60"/>
       <c r="N108" s="60"/>
       <c r="O108" s="60"/>
@@ -10700,36 +9551,16 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="61" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F109" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" s="61" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H109" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="I109" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="J109" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="K109" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="L109" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="61" t="s">
-        <v>38</v>
-      </c>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
       <c r="N109" s="61"/>
       <c r="O109" s="61"/>
       <c r="P109" s="61"/>

--- a/_working.xlsx
+++ b/_working.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8434AA0A-A91D-464F-A53C-F967EE48583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B0F50-D722-4A17-95D5-70317B1F6257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="3450" windowWidth="33300" windowHeight="12270" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId3"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId4"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
+    <sheet name="標音字庫" sheetId="127" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="126" r:id="rId3"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId4"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId5"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId6"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1304">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3990,16 +3992,10 @@
     <t>河洛話</t>
   </si>
   <si>
-    <t>閩拼調號</t>
-  </si>
-  <si>
     <t>無預設</t>
   </si>
   <si>
     <t>上及右</t>
-  </si>
-  <si>
-    <t>雅俗通</t>
   </si>
   <si>
     <t>方音符號</t>
@@ -4011,6 +4007,468 @@
   <si>
     <t>_working</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒹</t>
+  </si>
+  <si>
+    <t>葭</t>
+  </si>
+  <si>
+    <t>蒼</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>露</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>謂</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>溯</t>
+  </si>
+  <si>
+    <t>洄</t>
+  </si>
+  <si>
+    <t>從</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>阻</t>
+  </si>
+  <si>
+    <t>且</t>
+  </si>
+  <si>
+    <t>宛</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>央</t>
+  </si>
+  <si>
+    <t>萋</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>晞</t>
+  </si>
+  <si>
+    <t>湄</t>
+  </si>
+  <si>
+    <t>躋</t>
+  </si>
+  <si>
+    <t>坻</t>
+  </si>
+  <si>
+    <t>采</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>涘</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>沚</t>
+  </si>
+  <si>
+    <t>kiam1</t>
+  </si>
+  <si>
+    <t>(5, 5); (9, 4); (25, 4); (41, 4)</t>
+  </si>
+  <si>
+    <t>ka1</t>
+  </si>
+  <si>
+    <t>(5, 6); (9, 5); (25, 5); (41, 5)</t>
+  </si>
+  <si>
+    <t>cong1</t>
+  </si>
+  <si>
+    <t>(9, 6); (9, 7)</t>
+  </si>
+  <si>
+    <t>pik8</t>
+  </si>
+  <si>
+    <t>(9, 9); (25, 9); (41, 9)</t>
+  </si>
+  <si>
+    <t>loo7</t>
+  </si>
+  <si>
+    <t>(9, 10); (25, 10); (41, 10)</t>
+  </si>
+  <si>
+    <t>(9, 11)</t>
+  </si>
+  <si>
+    <t>song1</t>
+  </si>
+  <si>
+    <t>(9, 12)</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>(9, 14); (25, 14); (41, 14)</t>
+  </si>
+  <si>
+    <t>ui7</t>
+  </si>
+  <si>
+    <t>(9, 15); (25, 15); (41, 15)</t>
+  </si>
+  <si>
+    <t>(9, 16); (25, 16); (41, 16)</t>
+  </si>
+  <si>
+    <t>(9, 17); (25, 17); (41, 17)</t>
+  </si>
+  <si>
+    <t>(13, 4); (21, 5); (29, 4); (37, 5); (45, 4); (53, 5)</t>
+  </si>
+  <si>
+    <t>sui2</t>
+  </si>
+  <si>
+    <t>(13, 5); (21, 6); (29, 5); (37, 6); (45, 5); (53, 6)</t>
+  </si>
+  <si>
+    <t>(13, 6)</t>
+  </si>
+  <si>
+    <t>(13, 7)</t>
+  </si>
+  <si>
+    <t>soo3</t>
+  </si>
+  <si>
+    <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
+  </si>
+  <si>
+    <t>hue5</t>
+  </si>
+  <si>
+    <t>(17, 5); (33, 5); (49, 5)</t>
+  </si>
+  <si>
+    <t>ziong5</t>
+  </si>
+  <si>
+    <t>(17, 6); (17, 16); (33, 6); (33, 16); (49, 6); (49, 16)</t>
+  </si>
+  <si>
+    <t>(17, 7); (17, 17); (29, 6); (33, 7); (33, 17); (45, 6); (49, 7); (49, 17)</t>
+  </si>
+  <si>
+    <t>to7</t>
+  </si>
+  <si>
+    <t>(17, 9); (33, 9); (49, 9)</t>
+  </si>
+  <si>
+    <t>zoo2</t>
+  </si>
+  <si>
+    <t>(17, 10); (33, 10); (49, 10)</t>
+  </si>
+  <si>
+    <t>cia2</t>
+  </si>
+  <si>
+    <t>(17, 11); (33, 11); (49, 11)</t>
+  </si>
+  <si>
+    <t>(17, 12)</t>
+  </si>
+  <si>
+    <t>(17, 15); (33, 15); (49, 15)</t>
+  </si>
+  <si>
+    <t>(21, 4); (37, 4); (53, 4)</t>
+  </si>
+  <si>
+    <t>(21, 7); (37, 7); (53, 7)</t>
+  </si>
+  <si>
+    <t>iang1</t>
+  </si>
+  <si>
+    <t>(21, 8)</t>
+  </si>
+  <si>
+    <t>ce1</t>
+  </si>
+  <si>
+    <t>(25, 6); (25, 7)</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>(25, 11); (41, 11)</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>(25, 12)</t>
+  </si>
+  <si>
+    <t>(29, 7)</t>
+  </si>
+  <si>
+    <t>ze1</t>
+  </si>
+  <si>
+    <t>(33, 12)</t>
+  </si>
+  <si>
+    <t>ti5</t>
+  </si>
+  <si>
+    <t>cai2</t>
+  </si>
+  <si>
+    <t>(41, 6); (41, 7)</t>
+  </si>
+  <si>
+    <t>(41, 12)</t>
+  </si>
+  <si>
+    <t>zi7</t>
+  </si>
+  <si>
+    <t>iu7</t>
+  </si>
+  <si>
+    <t>(49, 12)</t>
+  </si>
+  <si>
+    <t>(53, 8)</t>
+  </si>
+  <si>
+    <t>《</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">《蒹葭》
+蒹葭蒼蒼，白露為霜。所謂伊人，在水一方。
+溯洄從之，道阻且長。溯游從之，宛在水中央。
+蒹葭萋萋，白露未晞。所謂伊人，在水之湄。
+溯洄從之，道阻且躋。溯游從之，宛在水中坻。
+蒹葭采采，白露未已。所謂伊人，在水之涘。
+溯洄從之，道阻且右。溯游從之，宛在水中沚。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giam1</t>
+  </si>
+  <si>
+    <t>注音二式</t>
   </si>
 </sst>
 </file>
@@ -6336,7 +6794,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6388,7 +6846,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6403,7 +6861,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30">
@@ -6462,7 +6920,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1162</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -6470,7 +6928,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -6478,7 +6936,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -6486,7 +6944,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1165</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -6494,7 +6952,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -6507,24 +6965,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{E6D0CEF8-433B-44D1-9BB1-92BE13C5E787}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{181EC47F-BD50-496D-9FB6-B68AC17D2C52}">
       <formula1>"預設,上,右,上及右"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{E63DE152-850D-4D55-8A6C-02770A085720}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{1F35AB50-12AD-4F19-AAD4-E002BAE33D83}">
       <formula1>"無預設, SNI, TPS, POJ, TL, BP, TLPA_Plus, DBL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{8B26464C-8D45-4DAB-8CD3-133D8E6DA72D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{CC5BE891-DC6E-4CE0-849C-D2F4C535EA60}">
       <formula1>"河洛話, 廣韻"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{96E7211F-3F66-4AE2-B2C7-9A12D8C2B02A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{671644A1-6EE8-4193-9CDC-8429DBBCBB7B}">
       <formula1>"白話音, 文讀音"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{DA27CAB0-65C9-4E40-AD59-F7B4693C00B1}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C18:C19 C15" xr:uid="{D5D3E041-FB0A-4D86-8833-54CE1BCA04EC}">
-      <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{9036E4CE-0D75-4AA4-9326-6306F3475A3B}">
+      <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6532,14 +6990,602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE4E44B-A620-4DFC-9771-90F21C4D1E29}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B39" t="s">
+        <v>440</v>
+      </c>
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF0CF93-BFFC-4638-B1F2-727239F203D6}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D1979" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1999" sqref="V1999"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -6649,7 +7695,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -6671,12 +7717,16 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54"/>
+      <c r="V3" s="54" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="E4" s="50" t="s">
+        <v>1198</v>
+      </c>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -6697,11 +7747,23 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="D5" s="39" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H5" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -6719,7 +7781,9 @@
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="51" t="s">
+        <v>1302</v>
+      </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -6782,21 +7846,51 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
+      <c r="D9" s="39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>1266</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>1263</v>
+      </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
       <c r="V9" s="55"/>
@@ -6866,12 +7960,26 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="D13" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I13" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -6949,21 +8057,51 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
+      <c r="D17" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>1263</v>
+      </c>
       <c r="S17" s="20"/>
       <c r="V17" s="55"/>
     </row>
@@ -7032,13 +8170,29 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J21" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
@@ -7115,21 +8269,51 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
+      <c r="D25" s="39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>1263</v>
+      </c>
       <c r="S25" s="20"/>
       <c r="V25" s="55"/>
     </row>
@@ -7206,12 +8390,26 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="D29" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I29" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
@@ -7305,21 +8503,51 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
+      <c r="D33" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>1263</v>
+      </c>
       <c r="S33" s="20"/>
       <c r="V33" s="55"/>
     </row>
@@ -7388,13 +8616,29 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
+      <c r="D37" s="39" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J37" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
@@ -7471,21 +8715,51 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
+      <c r="D41" s="39" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>1290</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>1272</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>1263</v>
+      </c>
       <c r="S41" s="20"/>
       <c r="V41" s="55"/>
     </row>
@@ -7554,12 +8828,26 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="D45" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I45" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
@@ -7637,21 +8925,51 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
+      <c r="D49" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>1280</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>1263</v>
+      </c>
       <c r="S49" s="20"/>
       <c r="V49" s="55"/>
     </row>
@@ -7720,13 +9038,29 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+      <c r="D53" s="39" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J53" s="39" t="str">
+        <f>CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
@@ -7803,7 +9137,9 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39" t="s">
+        <v>1301</v>
+      </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -46422,7 +47758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -46591,7 +47927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -50654,7 +51990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>

--- a/_working.xlsx
+++ b/_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B0F50-D722-4A17-95D5-70317B1F6257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E6D0A-959E-4BA5-8819-980E878A9BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1169">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4006,447 +4006,6 @@
   </si>
   <si>
     <t>_working</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒹</t>
-  </si>
-  <si>
-    <t>葭</t>
-  </si>
-  <si>
-    <t>蒼</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>露</t>
-  </si>
-  <si>
-    <t>霜</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>謂</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>溯</t>
-  </si>
-  <si>
-    <t>洄</t>
-  </si>
-  <si>
-    <t>從</t>
-  </si>
-  <si>
-    <t>道</t>
-  </si>
-  <si>
-    <t>阻</t>
-  </si>
-  <si>
-    <t>且</t>
-  </si>
-  <si>
-    <t>宛</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>央</t>
-  </si>
-  <si>
-    <t>萋</t>
-  </si>
-  <si>
-    <t>未</t>
-  </si>
-  <si>
-    <t>晞</t>
-  </si>
-  <si>
-    <t>湄</t>
-  </si>
-  <si>
-    <t>躋</t>
-  </si>
-  <si>
-    <t>坻</t>
-  </si>
-  <si>
-    <t>采</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>涘</t>
-  </si>
-  <si>
-    <t>右</t>
-  </si>
-  <si>
-    <t>沚</t>
-  </si>
-  <si>
-    <t>kiam1</t>
-  </si>
-  <si>
-    <t>(5, 5); (9, 4); (25, 4); (41, 4)</t>
-  </si>
-  <si>
-    <t>ka1</t>
-  </si>
-  <si>
-    <t>(5, 6); (9, 5); (25, 5); (41, 5)</t>
-  </si>
-  <si>
-    <t>cong1</t>
-  </si>
-  <si>
-    <t>(9, 6); (9, 7)</t>
-  </si>
-  <si>
-    <t>pik8</t>
-  </si>
-  <si>
-    <t>(9, 9); (25, 9); (41, 9)</t>
-  </si>
-  <si>
-    <t>loo7</t>
-  </si>
-  <si>
-    <t>(9, 10); (25, 10); (41, 10)</t>
-  </si>
-  <si>
-    <t>(9, 11)</t>
-  </si>
-  <si>
-    <t>song1</t>
-  </si>
-  <si>
-    <t>(9, 12)</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>(9, 14); (25, 14); (41, 14)</t>
-  </si>
-  <si>
-    <t>ui7</t>
-  </si>
-  <si>
-    <t>(9, 15); (25, 15); (41, 15)</t>
-  </si>
-  <si>
-    <t>(9, 16); (25, 16); (41, 16)</t>
-  </si>
-  <si>
-    <t>(9, 17); (25, 17); (41, 17)</t>
-  </si>
-  <si>
-    <t>(13, 4); (21, 5); (29, 4); (37, 5); (45, 4); (53, 5)</t>
-  </si>
-  <si>
-    <t>sui2</t>
-  </si>
-  <si>
-    <t>(13, 5); (21, 6); (29, 5); (37, 6); (45, 5); (53, 6)</t>
-  </si>
-  <si>
-    <t>(13, 6)</t>
-  </si>
-  <si>
-    <t>(13, 7)</t>
-  </si>
-  <si>
-    <t>soo3</t>
-  </si>
-  <si>
-    <t>(17, 4); (17, 14); (33, 4); (33, 14); (49, 4); (49, 14)</t>
-  </si>
-  <si>
-    <t>hue5</t>
-  </si>
-  <si>
-    <t>(17, 5); (33, 5); (49, 5)</t>
-  </si>
-  <si>
-    <t>ziong5</t>
-  </si>
-  <si>
-    <t>(17, 6); (17, 16); (33, 6); (33, 16); (49, 6); (49, 16)</t>
-  </si>
-  <si>
-    <t>(17, 7); (17, 17); (29, 6); (33, 7); (33, 17); (45, 6); (49, 7); (49, 17)</t>
-  </si>
-  <si>
-    <t>to7</t>
-  </si>
-  <si>
-    <t>(17, 9); (33, 9); (49, 9)</t>
-  </si>
-  <si>
-    <t>zoo2</t>
-  </si>
-  <si>
-    <t>(17, 10); (33, 10); (49, 10)</t>
-  </si>
-  <si>
-    <t>cia2</t>
-  </si>
-  <si>
-    <t>(17, 11); (33, 11); (49, 11)</t>
-  </si>
-  <si>
-    <t>(17, 12)</t>
-  </si>
-  <si>
-    <t>(17, 15); (33, 15); (49, 15)</t>
-  </si>
-  <si>
-    <t>(21, 4); (37, 4); (53, 4)</t>
-  </si>
-  <si>
-    <t>(21, 7); (37, 7); (53, 7)</t>
-  </si>
-  <si>
-    <t>iang1</t>
-  </si>
-  <si>
-    <t>(21, 8)</t>
-  </si>
-  <si>
-    <t>ce1</t>
-  </si>
-  <si>
-    <t>(25, 6); (25, 7)</t>
-  </si>
-  <si>
-    <t>bi7</t>
-  </si>
-  <si>
-    <t>(25, 11); (41, 11)</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>(25, 12)</t>
-  </si>
-  <si>
-    <t>(29, 7)</t>
-  </si>
-  <si>
-    <t>ze1</t>
-  </si>
-  <si>
-    <t>(33, 12)</t>
-  </si>
-  <si>
-    <t>ti5</t>
-  </si>
-  <si>
-    <t>cai2</t>
-  </si>
-  <si>
-    <t>(41, 6); (41, 7)</t>
-  </si>
-  <si>
-    <t>(41, 12)</t>
-  </si>
-  <si>
-    <t>zi7</t>
-  </si>
-  <si>
-    <t>iu7</t>
-  </si>
-  <si>
-    <t>(49, 12)</t>
-  </si>
-  <si>
-    <t>(53, 8)</t>
-  </si>
-  <si>
-    <t>《</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>謂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>從</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>且</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>央</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4459,13 +4018,6 @@
 溯洄從之，道阻且右。溯游從之，宛在水中沚。
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>φ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giam1</t>
   </si>
   <si>
     <t>注音二式</t>
@@ -6793,7 +6345,7 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6920,7 +6472,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1303</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -6944,7 +6496,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1303</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -6991,9 +6543,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE4E44B-A620-4DFC-9771-90F21C4D1E29}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -7009,538 +6563,6 @@
       </c>
       <c r="D1" t="s">
         <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C10" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C15" t="s">
-        <v>499</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C17" t="s">
-        <v>499</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C18" t="s">
-        <v>499</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C21" t="s">
-        <v>499</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" t="s">
-        <v>499</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B25" t="s">
-        <v>437</v>
-      </c>
-      <c r="C25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" t="s">
-        <v>499</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C28" t="s">
-        <v>499</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C29" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C30" t="s">
-        <v>499</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C31" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C34" t="s">
-        <v>499</v>
-      </c>
-      <c r="D34" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C35" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" t="s">
-        <v>499</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C37" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C38" t="s">
-        <v>499</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B39" t="s">
-        <v>440</v>
-      </c>
-      <c r="C39" t="s">
-        <v>499</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -7581,11 +6603,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7615,66 +6637,21 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D1" s="38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E1" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F1" s="38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G1" s="38">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H1" s="38">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I1" s="38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J1" s="38">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K1" s="38">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L1" s="38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="M1" s="38">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N1" s="38">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O1" s="38">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P1" s="38">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q1" s="38">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="R1" s="38">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="D2" s="9"/>
@@ -7718,15 +6695,13 @@
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
       <c r="V3" s="54" t="s">
-        <v>1300</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
-        <v>1198</v>
-      </c>
+      <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -7747,23 +6722,11 @@
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H5" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -7781,9 +6744,7 @@
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
-        <v>1302</v>
-      </c>
+      <c r="E6" s="51"/>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -7846,51 +6807,21 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>1266</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>1267</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>1263</v>
-      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
       <c r="V9" s="55"/>
@@ -7960,26 +6891,12 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>1276</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I13" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -8057,51 +6974,21 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>1281</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>1284</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>1285</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>1263</v>
-      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="20"/>
       <c r="V17" s="55"/>
     </row>
@@ -8170,29 +7057,13 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>1288</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J21" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
@@ -8269,51 +7140,21 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="Q25" s="39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>1263</v>
-      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="20"/>
       <c r="V25" s="55"/>
     </row>
@@ -8355,10 +7196,6 @@
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
-      <c r="U27" s="33" t="str">
-        <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v/>
-      </c>
       <c r="V27" s="55"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -8379,10 +7216,7 @@
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
       <c r="S28" s="18"/>
-      <c r="U28" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="U28" s="33"/>
       <c r="V28" s="55"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -8390,26 +7224,12 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I29" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
@@ -8420,10 +7240,7 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
       <c r="S29" s="20"/>
-      <c r="U29" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="U29" s="33"/>
       <c r="V29" s="55"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -8444,10 +7261,7 @@
       <c r="Q30" s="51"/>
       <c r="R30" s="51"/>
       <c r="S30" s="29"/>
-      <c r="U30" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="U30" s="33"/>
       <c r="V30" s="55"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
@@ -8468,10 +7282,6 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="52"/>
-      <c r="U31" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="V31" s="55"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -8492,10 +7302,7 @@
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
       <c r="S32" s="18"/>
-      <c r="U32" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="U32" s="33"/>
       <c r="V32" s="55"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -8503,51 +7310,21 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>1281</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K33" s="39" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>1293</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>1285</v>
-      </c>
-      <c r="P33" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="Q33" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="R33" s="39" t="s">
-        <v>1263</v>
-      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
       <c r="S33" s="20"/>
       <c r="V33" s="55"/>
     </row>
@@ -8616,29 +7393,13 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>1294</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J37" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
@@ -8715,51 +7476,21 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J41" s="39" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>1270</v>
-      </c>
-      <c r="P41" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="Q41" s="39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="R41" s="39" t="s">
-        <v>1263</v>
-      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
       <c r="S41" s="20"/>
       <c r="V41" s="55"/>
     </row>
@@ -8828,26 +7559,12 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I45" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
@@ -8925,51 +7642,21 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>1281</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>1298</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>1285</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>1279</v>
-      </c>
-      <c r="Q49" s="39" t="s">
-        <v>1280</v>
-      </c>
-      <c r="R49" s="39" t="s">
-        <v>1263</v>
-      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
       <c r="S49" s="20"/>
       <c r="V49" s="55"/>
     </row>
@@ -9038,29 +7725,13 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>1268</v>
-      </c>
-      <c r="J53" s="39" t="str">
-        <f>CHAR(10)</f>
-        <v xml:space="preserve">
-</v>
-      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
@@ -9137,9 +7808,7 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="39" t="s">
-        <v>1301</v>
-      </c>
+      <c r="D57" s="39"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -10269,7 +8938,7 @@
     </row>
     <row r="113" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B113" s="19">
-        <f t="shared" ref="B113" si="2">B109+1</f>
+        <f t="shared" ref="B113" si="1">B109+1</f>
         <v>28</v>
       </c>
       <c r="D113" s="39"/>
@@ -10345,7 +9014,7 @@
     </row>
     <row r="117" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B117" s="19">
-        <f t="shared" ref="B117" si="3">B113+1</f>
+        <f t="shared" ref="B117" si="2">B113+1</f>
         <v>29</v>
       </c>
       <c r="D117" s="39"/>
@@ -10421,7 +9090,7 @@
     </row>
     <row r="121" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B121" s="19">
-        <f t="shared" ref="B121" si="4">B117+1</f>
+        <f t="shared" ref="B121" si="3">B117+1</f>
         <v>30</v>
       </c>
       <c r="D121" s="39"/>
@@ -10497,7 +9166,7 @@
     </row>
     <row r="125" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B125" s="19">
-        <f t="shared" ref="B125" si="5">B121+1</f>
+        <f t="shared" ref="B125" si="4">B121+1</f>
         <v>31</v>
       </c>
       <c r="D125" s="39"/>
@@ -10573,7 +9242,7 @@
     </row>
     <row r="129" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B129" s="19">
-        <f t="shared" ref="B129" si="6">B125+1</f>
+        <f t="shared" ref="B129" si="5">B125+1</f>
         <v>32</v>
       </c>
       <c r="D129" s="39"/>
@@ -10649,7 +9318,7 @@
     </row>
     <row r="133" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B133" s="19">
-        <f t="shared" ref="B133" si="7">B129+1</f>
+        <f t="shared" ref="B133" si="6">B129+1</f>
         <v>33</v>
       </c>
       <c r="D133" s="39"/>
@@ -10725,7 +9394,7 @@
     </row>
     <row r="137" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B137" s="19">
-        <f t="shared" ref="B137" si="8">B133+1</f>
+        <f t="shared" ref="B137" si="7">B133+1</f>
         <v>34</v>
       </c>
       <c r="D137" s="39"/>
@@ -10801,7 +9470,7 @@
     </row>
     <row r="141" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B141" s="19">
-        <f t="shared" ref="B141" si="9">B137+1</f>
+        <f t="shared" ref="B141" si="8">B137+1</f>
         <v>35</v>
       </c>
       <c r="D141" s="39"/>
@@ -10877,7 +9546,7 @@
     </row>
     <row r="145" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B145" s="19">
-        <f t="shared" ref="B145" si="10">B141+1</f>
+        <f t="shared" ref="B145" si="9">B141+1</f>
         <v>36</v>
       </c>
       <c r="D145" s="39"/>
@@ -10953,7 +9622,7 @@
     </row>
     <row r="149" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B149" s="19">
-        <f t="shared" ref="B149" si="11">B145+1</f>
+        <f t="shared" ref="B149" si="10">B145+1</f>
         <v>37</v>
       </c>
       <c r="D149" s="39"/>
@@ -11029,7 +9698,7 @@
     </row>
     <row r="153" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B153" s="19">
-        <f t="shared" ref="B153" si="12">B149+1</f>
+        <f t="shared" ref="B153" si="11">B149+1</f>
         <v>38</v>
       </c>
       <c r="D153" s="39"/>
@@ -11105,7 +9774,7 @@
     </row>
     <row r="157" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B157" s="19">
-        <f t="shared" ref="B157" si="13">B153+1</f>
+        <f t="shared" ref="B157" si="12">B153+1</f>
         <v>39</v>
       </c>
       <c r="D157" s="39"/>
@@ -11182,7 +9851,7 @@
     </row>
     <row r="161" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B161" s="19">
-        <f t="shared" ref="B161" si="14">B157+1</f>
+        <f t="shared" ref="B161" si="13">B157+1</f>
         <v>40</v>
       </c>
       <c r="D161" s="39"/>
@@ -11258,7 +9927,7 @@
     </row>
     <row r="165" spans="2:18" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B165" s="19">
-        <f t="shared" ref="B165" si="15">B161+1</f>
+        <f t="shared" ref="B165" si="14">B161+1</f>
         <v>41</v>
       </c>
       <c r="D165" s="39"/>
@@ -11335,7 +10004,7 @@
     </row>
     <row r="169" spans="2:18" ht="58.5">
       <c r="B169" s="19">
-        <f t="shared" ref="B169" si="16">B165+1</f>
+        <f t="shared" ref="B169" si="15">B165+1</f>
         <v>42</v>
       </c>
       <c r="C169" s="6"/>
@@ -11414,7 +10083,7 @@
     </row>
     <row r="173" spans="2:18" ht="58.5">
       <c r="B173" s="19">
-        <f t="shared" ref="B173" si="17">B169+1</f>
+        <f t="shared" ref="B173" si="16">B169+1</f>
         <v>43</v>
       </c>
       <c r="C173" s="6"/>
@@ -11493,7 +10162,7 @@
     </row>
     <row r="177" spans="2:18" ht="58.5">
       <c r="B177" s="19">
-        <f t="shared" ref="B177" si="18">B173+1</f>
+        <f t="shared" ref="B177" si="17">B173+1</f>
         <v>44</v>
       </c>
       <c r="C177" s="6"/>
@@ -11572,7 +10241,7 @@
     </row>
     <row r="181" spans="2:18" ht="58.5">
       <c r="B181" s="19">
-        <f t="shared" ref="B181" si="19">B177+1</f>
+        <f t="shared" ref="B181" si="18">B177+1</f>
         <v>45</v>
       </c>
       <c r="C181" s="6"/>
@@ -11651,7 +10320,7 @@
     </row>
     <row r="185" spans="2:18" ht="58.5">
       <c r="B185" s="19">
-        <f t="shared" ref="B185" si="20">B181+1</f>
+        <f t="shared" ref="B185" si="19">B181+1</f>
         <v>46</v>
       </c>
       <c r="C185" s="6"/>
@@ -11730,7 +10399,7 @@
     </row>
     <row r="189" spans="2:18" ht="58.5">
       <c r="B189" s="19">
-        <f t="shared" ref="B189" si="21">B185+1</f>
+        <f t="shared" ref="B189" si="20">B185+1</f>
         <v>47</v>
       </c>
       <c r="C189" s="6"/>
@@ -11809,7 +10478,7 @@
     </row>
     <row r="193" spans="2:18" ht="58.5">
       <c r="B193" s="19">
-        <f t="shared" ref="B193" si="22">B189+1</f>
+        <f t="shared" ref="B193" si="21">B189+1</f>
         <v>48</v>
       </c>
       <c r="C193" s="6"/>
@@ -11888,7 +10557,7 @@
     </row>
     <row r="197" spans="2:18" ht="58.5">
       <c r="B197" s="19">
-        <f t="shared" ref="B197" si="23">B193+1</f>
+        <f t="shared" ref="B197" si="22">B193+1</f>
         <v>49</v>
       </c>
       <c r="C197" s="6"/>
@@ -11967,7 +10636,7 @@
     </row>
     <row r="201" spans="2:18" ht="58.5">
       <c r="B201" s="19">
-        <f t="shared" ref="B201" si="24">B197+1</f>
+        <f t="shared" ref="B201" si="23">B197+1</f>
         <v>50</v>
       </c>
       <c r="C201" s="6"/>
@@ -14179,7 +12848,7 @@
     </row>
     <row r="313" spans="2:18" ht="58.5">
       <c r="B313" s="19">
-        <f t="shared" ref="B313" si="25">B309+1</f>
+        <f t="shared" ref="B313" si="24">B309+1</f>
         <v>78</v>
       </c>
       <c r="C313" s="6"/>
@@ -14258,7 +12927,7 @@
     </row>
     <row r="317" spans="2:18" ht="58.5">
       <c r="B317" s="19">
-        <f t="shared" ref="B317" si="26">B313+1</f>
+        <f t="shared" ref="B317" si="25">B313+1</f>
         <v>79</v>
       </c>
       <c r="C317" s="6"/>
@@ -14337,7 +13006,7 @@
     </row>
     <row r="321" spans="2:18" ht="58.5">
       <c r="B321" s="19">
-        <f t="shared" ref="B321" si="27">B317+1</f>
+        <f t="shared" ref="B321" si="26">B317+1</f>
         <v>80</v>
       </c>
       <c r="C321" s="6"/>
@@ -14416,7 +13085,7 @@
     </row>
     <row r="325" spans="2:18" ht="58.5">
       <c r="B325" s="19">
-        <f t="shared" ref="B325" si="28">B321+1</f>
+        <f t="shared" ref="B325" si="27">B321+1</f>
         <v>81</v>
       </c>
       <c r="C325" s="6"/>
@@ -14495,7 +13164,7 @@
     </row>
     <row r="329" spans="2:18" ht="58.5">
       <c r="B329" s="19">
-        <f t="shared" ref="B329" si="29">B325+1</f>
+        <f t="shared" ref="B329" si="28">B325+1</f>
         <v>82</v>
       </c>
       <c r="C329" s="6"/>
@@ -14574,7 +13243,7 @@
     </row>
     <row r="333" spans="2:18" ht="58.5">
       <c r="B333" s="19">
-        <f t="shared" ref="B333" si="30">B329+1</f>
+        <f t="shared" ref="B333" si="29">B329+1</f>
         <v>83</v>
       </c>
       <c r="C333" s="6"/>
@@ -14653,7 +13322,7 @@
     </row>
     <row r="337" spans="2:18" ht="58.5">
       <c r="B337" s="19">
-        <f t="shared" ref="B337" si="31">B333+1</f>
+        <f t="shared" ref="B337" si="30">B333+1</f>
         <v>84</v>
       </c>
       <c r="C337" s="6"/>
@@ -14732,7 +13401,7 @@
     </row>
     <row r="341" spans="2:18" ht="58.5">
       <c r="B341" s="19">
-        <f t="shared" ref="B341" si="32">B337+1</f>
+        <f t="shared" ref="B341" si="31">B337+1</f>
         <v>85</v>
       </c>
       <c r="C341" s="6"/>
@@ -14811,7 +13480,7 @@
     </row>
     <row r="345" spans="2:18" ht="58.5">
       <c r="B345" s="19">
-        <f t="shared" ref="B345" si="33">B341+1</f>
+        <f t="shared" ref="B345" si="32">B341+1</f>
         <v>86</v>
       </c>
       <c r="C345" s="6"/>
@@ -14890,7 +13559,7 @@
     </row>
     <row r="349" spans="2:18" ht="58.5">
       <c r="B349" s="19">
-        <f t="shared" ref="B349" si="34">B345+1</f>
+        <f t="shared" ref="B349" si="33">B345+1</f>
         <v>87</v>
       </c>
       <c r="C349" s="6"/>
@@ -14969,7 +13638,7 @@
     </row>
     <row r="353" spans="2:18" ht="58.5">
       <c r="B353" s="19">
-        <f t="shared" ref="B353" si="35">B349+1</f>
+        <f t="shared" ref="B353" si="34">B349+1</f>
         <v>88</v>
       </c>
       <c r="C353" s="6"/>
@@ -15048,7 +13717,7 @@
     </row>
     <row r="357" spans="2:18" ht="58.5">
       <c r="B357" s="19">
-        <f t="shared" ref="B357" si="36">B353+1</f>
+        <f t="shared" ref="B357" si="35">B353+1</f>
         <v>89</v>
       </c>
       <c r="C357" s="6"/>
@@ -15127,7 +13796,7 @@
     </row>
     <row r="361" spans="2:18" ht="58.5">
       <c r="B361" s="19">
-        <f t="shared" ref="B361" si="37">B357+1</f>
+        <f t="shared" ref="B361" si="36">B357+1</f>
         <v>90</v>
       </c>
       <c r="C361" s="6"/>
@@ -15206,7 +13875,7 @@
     </row>
     <row r="365" spans="2:18" ht="58.5">
       <c r="B365" s="19">
-        <f t="shared" ref="B365" si="38">B361+1</f>
+        <f t="shared" ref="B365" si="37">B361+1</f>
         <v>91</v>
       </c>
       <c r="C365" s="6"/>
@@ -15285,7 +13954,7 @@
     </row>
     <row r="369" spans="2:18" ht="58.5">
       <c r="B369" s="19">
-        <f t="shared" ref="B369" si="39">B365+1</f>
+        <f t="shared" ref="B369" si="38">B365+1</f>
         <v>92</v>
       </c>
       <c r="C369" s="6"/>
@@ -15364,7 +14033,7 @@
     </row>
     <row r="373" spans="2:18" ht="58.5">
       <c r="B373" s="19">
-        <f t="shared" ref="B373" si="40">B369+1</f>
+        <f t="shared" ref="B373" si="39">B369+1</f>
         <v>93</v>
       </c>
       <c r="C373" s="6"/>
@@ -15443,7 +14112,7 @@
     </row>
     <row r="377" spans="2:18" ht="58.5">
       <c r="B377" s="19">
-        <f t="shared" ref="B377" si="41">B373+1</f>
+        <f t="shared" ref="B377" si="40">B373+1</f>
         <v>94</v>
       </c>
       <c r="C377" s="6"/>
@@ -15522,7 +14191,7 @@
     </row>
     <row r="381" spans="2:18" ht="58.5">
       <c r="B381" s="19">
-        <f t="shared" ref="B381" si="42">B377+1</f>
+        <f t="shared" ref="B381" si="41">B377+1</f>
         <v>95</v>
       </c>
       <c r="C381" s="6"/>
@@ -15601,7 +14270,7 @@
     </row>
     <row r="385" spans="2:18" ht="58.5">
       <c r="B385" s="19">
-        <f t="shared" ref="B385" si="43">B381+1</f>
+        <f t="shared" ref="B385" si="42">B381+1</f>
         <v>96</v>
       </c>
       <c r="C385" s="6"/>
@@ -15680,7 +14349,7 @@
     </row>
     <row r="389" spans="2:18" ht="58.5">
       <c r="B389" s="19">
-        <f t="shared" ref="B389" si="44">B385+1</f>
+        <f t="shared" ref="B389" si="43">B385+1</f>
         <v>97</v>
       </c>
       <c r="C389" s="6"/>
@@ -15759,7 +14428,7 @@
     </row>
     <row r="393" spans="2:18" ht="58.5">
       <c r="B393" s="19">
-        <f t="shared" ref="B393" si="45">B389+1</f>
+        <f t="shared" ref="B393" si="44">B389+1</f>
         <v>98</v>
       </c>
       <c r="C393" s="6"/>
@@ -15838,7 +14507,7 @@
     </row>
     <row r="397" spans="2:18" ht="58.5">
       <c r="B397" s="19">
-        <f t="shared" ref="B397" si="46">B393+1</f>
+        <f t="shared" ref="B397" si="45">B393+1</f>
         <v>99</v>
       </c>
       <c r="C397" s="6"/>
@@ -15917,7 +14586,7 @@
     </row>
     <row r="401" spans="2:18" ht="58.5">
       <c r="B401" s="19">
-        <f t="shared" ref="B401" si="47">B397+1</f>
+        <f t="shared" ref="B401" si="46">B397+1</f>
         <v>100</v>
       </c>
       <c r="C401" s="6"/>
@@ -18129,7 +16798,7 @@
     </row>
     <row r="513" spans="2:18" ht="58.5">
       <c r="B513" s="19">
-        <f t="shared" ref="B513" si="48">B509+1</f>
+        <f t="shared" ref="B513" si="47">B509+1</f>
         <v>128</v>
       </c>
       <c r="C513" s="6"/>
@@ -18208,7 +16877,7 @@
     </row>
     <row r="517" spans="2:18" ht="58.5">
       <c r="B517" s="19">
-        <f t="shared" ref="B517" si="49">B513+1</f>
+        <f t="shared" ref="B517" si="48">B513+1</f>
         <v>129</v>
       </c>
       <c r="C517" s="6"/>
@@ -18287,7 +16956,7 @@
     </row>
     <row r="521" spans="2:18" ht="58.5">
       <c r="B521" s="19">
-        <f t="shared" ref="B521" si="50">B517+1</f>
+        <f t="shared" ref="B521" si="49">B517+1</f>
         <v>130</v>
       </c>
       <c r="C521" s="6"/>
@@ -18366,7 +17035,7 @@
     </row>
     <row r="525" spans="2:18" ht="58.5">
       <c r="B525" s="19">
-        <f t="shared" ref="B525" si="51">B521+1</f>
+        <f t="shared" ref="B525" si="50">B521+1</f>
         <v>131</v>
       </c>
       <c r="C525" s="6"/>
@@ -18445,7 +17114,7 @@
     </row>
     <row r="529" spans="2:18" ht="58.5">
       <c r="B529" s="19">
-        <f t="shared" ref="B529" si="52">B525+1</f>
+        <f t="shared" ref="B529" si="51">B525+1</f>
         <v>132</v>
       </c>
       <c r="C529" s="6"/>
@@ -18524,7 +17193,7 @@
     </row>
     <row r="533" spans="2:18" ht="58.5">
       <c r="B533" s="19">
-        <f t="shared" ref="B533" si="53">B529+1</f>
+        <f t="shared" ref="B533" si="52">B529+1</f>
         <v>133</v>
       </c>
       <c r="C533" s="6"/>
@@ -18603,7 +17272,7 @@
     </row>
     <row r="537" spans="2:18" ht="58.5">
       <c r="B537" s="19">
-        <f t="shared" ref="B537" si="54">B533+1</f>
+        <f t="shared" ref="B537" si="53">B533+1</f>
         <v>134</v>
       </c>
       <c r="C537" s="6"/>
@@ -18682,7 +17351,7 @@
     </row>
     <row r="541" spans="2:18" ht="58.5">
       <c r="B541" s="19">
-        <f t="shared" ref="B541" si="55">B537+1</f>
+        <f t="shared" ref="B541" si="54">B537+1</f>
         <v>135</v>
       </c>
       <c r="C541" s="6"/>
@@ -18761,7 +17430,7 @@
     </row>
     <row r="545" spans="2:18" ht="58.5">
       <c r="B545" s="19">
-        <f t="shared" ref="B545" si="56">B541+1</f>
+        <f t="shared" ref="B545" si="55">B541+1</f>
         <v>136</v>
       </c>
       <c r="C545" s="6"/>
@@ -18840,7 +17509,7 @@
     </row>
     <row r="549" spans="2:18" ht="58.5">
       <c r="B549" s="19">
-        <f t="shared" ref="B549" si="57">B545+1</f>
+        <f t="shared" ref="B549" si="56">B545+1</f>
         <v>137</v>
       </c>
       <c r="C549" s="6"/>
@@ -18919,7 +17588,7 @@
     </row>
     <row r="553" spans="2:18" ht="58.5">
       <c r="B553" s="19">
-        <f t="shared" ref="B553" si="58">B549+1</f>
+        <f t="shared" ref="B553" si="57">B549+1</f>
         <v>138</v>
       </c>
       <c r="C553" s="6"/>
@@ -18998,7 +17667,7 @@
     </row>
     <row r="557" spans="2:18" ht="58.5">
       <c r="B557" s="19">
-        <f t="shared" ref="B557" si="59">B553+1</f>
+        <f t="shared" ref="B557" si="58">B553+1</f>
         <v>139</v>
       </c>
       <c r="C557" s="6"/>
@@ -19077,7 +17746,7 @@
     </row>
     <row r="561" spans="2:18" ht="58.5">
       <c r="B561" s="19">
-        <f t="shared" ref="B561" si="60">B557+1</f>
+        <f t="shared" ref="B561" si="59">B557+1</f>
         <v>140</v>
       </c>
       <c r="C561" s="6"/>
@@ -19156,7 +17825,7 @@
     </row>
     <row r="565" spans="2:18" ht="58.5">
       <c r="B565" s="19">
-        <f t="shared" ref="B565" si="61">B561+1</f>
+        <f t="shared" ref="B565" si="60">B561+1</f>
         <v>141</v>
       </c>
       <c r="C565" s="6"/>
@@ -19235,7 +17904,7 @@
     </row>
     <row r="569" spans="2:18" ht="58.5">
       <c r="B569" s="19">
-        <f t="shared" ref="B569" si="62">B565+1</f>
+        <f t="shared" ref="B569" si="61">B565+1</f>
         <v>142</v>
       </c>
       <c r="C569" s="6"/>
@@ -19314,7 +17983,7 @@
     </row>
     <row r="573" spans="2:18" ht="58.5">
       <c r="B573" s="19">
-        <f t="shared" ref="B573" si="63">B569+1</f>
+        <f t="shared" ref="B573" si="62">B569+1</f>
         <v>143</v>
       </c>
       <c r="C573" s="6"/>
@@ -19393,7 +18062,7 @@
     </row>
     <row r="577" spans="2:18" ht="58.5">
       <c r="B577" s="19">
-        <f t="shared" ref="B577" si="64">B573+1</f>
+        <f t="shared" ref="B577" si="63">B573+1</f>
         <v>144</v>
       </c>
       <c r="C577" s="6"/>
@@ -19472,7 +18141,7 @@
     </row>
     <row r="581" spans="2:18" ht="58.5">
       <c r="B581" s="19">
-        <f t="shared" ref="B581" si="65">B577+1</f>
+        <f t="shared" ref="B581" si="64">B577+1</f>
         <v>145</v>
       </c>
       <c r="C581" s="6"/>
@@ -19551,7 +18220,7 @@
     </row>
     <row r="585" spans="2:18" ht="58.5">
       <c r="B585" s="19">
-        <f t="shared" ref="B585" si="66">B581+1</f>
+        <f t="shared" ref="B585" si="65">B581+1</f>
         <v>146</v>
       </c>
       <c r="C585" s="6"/>
@@ -19630,7 +18299,7 @@
     </row>
     <row r="589" spans="2:18" ht="58.5">
       <c r="B589" s="19">
-        <f t="shared" ref="B589" si="67">B585+1</f>
+        <f t="shared" ref="B589" si="66">B585+1</f>
         <v>147</v>
       </c>
       <c r="C589" s="6"/>
@@ -19709,7 +18378,7 @@
     </row>
     <row r="593" spans="2:18" ht="58.5">
       <c r="B593" s="19">
-        <f t="shared" ref="B593" si="68">B589+1</f>
+        <f t="shared" ref="B593" si="67">B589+1</f>
         <v>148</v>
       </c>
       <c r="C593" s="6"/>
@@ -19788,7 +18457,7 @@
     </row>
     <row r="597" spans="2:18" ht="58.5">
       <c r="B597" s="19">
-        <f t="shared" ref="B597" si="69">B593+1</f>
+        <f t="shared" ref="B597" si="68">B593+1</f>
         <v>149</v>
       </c>
       <c r="C597" s="6"/>
@@ -19867,7 +18536,7 @@
     </row>
     <row r="601" spans="2:18" ht="58.5">
       <c r="B601" s="19">
-        <f t="shared" ref="B601" si="70">B597+1</f>
+        <f t="shared" ref="B601" si="69">B597+1</f>
         <v>150</v>
       </c>
       <c r="C601" s="6"/>
@@ -22079,7 +20748,7 @@
     </row>
     <row r="713" spans="2:18" ht="58.5">
       <c r="B713" s="19">
-        <f t="shared" ref="B713" si="71">B709+1</f>
+        <f t="shared" ref="B713" si="70">B709+1</f>
         <v>178</v>
       </c>
       <c r="C713" s="6"/>
@@ -22158,7 +20827,7 @@
     </row>
     <row r="717" spans="2:18" ht="58.5">
       <c r="B717" s="19">
-        <f t="shared" ref="B717" si="72">B713+1</f>
+        <f t="shared" ref="B717" si="71">B713+1</f>
         <v>179</v>
       </c>
       <c r="C717" s="6"/>
@@ -22237,7 +20906,7 @@
     </row>
     <row r="721" spans="2:18" ht="58.5">
       <c r="B721" s="19">
-        <f t="shared" ref="B721" si="73">B717+1</f>
+        <f t="shared" ref="B721" si="72">B717+1</f>
         <v>180</v>
       </c>
       <c r="C721" s="6"/>
@@ -22316,7 +20985,7 @@
     </row>
     <row r="725" spans="2:18" ht="58.5">
       <c r="B725" s="19">
-        <f t="shared" ref="B725" si="74">B721+1</f>
+        <f t="shared" ref="B725" si="73">B721+1</f>
         <v>181</v>
       </c>
       <c r="C725" s="6"/>
@@ -22395,7 +21064,7 @@
     </row>
     <row r="729" spans="2:18" ht="58.5">
       <c r="B729" s="19">
-        <f t="shared" ref="B729" si="75">B725+1</f>
+        <f t="shared" ref="B729" si="74">B725+1</f>
         <v>182</v>
       </c>
       <c r="C729" s="6"/>
@@ -22474,7 +21143,7 @@
     </row>
     <row r="733" spans="2:18" ht="58.5">
       <c r="B733" s="19">
-        <f t="shared" ref="B733" si="76">B729+1</f>
+        <f t="shared" ref="B733" si="75">B729+1</f>
         <v>183</v>
       </c>
       <c r="C733" s="6"/>
@@ -22553,7 +21222,7 @@
     </row>
     <row r="737" spans="2:18" ht="58.5">
       <c r="B737" s="19">
-        <f t="shared" ref="B737" si="77">B733+1</f>
+        <f t="shared" ref="B737" si="76">B733+1</f>
         <v>184</v>
       </c>
       <c r="C737" s="6"/>
@@ -22632,7 +21301,7 @@
     </row>
     <row r="741" spans="2:18" ht="58.5">
       <c r="B741" s="19">
-        <f t="shared" ref="B741" si="78">B737+1</f>
+        <f t="shared" ref="B741" si="77">B737+1</f>
         <v>185</v>
       </c>
       <c r="C741" s="6"/>
@@ -22711,7 +21380,7 @@
     </row>
     <row r="745" spans="2:18" ht="58.5">
       <c r="B745" s="19">
-        <f t="shared" ref="B745" si="79">B741+1</f>
+        <f t="shared" ref="B745" si="78">B741+1</f>
         <v>186</v>
       </c>
       <c r="C745" s="6"/>
@@ -22790,7 +21459,7 @@
     </row>
     <row r="749" spans="2:18" ht="58.5">
       <c r="B749" s="19">
-        <f t="shared" ref="B749" si="80">B745+1</f>
+        <f t="shared" ref="B749" si="79">B745+1</f>
         <v>187</v>
       </c>
       <c r="C749" s="6"/>
@@ -22869,7 +21538,7 @@
     </row>
     <row r="753" spans="2:18" ht="58.5">
       <c r="B753" s="19">
-        <f t="shared" ref="B753" si="81">B749+1</f>
+        <f t="shared" ref="B753" si="80">B749+1</f>
         <v>188</v>
       </c>
       <c r="C753" s="6"/>
@@ -22948,7 +21617,7 @@
     </row>
     <row r="757" spans="2:18" ht="58.5">
       <c r="B757" s="19">
-        <f t="shared" ref="B757" si="82">B753+1</f>
+        <f t="shared" ref="B757" si="81">B753+1</f>
         <v>189</v>
       </c>
       <c r="C757" s="6"/>
@@ -23027,7 +21696,7 @@
     </row>
     <row r="761" spans="2:18" ht="58.5">
       <c r="B761" s="19">
-        <f t="shared" ref="B761" si="83">B757+1</f>
+        <f t="shared" ref="B761" si="82">B757+1</f>
         <v>190</v>
       </c>
       <c r="C761" s="6"/>
@@ -23106,7 +21775,7 @@
     </row>
     <row r="765" spans="2:18" ht="58.5">
       <c r="B765" s="19">
-        <f t="shared" ref="B765" si="84">B761+1</f>
+        <f t="shared" ref="B765" si="83">B761+1</f>
         <v>191</v>
       </c>
       <c r="C765" s="6"/>
@@ -23185,7 +21854,7 @@
     </row>
     <row r="769" spans="2:18" ht="58.5">
       <c r="B769" s="19">
-        <f t="shared" ref="B769" si="85">B765+1</f>
+        <f t="shared" ref="B769" si="84">B765+1</f>
         <v>192</v>
       </c>
       <c r="C769" s="6"/>
@@ -23264,7 +21933,7 @@
     </row>
     <row r="773" spans="2:18" ht="58.5">
       <c r="B773" s="19">
-        <f t="shared" ref="B773" si="86">B769+1</f>
+        <f t="shared" ref="B773" si="85">B769+1</f>
         <v>193</v>
       </c>
       <c r="C773" s="6"/>
@@ -23343,7 +22012,7 @@
     </row>
     <row r="777" spans="2:18" ht="58.5">
       <c r="B777" s="19">
-        <f t="shared" ref="B777" si="87">B773+1</f>
+        <f t="shared" ref="B777" si="86">B773+1</f>
         <v>194</v>
       </c>
       <c r="C777" s="6"/>
@@ -23422,7 +22091,7 @@
     </row>
     <row r="781" spans="2:18" ht="58.5">
       <c r="B781" s="19">
-        <f t="shared" ref="B781" si="88">B777+1</f>
+        <f t="shared" ref="B781" si="87">B777+1</f>
         <v>195</v>
       </c>
       <c r="C781" s="6"/>
@@ -23501,7 +22170,7 @@
     </row>
     <row r="785" spans="2:18" ht="58.5">
       <c r="B785" s="19">
-        <f t="shared" ref="B785" si="89">B781+1</f>
+        <f t="shared" ref="B785" si="88">B781+1</f>
         <v>196</v>
       </c>
       <c r="C785" s="6"/>
@@ -23580,7 +22249,7 @@
     </row>
     <row r="789" spans="2:18" ht="58.5">
       <c r="B789" s="19">
-        <f t="shared" ref="B789" si="90">B785+1</f>
+        <f t="shared" ref="B789" si="89">B785+1</f>
         <v>197</v>
       </c>
       <c r="C789" s="6"/>
@@ -23659,7 +22328,7 @@
     </row>
     <row r="793" spans="2:18" ht="58.5">
       <c r="B793" s="19">
-        <f t="shared" ref="B793" si="91">B789+1</f>
+        <f t="shared" ref="B793" si="90">B789+1</f>
         <v>198</v>
       </c>
       <c r="C793" s="6"/>
@@ -23738,7 +22407,7 @@
     </row>
     <row r="797" spans="2:18" ht="58.5">
       <c r="B797" s="19">
-        <f t="shared" ref="B797" si="92">B793+1</f>
+        <f t="shared" ref="B797" si="91">B793+1</f>
         <v>199</v>
       </c>
       <c r="C797" s="6"/>
@@ -23817,7 +22486,7 @@
     </row>
     <row r="801" spans="2:18" ht="58.5">
       <c r="B801" s="19">
-        <f t="shared" ref="B801" si="93">B797+1</f>
+        <f t="shared" ref="B801" si="92">B797+1</f>
         <v>200</v>
       </c>
       <c r="C801" s="6"/>
@@ -23896,7 +22565,7 @@
     </row>
     <row r="805" spans="2:18" ht="58.5">
       <c r="B805" s="19">
-        <f t="shared" ref="B805" si="94">B801+1</f>
+        <f t="shared" ref="B805" si="93">B801+1</f>
         <v>201</v>
       </c>
       <c r="C805" s="6"/>
@@ -26029,7 +24698,7 @@
     </row>
     <row r="913" spans="2:18" ht="58.5">
       <c r="B913" s="19">
-        <f t="shared" ref="B913" si="95">B909+1</f>
+        <f t="shared" ref="B913" si="94">B909+1</f>
         <v>228</v>
       </c>
       <c r="C913" s="6"/>
@@ -26108,7 +24777,7 @@
     </row>
     <row r="917" spans="2:18" ht="58.5">
       <c r="B917" s="19">
-        <f t="shared" ref="B917" si="96">B913+1</f>
+        <f t="shared" ref="B917" si="95">B913+1</f>
         <v>229</v>
       </c>
       <c r="C917" s="6"/>
@@ -26187,7 +24856,7 @@
     </row>
     <row r="921" spans="2:18" ht="58.5">
       <c r="B921" s="19">
-        <f t="shared" ref="B921" si="97">B917+1</f>
+        <f t="shared" ref="B921" si="96">B917+1</f>
         <v>230</v>
       </c>
       <c r="C921" s="6"/>
@@ -26266,7 +24935,7 @@
     </row>
     <row r="925" spans="2:18" ht="58.5">
       <c r="B925" s="19">
-        <f t="shared" ref="B925" si="98">B921+1</f>
+        <f t="shared" ref="B925" si="97">B921+1</f>
         <v>231</v>
       </c>
       <c r="C925" s="6"/>
@@ -26345,7 +25014,7 @@
     </row>
     <row r="929" spans="2:18" ht="58.5">
       <c r="B929" s="19">
-        <f t="shared" ref="B929" si="99">B925+1</f>
+        <f t="shared" ref="B929" si="98">B925+1</f>
         <v>232</v>
       </c>
       <c r="C929" s="6"/>
@@ -26424,7 +25093,7 @@
     </row>
     <row r="933" spans="2:18" ht="58.5">
       <c r="B933" s="19">
-        <f t="shared" ref="B933" si="100">B929+1</f>
+        <f t="shared" ref="B933" si="99">B929+1</f>
         <v>233</v>
       </c>
       <c r="C933" s="6"/>
@@ -26503,7 +25172,7 @@
     </row>
     <row r="937" spans="2:18" ht="58.5">
       <c r="B937" s="19">
-        <f t="shared" ref="B937" si="101">B933+1</f>
+        <f t="shared" ref="B937" si="100">B933+1</f>
         <v>234</v>
       </c>
       <c r="C937" s="6"/>
@@ -26582,7 +25251,7 @@
     </row>
     <row r="941" spans="2:18" ht="58.5">
       <c r="B941" s="19">
-        <f t="shared" ref="B941" si="102">B937+1</f>
+        <f t="shared" ref="B941" si="101">B937+1</f>
         <v>235</v>
       </c>
       <c r="C941" s="6"/>
@@ -26661,7 +25330,7 @@
     </row>
     <row r="945" spans="2:18" ht="58.5">
       <c r="B945" s="19">
-        <f t="shared" ref="B945" si="103">B941+1</f>
+        <f t="shared" ref="B945" si="102">B941+1</f>
         <v>236</v>
       </c>
       <c r="C945" s="6"/>
@@ -26740,7 +25409,7 @@
     </row>
     <row r="949" spans="2:18" ht="58.5">
       <c r="B949" s="19">
-        <f t="shared" ref="B949" si="104">B945+1</f>
+        <f t="shared" ref="B949" si="103">B945+1</f>
         <v>237</v>
       </c>
       <c r="C949" s="6"/>
@@ -26819,7 +25488,7 @@
     </row>
     <row r="953" spans="2:18" ht="58.5">
       <c r="B953" s="19">
-        <f t="shared" ref="B953" si="105">B949+1</f>
+        <f t="shared" ref="B953" si="104">B949+1</f>
         <v>238</v>
       </c>
       <c r="C953" s="6"/>
@@ -26898,7 +25567,7 @@
     </row>
     <row r="957" spans="2:18" ht="58.5">
       <c r="B957" s="19">
-        <f t="shared" ref="B957" si="106">B953+1</f>
+        <f t="shared" ref="B957" si="105">B953+1</f>
         <v>239</v>
       </c>
       <c r="C957" s="6"/>
@@ -26977,7 +25646,7 @@
     </row>
     <row r="961" spans="2:18" ht="58.5">
       <c r="B961" s="19">
-        <f t="shared" ref="B961" si="107">B957+1</f>
+        <f t="shared" ref="B961" si="106">B957+1</f>
         <v>240</v>
       </c>
       <c r="C961" s="6"/>
@@ -27056,7 +25725,7 @@
     </row>
     <row r="965" spans="2:18" ht="58.5">
       <c r="B965" s="19">
-        <f t="shared" ref="B965" si="108">B961+1</f>
+        <f t="shared" ref="B965" si="107">B961+1</f>
         <v>241</v>
       </c>
       <c r="C965" s="6"/>
@@ -27135,7 +25804,7 @@
     </row>
     <row r="969" spans="2:18" ht="58.5">
       <c r="B969" s="19">
-        <f t="shared" ref="B969" si="109">B965+1</f>
+        <f t="shared" ref="B969" si="108">B965+1</f>
         <v>242</v>
       </c>
       <c r="C969" s="6"/>
@@ -27214,7 +25883,7 @@
     </row>
     <row r="973" spans="2:18" ht="58.5">
       <c r="B973" s="19">
-        <f t="shared" ref="B973" si="110">B969+1</f>
+        <f t="shared" ref="B973" si="109">B969+1</f>
         <v>243</v>
       </c>
       <c r="C973" s="6"/>
@@ -27293,7 +25962,7 @@
     </row>
     <row r="977" spans="2:18" ht="58.5">
       <c r="B977" s="19">
-        <f t="shared" ref="B977" si="111">B973+1</f>
+        <f t="shared" ref="B977" si="110">B973+1</f>
         <v>244</v>
       </c>
       <c r="C977" s="6"/>
@@ -27372,7 +26041,7 @@
     </row>
     <row r="981" spans="2:18" ht="58.5">
       <c r="B981" s="19">
-        <f t="shared" ref="B981" si="112">B977+1</f>
+        <f t="shared" ref="B981" si="111">B977+1</f>
         <v>245</v>
       </c>
       <c r="C981" s="6"/>
@@ -27451,7 +26120,7 @@
     </row>
     <row r="985" spans="2:18" ht="58.5">
       <c r="B985" s="19">
-        <f t="shared" ref="B985" si="113">B981+1</f>
+        <f t="shared" ref="B985" si="112">B981+1</f>
         <v>246</v>
       </c>
       <c r="C985" s="6"/>
@@ -27530,7 +26199,7 @@
     </row>
     <row r="989" spans="2:18" ht="58.5">
       <c r="B989" s="19">
-        <f t="shared" ref="B989" si="114">B985+1</f>
+        <f t="shared" ref="B989" si="113">B985+1</f>
         <v>247</v>
       </c>
       <c r="C989" s="6"/>
@@ -27609,7 +26278,7 @@
     </row>
     <row r="993" spans="2:18" ht="58.5">
       <c r="B993" s="19">
-        <f t="shared" ref="B993" si="115">B989+1</f>
+        <f t="shared" ref="B993" si="114">B989+1</f>
         <v>248</v>
       </c>
       <c r="C993" s="6"/>
@@ -27688,7 +26357,7 @@
     </row>
     <row r="997" spans="2:18" ht="58.5">
       <c r="B997" s="19">
-        <f t="shared" ref="B997" si="116">B993+1</f>
+        <f t="shared" ref="B997" si="115">B993+1</f>
         <v>249</v>
       </c>
       <c r="C997" s="6"/>
@@ -27767,7 +26436,7 @@
     </row>
     <row r="1001" spans="2:18" ht="58.5">
       <c r="B1001" s="19">
-        <f t="shared" ref="B1001" si="117">B997+1</f>
+        <f t="shared" ref="B1001" si="116">B997+1</f>
         <v>250</v>
       </c>
       <c r="C1001" s="6"/>
@@ -29979,7 +28648,7 @@
     </row>
     <row r="1113" spans="2:18" ht="58.5">
       <c r="B1113" s="19">
-        <f t="shared" ref="B1113" si="118">B1109+1</f>
+        <f t="shared" ref="B1113" si="117">B1109+1</f>
         <v>278</v>
       </c>
       <c r="C1113" s="6"/>
@@ -30058,7 +28727,7 @@
     </row>
     <row r="1117" spans="2:18" ht="58.5">
       <c r="B1117" s="19">
-        <f t="shared" ref="B1117" si="119">B1113+1</f>
+        <f t="shared" ref="B1117" si="118">B1113+1</f>
         <v>279</v>
       </c>
       <c r="C1117" s="6"/>
@@ -30137,7 +28806,7 @@
     </row>
     <row r="1121" spans="2:18" ht="58.5">
       <c r="B1121" s="19">
-        <f t="shared" ref="B1121" si="120">B1117+1</f>
+        <f t="shared" ref="B1121" si="119">B1117+1</f>
         <v>280</v>
       </c>
       <c r="C1121" s="6"/>
@@ -30216,7 +28885,7 @@
     </row>
     <row r="1125" spans="2:18" ht="58.5">
       <c r="B1125" s="19">
-        <f t="shared" ref="B1125" si="121">B1121+1</f>
+        <f t="shared" ref="B1125" si="120">B1121+1</f>
         <v>281</v>
       </c>
       <c r="C1125" s="6"/>
@@ -30295,7 +28964,7 @@
     </row>
     <row r="1129" spans="2:18" ht="58.5">
       <c r="B1129" s="19">
-        <f t="shared" ref="B1129" si="122">B1125+1</f>
+        <f t="shared" ref="B1129" si="121">B1125+1</f>
         <v>282</v>
       </c>
       <c r="C1129" s="6"/>
@@ -30374,7 +29043,7 @@
     </row>
     <row r="1133" spans="2:18" ht="58.5">
       <c r="B1133" s="19">
-        <f t="shared" ref="B1133" si="123">B1129+1</f>
+        <f t="shared" ref="B1133" si="122">B1129+1</f>
         <v>283</v>
       </c>
       <c r="C1133" s="6"/>
@@ -30453,7 +29122,7 @@
     </row>
     <row r="1137" spans="2:18" ht="58.5">
       <c r="B1137" s="19">
-        <f t="shared" ref="B1137" si="124">B1133+1</f>
+        <f t="shared" ref="B1137" si="123">B1133+1</f>
         <v>284</v>
       </c>
       <c r="C1137" s="6"/>
@@ -30532,7 +29201,7 @@
     </row>
     <row r="1141" spans="2:18" ht="58.5">
       <c r="B1141" s="19">
-        <f t="shared" ref="B1141" si="125">B1137+1</f>
+        <f t="shared" ref="B1141" si="124">B1137+1</f>
         <v>285</v>
       </c>
       <c r="C1141" s="6"/>
@@ -30611,7 +29280,7 @@
     </row>
     <row r="1145" spans="2:18" ht="58.5">
       <c r="B1145" s="19">
-        <f t="shared" ref="B1145" si="126">B1141+1</f>
+        <f t="shared" ref="B1145" si="125">B1141+1</f>
         <v>286</v>
       </c>
       <c r="C1145" s="6"/>
@@ -30690,7 +29359,7 @@
     </row>
     <row r="1149" spans="2:18" ht="58.5">
       <c r="B1149" s="19">
-        <f t="shared" ref="B1149" si="127">B1145+1</f>
+        <f t="shared" ref="B1149" si="126">B1145+1</f>
         <v>287</v>
       </c>
       <c r="C1149" s="6"/>
@@ -30769,7 +29438,7 @@
     </row>
     <row r="1153" spans="2:18" ht="58.5">
       <c r="B1153" s="19">
-        <f t="shared" ref="B1153" si="128">B1149+1</f>
+        <f t="shared" ref="B1153" si="127">B1149+1</f>
         <v>288</v>
       </c>
       <c r="C1153" s="6"/>
@@ -30848,7 +29517,7 @@
     </row>
     <row r="1157" spans="2:18" ht="58.5">
       <c r="B1157" s="19">
-        <f t="shared" ref="B1157" si="129">B1153+1</f>
+        <f t="shared" ref="B1157" si="128">B1153+1</f>
         <v>289</v>
       </c>
       <c r="C1157" s="6"/>
@@ -30927,7 +29596,7 @@
     </row>
     <row r="1161" spans="2:18" ht="58.5">
       <c r="B1161" s="19">
-        <f t="shared" ref="B1161" si="130">B1157+1</f>
+        <f t="shared" ref="B1161" si="129">B1157+1</f>
         <v>290</v>
       </c>
       <c r="C1161" s="6"/>
@@ -31006,7 +29675,7 @@
     </row>
     <row r="1165" spans="2:18" ht="58.5">
       <c r="B1165" s="19">
-        <f t="shared" ref="B1165" si="131">B1161+1</f>
+        <f t="shared" ref="B1165" si="130">B1161+1</f>
         <v>291</v>
       </c>
       <c r="C1165" s="6"/>
@@ -31085,7 +29754,7 @@
     </row>
     <row r="1169" spans="2:18" ht="58.5">
       <c r="B1169" s="19">
-        <f t="shared" ref="B1169" si="132">B1165+1</f>
+        <f t="shared" ref="B1169" si="131">B1165+1</f>
         <v>292</v>
       </c>
       <c r="C1169" s="6"/>
@@ -31164,7 +29833,7 @@
     </row>
     <row r="1173" spans="2:18" ht="58.5">
       <c r="B1173" s="19">
-        <f t="shared" ref="B1173" si="133">B1169+1</f>
+        <f t="shared" ref="B1173" si="132">B1169+1</f>
         <v>293</v>
       </c>
       <c r="C1173" s="6"/>
@@ -31243,7 +29912,7 @@
     </row>
     <row r="1177" spans="2:18" ht="58.5">
       <c r="B1177" s="19">
-        <f t="shared" ref="B1177" si="134">B1173+1</f>
+        <f t="shared" ref="B1177" si="133">B1173+1</f>
         <v>294</v>
       </c>
       <c r="C1177" s="6"/>
@@ -31322,7 +29991,7 @@
     </row>
     <row r="1181" spans="2:18" ht="58.5">
       <c r="B1181" s="19">
-        <f t="shared" ref="B1181" si="135">B1177+1</f>
+        <f t="shared" ref="B1181" si="134">B1177+1</f>
         <v>295</v>
       </c>
       <c r="C1181" s="6"/>
@@ -31401,7 +30070,7 @@
     </row>
     <row r="1185" spans="2:18" ht="58.5">
       <c r="B1185" s="19">
-        <f t="shared" ref="B1185" si="136">B1181+1</f>
+        <f t="shared" ref="B1185" si="135">B1181+1</f>
         <v>296</v>
       </c>
       <c r="C1185" s="6"/>
@@ -31480,7 +30149,7 @@
     </row>
     <row r="1189" spans="2:18" ht="58.5">
       <c r="B1189" s="19">
-        <f t="shared" ref="B1189" si="137">B1185+1</f>
+        <f t="shared" ref="B1189" si="136">B1185+1</f>
         <v>297</v>
       </c>
       <c r="C1189" s="6"/>
@@ -31559,7 +30228,7 @@
     </row>
     <row r="1193" spans="2:18" ht="58.5">
       <c r="B1193" s="19">
-        <f t="shared" ref="B1193" si="138">B1189+1</f>
+        <f t="shared" ref="B1193" si="137">B1189+1</f>
         <v>298</v>
       </c>
       <c r="C1193" s="6"/>
@@ -31638,7 +30307,7 @@
     </row>
     <row r="1197" spans="2:18" ht="58.5">
       <c r="B1197" s="19">
-        <f t="shared" ref="B1197" si="139">B1193+1</f>
+        <f t="shared" ref="B1197" si="138">B1193+1</f>
         <v>299</v>
       </c>
       <c r="C1197" s="6"/>
@@ -31717,7 +30386,7 @@
     </row>
     <row r="1201" spans="2:18" ht="58.5">
       <c r="B1201" s="19">
-        <f t="shared" ref="B1201" si="140">B1197+1</f>
+        <f t="shared" ref="B1201" si="139">B1197+1</f>
         <v>300</v>
       </c>
       <c r="C1201" s="6"/>
@@ -31796,7 +30465,7 @@
     </row>
     <row r="1205" spans="2:18" ht="58.5">
       <c r="B1205" s="19">
-        <f t="shared" ref="B1205" si="141">B1201+1</f>
+        <f t="shared" ref="B1205" si="140">B1201+1</f>
         <v>301</v>
       </c>
       <c r="C1205" s="6"/>
@@ -33929,7 +32598,7 @@
     </row>
     <row r="1313" spans="2:18" ht="58.5">
       <c r="B1313" s="19">
-        <f t="shared" ref="B1313" si="142">B1309+1</f>
+        <f t="shared" ref="B1313" si="141">B1309+1</f>
         <v>328</v>
       </c>
       <c r="C1313" s="6"/>
@@ -34008,7 +32677,7 @@
     </row>
     <row r="1317" spans="2:18" ht="58.5">
       <c r="B1317" s="19">
-        <f t="shared" ref="B1317" si="143">B1313+1</f>
+        <f t="shared" ref="B1317" si="142">B1313+1</f>
         <v>329</v>
       </c>
       <c r="C1317" s="6"/>
@@ -34087,7 +32756,7 @@
     </row>
     <row r="1321" spans="2:18" ht="58.5">
       <c r="B1321" s="19">
-        <f t="shared" ref="B1321" si="144">B1317+1</f>
+        <f t="shared" ref="B1321" si="143">B1317+1</f>
         <v>330</v>
       </c>
       <c r="C1321" s="6"/>
@@ -34166,7 +32835,7 @@
     </row>
     <row r="1325" spans="2:18" ht="58.5">
       <c r="B1325" s="19">
-        <f t="shared" ref="B1325" si="145">B1321+1</f>
+        <f t="shared" ref="B1325" si="144">B1321+1</f>
         <v>331</v>
       </c>
       <c r="C1325" s="6"/>
@@ -34245,7 +32914,7 @@
     </row>
     <row r="1329" spans="2:18" ht="58.5">
       <c r="B1329" s="19">
-        <f t="shared" ref="B1329" si="146">B1325+1</f>
+        <f t="shared" ref="B1329" si="145">B1325+1</f>
         <v>332</v>
       </c>
       <c r="C1329" s="6"/>
@@ -34324,7 +32993,7 @@
     </row>
     <row r="1333" spans="2:18" ht="58.5">
       <c r="B1333" s="19">
-        <f t="shared" ref="B1333" si="147">B1329+1</f>
+        <f t="shared" ref="B1333" si="146">B1329+1</f>
         <v>333</v>
       </c>
       <c r="C1333" s="6"/>
@@ -34403,7 +33072,7 @@
     </row>
     <row r="1337" spans="2:18" ht="58.5">
       <c r="B1337" s="19">
-        <f t="shared" ref="B1337" si="148">B1333+1</f>
+        <f t="shared" ref="B1337" si="147">B1333+1</f>
         <v>334</v>
       </c>
       <c r="C1337" s="6"/>
@@ -34482,7 +33151,7 @@
     </row>
     <row r="1341" spans="2:18" ht="58.5">
       <c r="B1341" s="19">
-        <f t="shared" ref="B1341" si="149">B1337+1</f>
+        <f t="shared" ref="B1341" si="148">B1337+1</f>
         <v>335</v>
       </c>
       <c r="C1341" s="6"/>
@@ -34561,7 +33230,7 @@
     </row>
     <row r="1345" spans="2:18" ht="58.5">
       <c r="B1345" s="19">
-        <f t="shared" ref="B1345" si="150">B1341+1</f>
+        <f t="shared" ref="B1345" si="149">B1341+1</f>
         <v>336</v>
       </c>
       <c r="C1345" s="6"/>
@@ -34640,7 +33309,7 @@
     </row>
     <row r="1349" spans="2:18" ht="58.5">
       <c r="B1349" s="19">
-        <f t="shared" ref="B1349" si="151">B1345+1</f>
+        <f t="shared" ref="B1349" si="150">B1345+1</f>
         <v>337</v>
       </c>
       <c r="C1349" s="6"/>
@@ -34719,7 +33388,7 @@
     </row>
     <row r="1353" spans="2:18" ht="58.5">
       <c r="B1353" s="19">
-        <f t="shared" ref="B1353" si="152">B1349+1</f>
+        <f t="shared" ref="B1353" si="151">B1349+1</f>
         <v>338</v>
       </c>
       <c r="C1353" s="6"/>
@@ -34798,7 +33467,7 @@
     </row>
     <row r="1357" spans="2:18" ht="58.5">
       <c r="B1357" s="19">
-        <f t="shared" ref="B1357" si="153">B1353+1</f>
+        <f t="shared" ref="B1357" si="152">B1353+1</f>
         <v>339</v>
       </c>
       <c r="C1357" s="6"/>
@@ -34877,7 +33546,7 @@
     </row>
     <row r="1361" spans="2:18" ht="58.5">
       <c r="B1361" s="19">
-        <f t="shared" ref="B1361" si="154">B1357+1</f>
+        <f t="shared" ref="B1361" si="153">B1357+1</f>
         <v>340</v>
       </c>
       <c r="C1361" s="6"/>
@@ -34956,7 +33625,7 @@
     </row>
     <row r="1365" spans="2:18" ht="58.5">
       <c r="B1365" s="19">
-        <f t="shared" ref="B1365" si="155">B1361+1</f>
+        <f t="shared" ref="B1365" si="154">B1361+1</f>
         <v>341</v>
       </c>
       <c r="C1365" s="6"/>
@@ -35035,7 +33704,7 @@
     </row>
     <row r="1369" spans="2:18" ht="58.5">
       <c r="B1369" s="19">
-        <f t="shared" ref="B1369" si="156">B1365+1</f>
+        <f t="shared" ref="B1369" si="155">B1365+1</f>
         <v>342</v>
       </c>
       <c r="C1369" s="6"/>
@@ -35114,7 +33783,7 @@
     </row>
     <row r="1373" spans="2:18" ht="58.5">
       <c r="B1373" s="19">
-        <f t="shared" ref="B1373" si="157">B1369+1</f>
+        <f t="shared" ref="B1373" si="156">B1369+1</f>
         <v>343</v>
       </c>
       <c r="C1373" s="6"/>
@@ -35193,7 +33862,7 @@
     </row>
     <row r="1377" spans="2:18" ht="58.5">
       <c r="B1377" s="19">
-        <f t="shared" ref="B1377" si="158">B1373+1</f>
+        <f t="shared" ref="B1377" si="157">B1373+1</f>
         <v>344</v>
       </c>
       <c r="C1377" s="6"/>
@@ -35272,7 +33941,7 @@
     </row>
     <row r="1381" spans="2:18" ht="58.5">
       <c r="B1381" s="19">
-        <f t="shared" ref="B1381" si="159">B1377+1</f>
+        <f t="shared" ref="B1381" si="158">B1377+1</f>
         <v>345</v>
       </c>
       <c r="C1381" s="6"/>
@@ -35351,7 +34020,7 @@
     </row>
     <row r="1385" spans="2:18" ht="58.5">
       <c r="B1385" s="19">
-        <f t="shared" ref="B1385" si="160">B1381+1</f>
+        <f t="shared" ref="B1385" si="159">B1381+1</f>
         <v>346</v>
       </c>
       <c r="C1385" s="6"/>
@@ -35430,7 +34099,7 @@
     </row>
     <row r="1389" spans="2:18" ht="58.5">
       <c r="B1389" s="19">
-        <f t="shared" ref="B1389" si="161">B1385+1</f>
+        <f t="shared" ref="B1389" si="160">B1385+1</f>
         <v>347</v>
       </c>
       <c r="C1389" s="6"/>
@@ -35509,7 +34178,7 @@
     </row>
     <row r="1393" spans="2:18" ht="58.5">
       <c r="B1393" s="19">
-        <f t="shared" ref="B1393" si="162">B1389+1</f>
+        <f t="shared" ref="B1393" si="161">B1389+1</f>
         <v>348</v>
       </c>
       <c r="C1393" s="6"/>
@@ -35588,7 +34257,7 @@
     </row>
     <row r="1397" spans="2:18" ht="58.5">
       <c r="B1397" s="19">
-        <f t="shared" ref="B1397" si="163">B1393+1</f>
+        <f t="shared" ref="B1397" si="162">B1393+1</f>
         <v>349</v>
       </c>
       <c r="C1397" s="6"/>
@@ -35667,7 +34336,7 @@
     </row>
     <row r="1401" spans="2:18" ht="58.5">
       <c r="B1401" s="19">
-        <f t="shared" ref="B1401" si="164">B1397+1</f>
+        <f t="shared" ref="B1401" si="163">B1397+1</f>
         <v>350</v>
       </c>
       <c r="C1401" s="6"/>
@@ -37879,7 +36548,7 @@
     </row>
     <row r="1513" spans="2:18" ht="58.5">
       <c r="B1513" s="19">
-        <f t="shared" ref="B1513" si="165">B1509+1</f>
+        <f t="shared" ref="B1513" si="164">B1509+1</f>
         <v>378</v>
       </c>
       <c r="C1513" s="6"/>
@@ -37958,7 +36627,7 @@
     </row>
     <row r="1517" spans="2:18" ht="58.5">
       <c r="B1517" s="19">
-        <f t="shared" ref="B1517" si="166">B1513+1</f>
+        <f t="shared" ref="B1517" si="165">B1513+1</f>
         <v>379</v>
       </c>
       <c r="C1517" s="6"/>
@@ -38037,7 +36706,7 @@
     </row>
     <row r="1521" spans="2:18" ht="58.5">
       <c r="B1521" s="19">
-        <f t="shared" ref="B1521" si="167">B1517+1</f>
+        <f t="shared" ref="B1521" si="166">B1517+1</f>
         <v>380</v>
       </c>
       <c r="C1521" s="6"/>
@@ -38116,7 +36785,7 @@
     </row>
     <row r="1525" spans="2:18" ht="58.5">
       <c r="B1525" s="19">
-        <f t="shared" ref="B1525" si="168">B1521+1</f>
+        <f t="shared" ref="B1525" si="167">B1521+1</f>
         <v>381</v>
       </c>
       <c r="C1525" s="6"/>
@@ -38195,7 +36864,7 @@
     </row>
     <row r="1529" spans="2:18" ht="58.5">
       <c r="B1529" s="19">
-        <f t="shared" ref="B1529" si="169">B1525+1</f>
+        <f t="shared" ref="B1529" si="168">B1525+1</f>
         <v>382</v>
       </c>
       <c r="C1529" s="6"/>
@@ -38274,7 +36943,7 @@
     </row>
     <row r="1533" spans="2:18" ht="58.5">
       <c r="B1533" s="19">
-        <f t="shared" ref="B1533" si="170">B1529+1</f>
+        <f t="shared" ref="B1533" si="169">B1529+1</f>
         <v>383</v>
       </c>
       <c r="C1533" s="6"/>
@@ -38353,7 +37022,7 @@
     </row>
     <row r="1537" spans="2:18" ht="58.5">
       <c r="B1537" s="19">
-        <f t="shared" ref="B1537" si="171">B1533+1</f>
+        <f t="shared" ref="B1537" si="170">B1533+1</f>
         <v>384</v>
       </c>
       <c r="C1537" s="6"/>
@@ -38432,7 +37101,7 @@
     </row>
     <row r="1541" spans="2:18" ht="58.5">
       <c r="B1541" s="19">
-        <f t="shared" ref="B1541" si="172">B1537+1</f>
+        <f t="shared" ref="B1541" si="171">B1537+1</f>
         <v>385</v>
       </c>
       <c r="C1541" s="6"/>
@@ -38511,7 +37180,7 @@
     </row>
     <row r="1545" spans="2:18" ht="58.5">
       <c r="B1545" s="19">
-        <f t="shared" ref="B1545" si="173">B1541+1</f>
+        <f t="shared" ref="B1545" si="172">B1541+1</f>
         <v>386</v>
       </c>
       <c r="C1545" s="6"/>
@@ -38590,7 +37259,7 @@
     </row>
     <row r="1549" spans="2:18" ht="58.5">
       <c r="B1549" s="19">
-        <f t="shared" ref="B1549" si="174">B1545+1</f>
+        <f t="shared" ref="B1549" si="173">B1545+1</f>
         <v>387</v>
       </c>
       <c r="C1549" s="6"/>
@@ -38669,7 +37338,7 @@
     </row>
     <row r="1553" spans="2:18" ht="58.5">
       <c r="B1553" s="19">
-        <f t="shared" ref="B1553" si="175">B1549+1</f>
+        <f t="shared" ref="B1553" si="174">B1549+1</f>
         <v>388</v>
       </c>
       <c r="C1553" s="6"/>
@@ -38748,7 +37417,7 @@
     </row>
     <row r="1557" spans="2:18" ht="58.5">
       <c r="B1557" s="19">
-        <f t="shared" ref="B1557" si="176">B1553+1</f>
+        <f t="shared" ref="B1557" si="175">B1553+1</f>
         <v>389</v>
       </c>
       <c r="C1557" s="6"/>
@@ -38827,7 +37496,7 @@
     </row>
     <row r="1561" spans="2:18" ht="58.5">
       <c r="B1561" s="19">
-        <f t="shared" ref="B1561" si="177">B1557+1</f>
+        <f t="shared" ref="B1561" si="176">B1557+1</f>
         <v>390</v>
       </c>
       <c r="C1561" s="6"/>
@@ -38906,7 +37575,7 @@
     </row>
     <row r="1565" spans="2:18" ht="58.5">
       <c r="B1565" s="19">
-        <f t="shared" ref="B1565" si="178">B1561+1</f>
+        <f t="shared" ref="B1565" si="177">B1561+1</f>
         <v>391</v>
       </c>
       <c r="C1565" s="6"/>
@@ -38985,7 +37654,7 @@
     </row>
     <row r="1569" spans="2:18" ht="58.5">
       <c r="B1569" s="19">
-        <f t="shared" ref="B1569" si="179">B1565+1</f>
+        <f t="shared" ref="B1569" si="178">B1565+1</f>
         <v>392</v>
       </c>
       <c r="C1569" s="6"/>
@@ -39064,7 +37733,7 @@
     </row>
     <row r="1573" spans="2:18" ht="58.5">
       <c r="B1573" s="19">
-        <f t="shared" ref="B1573" si="180">B1569+1</f>
+        <f t="shared" ref="B1573" si="179">B1569+1</f>
         <v>393</v>
       </c>
       <c r="C1573" s="6"/>
@@ -39143,7 +37812,7 @@
     </row>
     <row r="1577" spans="2:18" ht="58.5">
       <c r="B1577" s="19">
-        <f t="shared" ref="B1577" si="181">B1573+1</f>
+        <f t="shared" ref="B1577" si="180">B1573+1</f>
         <v>394</v>
       </c>
       <c r="C1577" s="6"/>
@@ -39222,7 +37891,7 @@
     </row>
     <row r="1581" spans="2:18" ht="58.5">
       <c r="B1581" s="19">
-        <f t="shared" ref="B1581" si="182">B1577+1</f>
+        <f t="shared" ref="B1581" si="181">B1577+1</f>
         <v>395</v>
       </c>
       <c r="C1581" s="6"/>
@@ -39301,7 +37970,7 @@
     </row>
     <row r="1585" spans="2:18" ht="58.5">
       <c r="B1585" s="19">
-        <f t="shared" ref="B1585" si="183">B1581+1</f>
+        <f t="shared" ref="B1585" si="182">B1581+1</f>
         <v>396</v>
       </c>
       <c r="C1585" s="6"/>
@@ -39380,7 +38049,7 @@
     </row>
     <row r="1589" spans="2:18" ht="58.5">
       <c r="B1589" s="19">
-        <f t="shared" ref="B1589" si="184">B1585+1</f>
+        <f t="shared" ref="B1589" si="183">B1585+1</f>
         <v>397</v>
       </c>
       <c r="C1589" s="6"/>
@@ -39459,7 +38128,7 @@
     </row>
     <row r="1593" spans="2:18" ht="58.5">
       <c r="B1593" s="19">
-        <f t="shared" ref="B1593" si="185">B1589+1</f>
+        <f t="shared" ref="B1593" si="184">B1589+1</f>
         <v>398</v>
       </c>
       <c r="C1593" s="6"/>
@@ -39538,7 +38207,7 @@
     </row>
     <row r="1597" spans="2:18" ht="58.5">
       <c r="B1597" s="19">
-        <f t="shared" ref="B1597" si="186">B1593+1</f>
+        <f t="shared" ref="B1597" si="185">B1593+1</f>
         <v>399</v>
       </c>
       <c r="C1597" s="6"/>
@@ -39617,7 +38286,7 @@
     </row>
     <row r="1601" spans="2:18" ht="58.5">
       <c r="B1601" s="19">
-        <f t="shared" ref="B1601" si="187">B1597+1</f>
+        <f t="shared" ref="B1601" si="186">B1597+1</f>
         <v>400</v>
       </c>
       <c r="C1601" s="6"/>
@@ -39696,7 +38365,7 @@
     </row>
     <row r="1605" spans="2:18" ht="58.5">
       <c r="B1605" s="19">
-        <f t="shared" ref="B1605" si="188">B1601+1</f>
+        <f t="shared" ref="B1605" si="187">B1601+1</f>
         <v>401</v>
       </c>
       <c r="C1605" s="6"/>
@@ -41829,7 +40498,7 @@
     </row>
     <row r="1713" spans="2:18" ht="58.5">
       <c r="B1713" s="19">
-        <f t="shared" ref="B1713" si="189">B1709+1</f>
+        <f t="shared" ref="B1713" si="188">B1709+1</f>
         <v>428</v>
       </c>
       <c r="C1713" s="6"/>
@@ -41908,7 +40577,7 @@
     </row>
     <row r="1717" spans="2:18" ht="58.5">
       <c r="B1717" s="19">
-        <f t="shared" ref="B1717" si="190">B1713+1</f>
+        <f t="shared" ref="B1717" si="189">B1713+1</f>
         <v>429</v>
       </c>
       <c r="C1717" s="6"/>
@@ -41987,7 +40656,7 @@
     </row>
     <row r="1721" spans="2:18" ht="58.5">
       <c r="B1721" s="19">
-        <f t="shared" ref="B1721" si="191">B1717+1</f>
+        <f t="shared" ref="B1721" si="190">B1717+1</f>
         <v>430</v>
       </c>
       <c r="C1721" s="6"/>
@@ -42066,7 +40735,7 @@
     </row>
     <row r="1725" spans="2:18" ht="58.5">
       <c r="B1725" s="19">
-        <f t="shared" ref="B1725" si="192">B1721+1</f>
+        <f t="shared" ref="B1725" si="191">B1721+1</f>
         <v>431</v>
       </c>
       <c r="C1725" s="6"/>
@@ -42145,7 +40814,7 @@
     </row>
     <row r="1729" spans="2:18" ht="58.5">
       <c r="B1729" s="19">
-        <f t="shared" ref="B1729" si="193">B1725+1</f>
+        <f t="shared" ref="B1729" si="192">B1725+1</f>
         <v>432</v>
       </c>
       <c r="C1729" s="6"/>
@@ -42224,7 +40893,7 @@
     </row>
     <row r="1733" spans="2:18" ht="58.5">
       <c r="B1733" s="19">
-        <f t="shared" ref="B1733" si="194">B1729+1</f>
+        <f t="shared" ref="B1733" si="193">B1729+1</f>
         <v>433</v>
       </c>
       <c r="C1733" s="6"/>
@@ -42303,7 +40972,7 @@
     </row>
     <row r="1737" spans="2:18" ht="58.5">
       <c r="B1737" s="19">
-        <f t="shared" ref="B1737" si="195">B1733+1</f>
+        <f t="shared" ref="B1737" si="194">B1733+1</f>
         <v>434</v>
       </c>
       <c r="C1737" s="6"/>
@@ -42382,7 +41051,7 @@
     </row>
     <row r="1741" spans="2:18" ht="58.5">
       <c r="B1741" s="19">
-        <f t="shared" ref="B1741" si="196">B1737+1</f>
+        <f t="shared" ref="B1741" si="195">B1737+1</f>
         <v>435</v>
       </c>
       <c r="C1741" s="6"/>
@@ -42461,7 +41130,7 @@
     </row>
     <row r="1745" spans="2:18" ht="58.5">
       <c r="B1745" s="19">
-        <f t="shared" ref="B1745" si="197">B1741+1</f>
+        <f t="shared" ref="B1745" si="196">B1741+1</f>
         <v>436</v>
       </c>
       <c r="C1745" s="6"/>
@@ -42540,7 +41209,7 @@
     </row>
     <row r="1749" spans="2:18" ht="58.5">
       <c r="B1749" s="19">
-        <f t="shared" ref="B1749" si="198">B1745+1</f>
+        <f t="shared" ref="B1749" si="197">B1745+1</f>
         <v>437</v>
       </c>
       <c r="C1749" s="6"/>
@@ -42619,7 +41288,7 @@
     </row>
     <row r="1753" spans="2:18" ht="58.5">
       <c r="B1753" s="19">
-        <f t="shared" ref="B1753" si="199">B1749+1</f>
+        <f t="shared" ref="B1753" si="198">B1749+1</f>
         <v>438</v>
       </c>
       <c r="C1753" s="6"/>
@@ -42698,7 +41367,7 @@
     </row>
     <row r="1757" spans="2:18" ht="58.5">
       <c r="B1757" s="19">
-        <f t="shared" ref="B1757" si="200">B1753+1</f>
+        <f t="shared" ref="B1757" si="199">B1753+1</f>
         <v>439</v>
       </c>
       <c r="C1757" s="6"/>
@@ -42777,7 +41446,7 @@
     </row>
     <row r="1761" spans="2:18" ht="58.5">
       <c r="B1761" s="19">
-        <f t="shared" ref="B1761" si="201">B1757+1</f>
+        <f t="shared" ref="B1761" si="200">B1757+1</f>
         <v>440</v>
       </c>
       <c r="C1761" s="6"/>
@@ -42856,7 +41525,7 @@
     </row>
     <row r="1765" spans="2:18" ht="58.5">
       <c r="B1765" s="19">
-        <f t="shared" ref="B1765" si="202">B1761+1</f>
+        <f t="shared" ref="B1765" si="201">B1761+1</f>
         <v>441</v>
       </c>
       <c r="C1765" s="6"/>
@@ -42935,7 +41604,7 @@
     </row>
     <row r="1769" spans="2:18" ht="58.5">
       <c r="B1769" s="19">
-        <f t="shared" ref="B1769" si="203">B1765+1</f>
+        <f t="shared" ref="B1769" si="202">B1765+1</f>
         <v>442</v>
       </c>
       <c r="C1769" s="6"/>
@@ -43014,7 +41683,7 @@
     </row>
     <row r="1773" spans="2:18" ht="58.5">
       <c r="B1773" s="19">
-        <f t="shared" ref="B1773" si="204">B1769+1</f>
+        <f t="shared" ref="B1773" si="203">B1769+1</f>
         <v>443</v>
       </c>
       <c r="C1773" s="6"/>
@@ -43093,7 +41762,7 @@
     </row>
     <row r="1777" spans="2:18" ht="58.5">
       <c r="B1777" s="19">
-        <f t="shared" ref="B1777" si="205">B1773+1</f>
+        <f t="shared" ref="B1777" si="204">B1773+1</f>
         <v>444</v>
       </c>
       <c r="C1777" s="6"/>
@@ -43172,7 +41841,7 @@
     </row>
     <row r="1781" spans="2:18" ht="58.5">
       <c r="B1781" s="19">
-        <f t="shared" ref="B1781" si="206">B1777+1</f>
+        <f t="shared" ref="B1781" si="205">B1777+1</f>
         <v>445</v>
       </c>
       <c r="C1781" s="6"/>
@@ -43251,7 +41920,7 @@
     </row>
     <row r="1785" spans="2:18" ht="58.5">
       <c r="B1785" s="19">
-        <f t="shared" ref="B1785" si="207">B1781+1</f>
+        <f t="shared" ref="B1785" si="206">B1781+1</f>
         <v>446</v>
       </c>
       <c r="C1785" s="6"/>
@@ -43330,7 +41999,7 @@
     </row>
     <row r="1789" spans="2:18" ht="58.5">
       <c r="B1789" s="19">
-        <f t="shared" ref="B1789" si="208">B1785+1</f>
+        <f t="shared" ref="B1789" si="207">B1785+1</f>
         <v>447</v>
       </c>
       <c r="C1789" s="6"/>
@@ -43409,7 +42078,7 @@
     </row>
     <row r="1793" spans="2:18" ht="58.5">
       <c r="B1793" s="19">
-        <f t="shared" ref="B1793" si="209">B1789+1</f>
+        <f t="shared" ref="B1793" si="208">B1789+1</f>
         <v>448</v>
       </c>
       <c r="C1793" s="6"/>
@@ -43488,7 +42157,7 @@
     </row>
     <row r="1797" spans="2:18" ht="58.5">
       <c r="B1797" s="19">
-        <f t="shared" ref="B1797" si="210">B1793+1</f>
+        <f t="shared" ref="B1797" si="209">B1793+1</f>
         <v>449</v>
       </c>
       <c r="C1797" s="6"/>
@@ -43567,7 +42236,7 @@
     </row>
     <row r="1801" spans="2:18" ht="58.5">
       <c r="B1801" s="19">
-        <f t="shared" ref="B1801" si="211">B1797+1</f>
+        <f t="shared" ref="B1801" si="210">B1797+1</f>
         <v>450</v>
       </c>
       <c r="C1801" s="6"/>
@@ -45779,7 +44448,7 @@
     </row>
     <row r="1913" spans="2:18" ht="58.5">
       <c r="B1913" s="19">
-        <f t="shared" ref="B1913" si="212">B1909+1</f>
+        <f t="shared" ref="B1913" si="211">B1909+1</f>
         <v>478</v>
       </c>
       <c r="C1913" s="6"/>
@@ -45858,7 +44527,7 @@
     </row>
     <row r="1917" spans="2:18" ht="58.5">
       <c r="B1917" s="19">
-        <f t="shared" ref="B1917" si="213">B1913+1</f>
+        <f t="shared" ref="B1917" si="212">B1913+1</f>
         <v>479</v>
       </c>
       <c r="C1917" s="6"/>
@@ -45937,7 +44606,7 @@
     </row>
     <row r="1921" spans="2:18" ht="58.5">
       <c r="B1921" s="19">
-        <f t="shared" ref="B1921" si="214">B1917+1</f>
+        <f t="shared" ref="B1921" si="213">B1917+1</f>
         <v>480</v>
       </c>
       <c r="C1921" s="6"/>
@@ -46016,7 +44685,7 @@
     </row>
     <row r="1925" spans="2:18" ht="58.5">
       <c r="B1925" s="19">
-        <f t="shared" ref="B1925" si="215">B1921+1</f>
+        <f t="shared" ref="B1925" si="214">B1921+1</f>
         <v>481</v>
       </c>
       <c r="C1925" s="6"/>
@@ -46095,7 +44764,7 @@
     </row>
     <row r="1929" spans="2:18" ht="58.5">
       <c r="B1929" s="19">
-        <f t="shared" ref="B1929" si="216">B1925+1</f>
+        <f t="shared" ref="B1929" si="215">B1925+1</f>
         <v>482</v>
       </c>
       <c r="C1929" s="6"/>
@@ -46174,7 +44843,7 @@
     </row>
     <row r="1933" spans="2:18" ht="58.5">
       <c r="B1933" s="19">
-        <f t="shared" ref="B1933" si="217">B1929+1</f>
+        <f t="shared" ref="B1933" si="216">B1929+1</f>
         <v>483</v>
       </c>
       <c r="C1933" s="6"/>
@@ -46253,7 +44922,7 @@
     </row>
     <row r="1937" spans="2:18" ht="58.5">
       <c r="B1937" s="19">
-        <f t="shared" ref="B1937" si="218">B1933+1</f>
+        <f t="shared" ref="B1937" si="217">B1933+1</f>
         <v>484</v>
       </c>
       <c r="C1937" s="6"/>
@@ -46332,7 +45001,7 @@
     </row>
     <row r="1941" spans="2:18" ht="58.5">
       <c r="B1941" s="19">
-        <f t="shared" ref="B1941" si="219">B1937+1</f>
+        <f t="shared" ref="B1941" si="218">B1937+1</f>
         <v>485</v>
       </c>
       <c r="C1941" s="6"/>
@@ -46411,7 +45080,7 @@
     </row>
     <row r="1945" spans="2:18" ht="58.5">
       <c r="B1945" s="19">
-        <f t="shared" ref="B1945" si="220">B1941+1</f>
+        <f t="shared" ref="B1945" si="219">B1941+1</f>
         <v>486</v>
       </c>
       <c r="C1945" s="6"/>
@@ -46490,7 +45159,7 @@
     </row>
     <row r="1949" spans="2:18" ht="58.5">
       <c r="B1949" s="19">
-        <f t="shared" ref="B1949" si="221">B1945+1</f>
+        <f t="shared" ref="B1949" si="220">B1945+1</f>
         <v>487</v>
       </c>
       <c r="C1949" s="6"/>
@@ -46569,7 +45238,7 @@
     </row>
     <row r="1953" spans="2:18" ht="58.5">
       <c r="B1953" s="19">
-        <f t="shared" ref="B1953" si="222">B1949+1</f>
+        <f t="shared" ref="B1953" si="221">B1949+1</f>
         <v>488</v>
       </c>
       <c r="C1953" s="6"/>
@@ -46648,7 +45317,7 @@
     </row>
     <row r="1957" spans="2:18" ht="58.5">
       <c r="B1957" s="19">
-        <f t="shared" ref="B1957" si="223">B1953+1</f>
+        <f t="shared" ref="B1957" si="222">B1953+1</f>
         <v>489</v>
       </c>
       <c r="C1957" s="6"/>
@@ -46727,7 +45396,7 @@
     </row>
     <row r="1961" spans="2:18" ht="58.5">
       <c r="B1961" s="19">
-        <f t="shared" ref="B1961" si="224">B1957+1</f>
+        <f t="shared" ref="B1961" si="223">B1957+1</f>
         <v>490</v>
       </c>
       <c r="C1961" s="6"/>
@@ -46806,7 +45475,7 @@
     </row>
     <row r="1965" spans="2:18" ht="58.5">
       <c r="B1965" s="19">
-        <f t="shared" ref="B1965" si="225">B1961+1</f>
+        <f t="shared" ref="B1965" si="224">B1961+1</f>
         <v>491</v>
       </c>
       <c r="C1965" s="6"/>
@@ -46885,7 +45554,7 @@
     </row>
     <row r="1969" spans="2:18" ht="58.5">
       <c r="B1969" s="19">
-        <f t="shared" ref="B1969" si="226">B1965+1</f>
+        <f t="shared" ref="B1969" si="225">B1965+1</f>
         <v>492</v>
       </c>
       <c r="C1969" s="6"/>
@@ -46964,7 +45633,7 @@
     </row>
     <row r="1973" spans="2:18" ht="58.5">
       <c r="B1973" s="19">
-        <f t="shared" ref="B1973" si="227">B1969+1</f>
+        <f t="shared" ref="B1973" si="226">B1969+1</f>
         <v>493</v>
       </c>
       <c r="C1973" s="6"/>
@@ -47043,7 +45712,7 @@
     </row>
     <row r="1977" spans="2:18" ht="58.5">
       <c r="B1977" s="19">
-        <f t="shared" ref="B1977" si="228">B1973+1</f>
+        <f t="shared" ref="B1977" si="227">B1973+1</f>
         <v>494</v>
       </c>
       <c r="C1977" s="6"/>
@@ -47122,7 +45791,7 @@
     </row>
     <row r="1981" spans="2:18" ht="58.5">
       <c r="B1981" s="19">
-        <f t="shared" ref="B1981" si="229">B1977+1</f>
+        <f t="shared" ref="B1981" si="228">B1977+1</f>
         <v>495</v>
       </c>
       <c r="C1981" s="6"/>
@@ -47201,7 +45870,7 @@
     </row>
     <row r="1985" spans="2:18" ht="58.5">
       <c r="B1985" s="19">
-        <f t="shared" ref="B1985" si="230">B1981+1</f>
+        <f t="shared" ref="B1985" si="229">B1981+1</f>
         <v>496</v>
       </c>
       <c r="C1985" s="6"/>
@@ -47280,7 +45949,7 @@
     </row>
     <row r="1989" spans="2:18" ht="58.5">
       <c r="B1989" s="19">
-        <f t="shared" ref="B1989" si="231">B1985+1</f>
+        <f t="shared" ref="B1989" si="230">B1985+1</f>
         <v>497</v>
       </c>
       <c r="C1989" s="6"/>
@@ -47359,7 +46028,7 @@
     </row>
     <row r="1993" spans="2:18" ht="58.5">
       <c r="B1993" s="19">
-        <f t="shared" ref="B1993" si="232">B1989+1</f>
+        <f t="shared" ref="B1993" si="231">B1989+1</f>
         <v>498</v>
       </c>
       <c r="C1993" s="6"/>
@@ -47438,7 +46107,7 @@
     </row>
     <row r="1997" spans="2:18" ht="58.5">
       <c r="B1997" s="19">
-        <f t="shared" ref="B1997" si="233">B1993+1</f>
+        <f t="shared" ref="B1997" si="232">B1993+1</f>
         <v>499</v>
       </c>
       <c r="C1997" s="6"/>
@@ -47517,7 +46186,7 @@
     </row>
     <row r="2001" spans="2:18" ht="58.5">
       <c r="B2001" s="19">
-        <f t="shared" ref="B2001" si="234">B1997+1</f>
+        <f t="shared" ref="B2001" si="233">B1997+1</f>
         <v>500</v>
       </c>
       <c r="C2001" s="6"/>
